--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.324636</v>
+        <v>0.314589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.260005</v>
+        <v>0.181304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244305</v>
+        <v>0.243795</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.299817</v>
+        <v>0.3007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.262919</v>
+        <v>0.184668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252887</v>
+        <v>0.250071</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.308694</v>
+        <v>0.307264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.267186</v>
+        <v>0.188244</v>
       </c>
       <c r="D4" t="n">
-        <v>0.255677</v>
+        <v>0.254964</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316406</v>
+        <v>0.313033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.270836</v>
+        <v>0.192909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257763</v>
+        <v>0.257959</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.318441</v>
+        <v>0.321644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273979</v>
+        <v>0.195667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260243</v>
+        <v>0.268109</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.322973</v>
+        <v>0.33248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.261097</v>
+        <v>0.17997</v>
       </c>
       <c r="D7" t="n">
-        <v>0.270862</v>
+        <v>0.27349</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.333836</v>
+        <v>0.3313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2638</v>
+        <v>0.181961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276559</v>
+        <v>0.278825</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.336515</v>
+        <v>0.340303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.265941</v>
+        <v>0.184324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.283114</v>
+        <v>0.287062</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.343364</v>
+        <v>0.348609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.268137</v>
+        <v>0.186226</v>
       </c>
       <c r="D10" t="n">
-        <v>0.289661</v>
+        <v>0.291122</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.347605</v>
+        <v>0.354303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26994</v>
+        <v>0.187994</v>
       </c>
       <c r="D11" t="n">
-        <v>0.294671</v>
+        <v>0.298148</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.358406</v>
+        <v>0.357962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.273503</v>
+        <v>0.189944</v>
       </c>
       <c r="D12" t="n">
-        <v>0.30029</v>
+        <v>0.303312</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.364383</v>
+        <v>0.367252</v>
       </c>
       <c r="C13" t="n">
-        <v>0.276016</v>
+        <v>0.193315</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30721</v>
+        <v>0.307316</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.372947</v>
+        <v>0.371307</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279367</v>
+        <v>0.195398</v>
       </c>
       <c r="D14" t="n">
-        <v>0.309643</v>
+        <v>0.313103</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.378654</v>
+        <v>0.381751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.283648</v>
+        <v>0.199082</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317583</v>
+        <v>0.317283</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.385902</v>
+        <v>0.387233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.286971</v>
+        <v>0.200618</v>
       </c>
       <c r="D16" t="n">
-        <v>0.32369</v>
+        <v>0.32331</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.395404</v>
+        <v>0.394126</v>
       </c>
       <c r="C17" t="n">
-        <v>0.290353</v>
+        <v>0.202847</v>
       </c>
       <c r="D17" t="n">
-        <v>0.330512</v>
+        <v>0.329395</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.380574</v>
+        <v>0.379105</v>
       </c>
       <c r="C18" t="n">
-        <v>0.293858</v>
+        <v>0.205957</v>
       </c>
       <c r="D18" t="n">
-        <v>0.33492</v>
+        <v>0.335148</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.385329</v>
+        <v>0.384996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.298475</v>
+        <v>0.21002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.341821</v>
+        <v>0.340965</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.391078</v>
+        <v>0.389373</v>
       </c>
       <c r="C20" t="n">
-        <v>0.302194</v>
+        <v>0.212216</v>
       </c>
       <c r="D20" t="n">
-        <v>0.346319</v>
+        <v>0.347019</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.396716</v>
+        <v>0.394184</v>
       </c>
       <c r="C21" t="n">
-        <v>0.280183</v>
+        <v>0.191589</v>
       </c>
       <c r="D21" t="n">
-        <v>0.352725</v>
+        <v>0.353777</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402117</v>
+        <v>0.399544</v>
       </c>
       <c r="C22" t="n">
-        <v>0.282785</v>
+        <v>0.193163</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358072</v>
+        <v>0.358174</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.408208</v>
+        <v>0.407583</v>
       </c>
       <c r="C23" t="n">
-        <v>0.285191</v>
+        <v>0.195378</v>
       </c>
       <c r="D23" t="n">
-        <v>0.362529</v>
+        <v>0.362081</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.413849</v>
+        <v>0.413955</v>
       </c>
       <c r="C24" t="n">
-        <v>0.28793</v>
+        <v>0.197688</v>
       </c>
       <c r="D24" t="n">
-        <v>0.366518</v>
+        <v>0.365991</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.419702</v>
+        <v>0.418836</v>
       </c>
       <c r="C25" t="n">
-        <v>0.290149</v>
+        <v>0.200373</v>
       </c>
       <c r="D25" t="n">
-        <v>0.370083</v>
+        <v>0.369572</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.426123</v>
+        <v>0.424824</v>
       </c>
       <c r="C26" t="n">
-        <v>0.293666</v>
+        <v>0.201235</v>
       </c>
       <c r="D26" t="n">
-        <v>0.373999</v>
+        <v>0.373582</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.43139</v>
+        <v>0.430889</v>
       </c>
       <c r="C27" t="n">
-        <v>0.29689</v>
+        <v>0.204088</v>
       </c>
       <c r="D27" t="n">
-        <v>0.377404</v>
+        <v>0.376913</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.435214</v>
+        <v>0.436809</v>
       </c>
       <c r="C28" t="n">
-        <v>0.300325</v>
+        <v>0.206744</v>
       </c>
       <c r="D28" t="n">
-        <v>0.38079</v>
+        <v>0.381706</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.44274</v>
+        <v>0.44451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.303607</v>
+        <v>0.210854</v>
       </c>
       <c r="D29" t="n">
-        <v>0.385154</v>
+        <v>0.385541</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.448533</v>
+        <v>0.44847</v>
       </c>
       <c r="C30" t="n">
-        <v>0.307149</v>
+        <v>0.213033</v>
       </c>
       <c r="D30" t="n">
-        <v>0.388878</v>
+        <v>0.389015</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.453572</v>
+        <v>0.454255</v>
       </c>
       <c r="C31" t="n">
-        <v>0.31058</v>
+        <v>0.213967</v>
       </c>
       <c r="D31" t="n">
-        <v>0.392212</v>
+        <v>0.392198</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.426003</v>
+        <v>0.426608</v>
       </c>
       <c r="C32" t="n">
-        <v>0.314419</v>
+        <v>0.216874</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395935</v>
+        <v>0.395727</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.428989</v>
+        <v>0.430494</v>
       </c>
       <c r="C33" t="n">
-        <v>0.318178</v>
+        <v>0.219793</v>
       </c>
       <c r="D33" t="n">
-        <v>0.399702</v>
+        <v>0.399452</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434286</v>
+        <v>0.434021</v>
       </c>
       <c r="C34" t="n">
-        <v>0.321948</v>
+        <v>0.222763</v>
       </c>
       <c r="D34" t="n">
-        <v>0.402838</v>
+        <v>0.402767</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.437688</v>
+        <v>0.439087</v>
       </c>
       <c r="C35" t="n">
-        <v>0.29342</v>
+        <v>0.197816</v>
       </c>
       <c r="D35" t="n">
-        <v>0.402694</v>
+        <v>0.402381</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441528</v>
+        <v>0.442412</v>
       </c>
       <c r="C36" t="n">
-        <v>0.294913</v>
+        <v>0.200056</v>
       </c>
       <c r="D36" t="n">
-        <v>0.404909</v>
+        <v>0.404555</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445301</v>
+        <v>0.44598</v>
       </c>
       <c r="C37" t="n">
-        <v>0.297399</v>
+        <v>0.200782</v>
       </c>
       <c r="D37" t="n">
-        <v>0.406542</v>
+        <v>0.406412</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.450509</v>
+        <v>0.450587</v>
       </c>
       <c r="C38" t="n">
-        <v>0.299477</v>
+        <v>0.202634</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408643</v>
+        <v>0.408389</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454982</v>
+        <v>0.454371</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302382</v>
+        <v>0.205248</v>
       </c>
       <c r="D39" t="n">
-        <v>0.411062</v>
+        <v>0.410628</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.459589</v>
+        <v>0.4591</v>
       </c>
       <c r="C40" t="n">
-        <v>0.305435</v>
+        <v>0.20688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412456</v>
+        <v>0.412704</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464085</v>
+        <v>0.463067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.306492</v>
+        <v>0.209197</v>
       </c>
       <c r="D41" t="n">
-        <v>0.414906</v>
+        <v>0.414787</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.469137</v>
+        <v>0.468552</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310339</v>
+        <v>0.211196</v>
       </c>
       <c r="D42" t="n">
-        <v>0.417645</v>
+        <v>0.417223</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.473743</v>
+        <v>0.473122</v>
       </c>
       <c r="C43" t="n">
-        <v>0.312654</v>
+        <v>0.215013</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419416</v>
+        <v>0.419652</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.478027</v>
+        <v>0.477725</v>
       </c>
       <c r="C44" t="n">
-        <v>0.316821</v>
+        <v>0.215929</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421976</v>
+        <v>0.421737</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.483533</v>
+        <v>0.483162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.320859</v>
+        <v>0.218955</v>
       </c>
       <c r="D45" t="n">
-        <v>0.424247</v>
+        <v>0.423876</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.488678</v>
+        <v>0.487952</v>
       </c>
       <c r="C46" t="n">
-        <v>0.323979</v>
+        <v>0.221639</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426581</v>
+        <v>0.425962</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.450242</v>
+        <v>0.451035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.327887</v>
+        <v>0.224233</v>
       </c>
       <c r="D47" t="n">
-        <v>0.429084</v>
+        <v>0.42867</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.455036</v>
+        <v>0.453896</v>
       </c>
       <c r="C48" t="n">
-        <v>0.331934</v>
+        <v>0.226275</v>
       </c>
       <c r="D48" t="n">
-        <v>0.431016</v>
+        <v>0.430686</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.458179</v>
+        <v>0.458423</v>
       </c>
       <c r="C49" t="n">
-        <v>0.336325</v>
+        <v>0.230234</v>
       </c>
       <c r="D49" t="n">
-        <v>0.433037</v>
+        <v>0.432798</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461768</v>
+        <v>0.461581</v>
       </c>
       <c r="C50" t="n">
-        <v>0.306239</v>
+        <v>0.202774</v>
       </c>
       <c r="D50" t="n">
-        <v>0.42897</v>
+        <v>0.428729</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465396</v>
+        <v>0.464937</v>
       </c>
       <c r="C51" t="n">
-        <v>0.308396</v>
+        <v>0.205829</v>
       </c>
       <c r="D51" t="n">
-        <v>0.430498</v>
+        <v>0.429756</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468934</v>
+        <v>0.468371</v>
       </c>
       <c r="C52" t="n">
-        <v>0.310614</v>
+        <v>0.207164</v>
       </c>
       <c r="D52" t="n">
-        <v>0.43117</v>
+        <v>0.430622</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472506</v>
+        <v>0.472203</v>
       </c>
       <c r="C53" t="n">
-        <v>0.314563</v>
+        <v>0.209627</v>
       </c>
       <c r="D53" t="n">
-        <v>0.432515</v>
+        <v>0.431881</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.476553</v>
+        <v>0.475982</v>
       </c>
       <c r="C54" t="n">
-        <v>0.316715</v>
+        <v>0.211112</v>
       </c>
       <c r="D54" t="n">
-        <v>0.434041</v>
+        <v>0.433804</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.480337</v>
+        <v>0.479704</v>
       </c>
       <c r="C55" t="n">
-        <v>0.31952</v>
+        <v>0.213676</v>
       </c>
       <c r="D55" t="n">
-        <v>0.435626</v>
+        <v>0.434769</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.48536</v>
+        <v>0.484305</v>
       </c>
       <c r="C56" t="n">
-        <v>0.326242</v>
+        <v>0.22009</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436801</v>
+        <v>0.436282</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.488998</v>
+        <v>0.487315</v>
       </c>
       <c r="C57" t="n">
-        <v>0.330539</v>
+        <v>0.223687</v>
       </c>
       <c r="D57" t="n">
-        <v>0.438218</v>
+        <v>0.437789</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.493135</v>
+        <v>0.49227</v>
       </c>
       <c r="C58" t="n">
-        <v>0.338576</v>
+        <v>0.227293</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440251</v>
+        <v>0.439339</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.496921</v>
+        <v>0.497056</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3423</v>
+        <v>0.234603</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442296</v>
+        <v>0.441511</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502789</v>
+        <v>0.5018359999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.34735</v>
+        <v>0.242376</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444244</v>
+        <v>0.444242</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.481958</v>
+        <v>0.487043</v>
       </c>
       <c r="C61" t="n">
-        <v>0.351072</v>
+        <v>0.248663</v>
       </c>
       <c r="D61" t="n">
-        <v>0.446041</v>
+        <v>0.446778</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.493148</v>
+        <v>0.495885</v>
       </c>
       <c r="C62" t="n">
-        <v>0.360951</v>
+        <v>0.256383</v>
       </c>
       <c r="D62" t="n">
-        <v>0.44837</v>
+        <v>0.448959</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.501296</v>
+        <v>0.499739</v>
       </c>
       <c r="C63" t="n">
-        <v>0.371012</v>
+        <v>0.261936</v>
       </c>
       <c r="D63" t="n">
-        <v>0.451758</v>
+        <v>0.449842</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5116849999999999</v>
+        <v>0.510188</v>
       </c>
       <c r="C64" t="n">
-        <v>0.41898</v>
+        <v>0.302474</v>
       </c>
       <c r="D64" t="n">
-        <v>0.483618</v>
+        <v>0.490564</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.535463</v>
+        <v>0.528536</v>
       </c>
       <c r="C65" t="n">
-        <v>0.438296</v>
+        <v>0.318197</v>
       </c>
       <c r="D65" t="n">
-        <v>0.499947</v>
+        <v>0.497219</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.540716</v>
+        <v>0.5434059999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.452212</v>
+        <v>0.335358</v>
       </c>
       <c r="D66" t="n">
-        <v>0.511032</v>
+        <v>0.5039130000000001</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.558391</v>
+        <v>0.550856</v>
       </c>
       <c r="C67" t="n">
-        <v>0.473165</v>
+        <v>0.358616</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5094340000000001</v>
+        <v>0.513638</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.560936</v>
+        <v>0.565233</v>
       </c>
       <c r="C68" t="n">
-        <v>0.493395</v>
+        <v>0.362197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.520766</v>
+        <v>0.538122</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.578332</v>
+        <v>0.597539</v>
       </c>
       <c r="C69" t="n">
-        <v>0.51637</v>
+        <v>0.379814</v>
       </c>
       <c r="D69" t="n">
-        <v>0.547574</v>
+        <v>0.5552049999999999</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.60906</v>
+        <v>0.617601</v>
       </c>
       <c r="C70" t="n">
-        <v>0.546165</v>
+        <v>0.397992</v>
       </c>
       <c r="D70" t="n">
-        <v>0.570554</v>
+        <v>0.5515910000000001</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.635124</v>
+        <v>0.6282720000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.575557</v>
+        <v>0.420068</v>
       </c>
       <c r="D71" t="n">
-        <v>0.601607</v>
+        <v>0.581019</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.672095</v>
+        <v>0.660174</v>
       </c>
       <c r="C72" t="n">
-        <v>0.597539</v>
+        <v>0.440364</v>
       </c>
       <c r="D72" t="n">
-        <v>0.615741</v>
+        <v>0.590233</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.689874</v>
+        <v>0.663059</v>
       </c>
       <c r="C73" t="n">
-        <v>0.621149</v>
+        <v>0.460693</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650925</v>
+        <v>0.619345</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7160069999999999</v>
+        <v>0.70148</v>
       </c>
       <c r="C74" t="n">
-        <v>0.64893</v>
+        <v>0.481026</v>
       </c>
       <c r="D74" t="n">
-        <v>0.673829</v>
+        <v>0.662268</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.757505</v>
+        <v>0.735706</v>
       </c>
       <c r="C75" t="n">
-        <v>0.678405</v>
+        <v>0.497753</v>
       </c>
       <c r="D75" t="n">
-        <v>0.70148</v>
+        <v>0.692035</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.95895</v>
+        <v>0.953209</v>
       </c>
       <c r="C76" t="n">
-        <v>0.703117</v>
+        <v>0.516855</v>
       </c>
       <c r="D76" t="n">
-        <v>0.737275</v>
+        <v>0.7303460000000001</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.00622</v>
+        <v>1.00933</v>
       </c>
       <c r="C77" t="n">
-        <v>0.723561</v>
+        <v>0.535614</v>
       </c>
       <c r="D77" t="n">
-        <v>0.773794</v>
+        <v>0.771387</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.05339</v>
+        <v>1.05755</v>
       </c>
       <c r="C78" t="n">
-        <v>0.874711</v>
+        <v>0.627861</v>
       </c>
       <c r="D78" t="n">
-        <v>1.03027</v>
+        <v>1.02692</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.11934</v>
+        <v>1.1061</v>
       </c>
       <c r="C79" t="n">
-        <v>0.894167</v>
+        <v>0.639154</v>
       </c>
       <c r="D79" t="n">
-        <v>1.08159</v>
+        <v>1.08071</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.1655</v>
+        <v>1.16098</v>
       </c>
       <c r="C80" t="n">
-        <v>0.909552</v>
+        <v>0.650459</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12472</v>
+        <v>1.12639</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.2154</v>
+        <v>1.20548</v>
       </c>
       <c r="C81" t="n">
-        <v>0.93174</v>
+        <v>0.663004</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17718</v>
+        <v>1.16839</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26007</v>
+        <v>1.25569</v>
       </c>
       <c r="C82" t="n">
-        <v>0.948518</v>
+        <v>0.676412</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22588</v>
+        <v>1.21879</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.3142</v>
+        <v>1.30443</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9662230000000001</v>
+        <v>0.688652</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27466</v>
+        <v>1.26532</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36547</v>
+        <v>1.36183</v>
       </c>
       <c r="C84" t="n">
-        <v>0.983332</v>
+        <v>0.700045</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33494</v>
+        <v>1.32026</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.42765</v>
+        <v>1.40612</v>
       </c>
       <c r="C85" t="n">
-        <v>1.0021</v>
+        <v>0.711667</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37302</v>
+        <v>1.36735</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.47123</v>
+        <v>1.46042</v>
       </c>
       <c r="C86" t="n">
-        <v>1.01818</v>
+        <v>0.72458</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42495</v>
+        <v>1.41757</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.52197</v>
+        <v>1.51064</v>
       </c>
       <c r="C87" t="n">
-        <v>1.03609</v>
+        <v>0.736596</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47224</v>
+        <v>1.46445</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.56818</v>
+        <v>1.56584</v>
       </c>
       <c r="C88" t="n">
-        <v>1.05136</v>
+        <v>0.749526</v>
       </c>
       <c r="D88" t="n">
-        <v>1.51892</v>
+        <v>1.51227</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.62145</v>
+        <v>1.61491</v>
       </c>
       <c r="C89" t="n">
-        <v>1.06796</v>
+        <v>0.761308</v>
       </c>
       <c r="D89" t="n">
-        <v>1.56375</v>
+        <v>1.55751</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.8447</v>
+        <v>1.82866</v>
       </c>
       <c r="C90" t="n">
-        <v>1.08525</v>
+        <v>0.773352</v>
       </c>
       <c r="D90" t="n">
-        <v>1.60763</v>
+        <v>1.59048</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.88309</v>
+        <v>1.86685</v>
       </c>
       <c r="C91" t="n">
-        <v>1.10214</v>
+        <v>0.786484</v>
       </c>
       <c r="D91" t="n">
-        <v>1.65035</v>
+        <v>1.64418</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.91163</v>
+        <v>1.91007</v>
       </c>
       <c r="C92" t="n">
-        <v>1.16327</v>
+        <v>0.792448</v>
       </c>
       <c r="D92" t="n">
-        <v>1.86072</v>
+        <v>1.8556</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.94849</v>
+        <v>1.94031</v>
       </c>
       <c r="C93" t="n">
-        <v>1.17199</v>
+        <v>0.801639</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89726</v>
+        <v>1.88882</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.98049</v>
+        <v>1.97537</v>
       </c>
       <c r="C94" t="n">
-        <v>1.18204</v>
+        <v>0.809461</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91185</v>
+        <v>1.9239</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.01298</v>
+        <v>2.01007</v>
       </c>
       <c r="C95" t="n">
-        <v>1.19304</v>
+        <v>0.818921</v>
       </c>
       <c r="D95" t="n">
-        <v>1.95431</v>
+        <v>1.94912</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.04445</v>
+        <v>2.0381</v>
       </c>
       <c r="C96" t="n">
-        <v>1.20234</v>
+        <v>0.823186</v>
       </c>
       <c r="D96" t="n">
-        <v>1.98392</v>
+        <v>1.97618</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.07859</v>
+        <v>2.06782</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21209</v>
+        <v>0.834537</v>
       </c>
       <c r="D97" t="n">
-        <v>2.00382</v>
+        <v>2.004</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.10825</v>
+        <v>2.10015</v>
       </c>
       <c r="C98" t="n">
-        <v>1.22255</v>
+        <v>0.8441</v>
       </c>
       <c r="D98" t="n">
-        <v>2.03751</v>
+        <v>2.02342</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.13956</v>
+        <v>2.12891</v>
       </c>
       <c r="C99" t="n">
-        <v>1.23297</v>
+        <v>0.850345</v>
       </c>
       <c r="D99" t="n">
-        <v>2.065</v>
+        <v>2.05963</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.16756</v>
+        <v>2.15882</v>
       </c>
       <c r="C100" t="n">
-        <v>1.24402</v>
+        <v>0.858966</v>
       </c>
       <c r="D100" t="n">
-        <v>2.08652</v>
+        <v>2.07011</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.19149</v>
+        <v>2.1859</v>
       </c>
       <c r="C101" t="n">
-        <v>1.25519</v>
+        <v>0.869439</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10867</v>
+        <v>2.09591</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.22188</v>
+        <v>2.21644</v>
       </c>
       <c r="C102" t="n">
-        <v>1.26531</v>
+        <v>0.88275</v>
       </c>
       <c r="D102" t="n">
-        <v>2.13204</v>
+        <v>2.11334</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.25266</v>
+        <v>2.23971</v>
       </c>
       <c r="C103" t="n">
-        <v>1.27799</v>
+        <v>0.890801</v>
       </c>
       <c r="D103" t="n">
-        <v>2.1603</v>
+        <v>2.14961</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.28065</v>
+        <v>2.26785</v>
       </c>
       <c r="C104" t="n">
-        <v>1.28885</v>
+        <v>0.901987</v>
       </c>
       <c r="D104" t="n">
-        <v>2.18004</v>
+        <v>2.17222</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.36667</v>
+        <v>2.36244</v>
       </c>
       <c r="C105" t="n">
-        <v>1.3004</v>
+        <v>0.915199</v>
       </c>
       <c r="D105" t="n">
-        <v>2.2</v>
+        <v>2.19262</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.38773</v>
+        <v>2.3817</v>
       </c>
       <c r="C106" t="n">
-        <v>1.31256</v>
+        <v>0.9286799999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>2.22409</v>
+        <v>2.19975</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40774</v>
+        <v>2.40194</v>
       </c>
       <c r="C107" t="n">
-        <v>1.31051</v>
+        <v>0.882583</v>
       </c>
       <c r="D107" t="n">
-        <v>2.32093</v>
+        <v>2.33441</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.42537</v>
+        <v>2.42271</v>
       </c>
       <c r="C108" t="n">
-        <v>1.31791</v>
+        <v>0.889645</v>
       </c>
       <c r="D108" t="n">
-        <v>2.35256</v>
+        <v>2.3395</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.44823</v>
+        <v>2.4415</v>
       </c>
       <c r="C109" t="n">
-        <v>1.32497</v>
+        <v>0.89759</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35808</v>
+        <v>2.34953</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.46496</v>
+        <v>2.46731</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33029</v>
+        <v>0.903961</v>
       </c>
       <c r="D110" t="n">
-        <v>2.38263</v>
+        <v>2.38057</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.48039</v>
+        <v>2.48532</v>
       </c>
       <c r="C111" t="n">
-        <v>1.33669</v>
+        <v>0.911124</v>
       </c>
       <c r="D111" t="n">
-        <v>2.38747</v>
+        <v>2.39025</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.49984</v>
+        <v>2.50588</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34403</v>
+        <v>0.923552</v>
       </c>
       <c r="D112" t="n">
-        <v>2.39332</v>
+        <v>2.40945</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.51759</v>
+        <v>2.52936</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3501</v>
+        <v>0.92356</v>
       </c>
       <c r="D113" t="n">
-        <v>2.42132</v>
+        <v>2.42958</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.53638</v>
+        <v>2.54672</v>
       </c>
       <c r="C114" t="n">
-        <v>1.36304</v>
+        <v>0.940677</v>
       </c>
       <c r="D114" t="n">
-        <v>2.43357</v>
+        <v>2.43119</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.56117</v>
+        <v>2.5707</v>
       </c>
       <c r="C115" t="n">
-        <v>1.37107</v>
+        <v>0.9568950000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>2.4456</v>
+        <v>2.45543</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.57843</v>
+        <v>2.58597</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38033</v>
+        <v>0.961438</v>
       </c>
       <c r="D116" t="n">
-        <v>2.45748</v>
+        <v>2.46752</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60071</v>
+        <v>2.60839</v>
       </c>
       <c r="C117" t="n">
-        <v>1.38865</v>
+        <v>0.973409</v>
       </c>
       <c r="D117" t="n">
-        <v>2.46525</v>
+        <v>2.48295</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.618</v>
+        <v>2.62945</v>
       </c>
       <c r="C118" t="n">
-        <v>1.3997</v>
+        <v>0.981096</v>
       </c>
       <c r="D118" t="n">
-        <v>2.47981</v>
+        <v>2.4931</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.63732</v>
+        <v>2.6699</v>
       </c>
       <c r="C119" t="n">
-        <v>1.4069</v>
+        <v>0.999378</v>
       </c>
       <c r="D119" t="n">
-        <v>2.47587</v>
+        <v>2.49118</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.460298</v>
+        <v>0.497758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.41098</v>
+        <v>0.310464</v>
       </c>
       <c r="D2" t="n">
-        <v>0.319839</v>
+        <v>0.342821</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.483431</v>
+        <v>0.5075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.416224</v>
+        <v>0.312035</v>
       </c>
       <c r="D3" t="n">
-        <v>0.326876</v>
+        <v>0.347572</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.488051</v>
+        <v>0.5102100000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.415284</v>
+        <v>0.319967</v>
       </c>
       <c r="D4" t="n">
-        <v>0.329977</v>
+        <v>0.348689</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.499785</v>
+        <v>0.523288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.424317</v>
+        <v>0.327348</v>
       </c>
       <c r="D5" t="n">
-        <v>0.336639</v>
+        <v>0.356269</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.506006</v>
+        <v>0.529498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.429887</v>
+        <v>0.328592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.343495</v>
+        <v>0.362812</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.515042</v>
+        <v>0.542121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.455321</v>
+        <v>0.333722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359594</v>
+        <v>0.369007</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.519975</v>
+        <v>0.551246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.456565</v>
+        <v>0.340748</v>
       </c>
       <c r="D8" t="n">
-        <v>0.361819</v>
+        <v>0.372895</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.532242</v>
+        <v>0.552839</v>
       </c>
       <c r="C9" t="n">
-        <v>0.462066</v>
+        <v>0.347699</v>
       </c>
       <c r="D9" t="n">
-        <v>0.369559</v>
+        <v>0.376823</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.543427</v>
+        <v>0.559851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.469434</v>
+        <v>0.350947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.372833</v>
+        <v>0.385264</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.552827</v>
+        <v>0.574689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.468065</v>
+        <v>0.35005</v>
       </c>
       <c r="D11" t="n">
-        <v>0.379095</v>
+        <v>0.390156</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.567518</v>
+        <v>0.582213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.47654</v>
+        <v>0.357435</v>
       </c>
       <c r="D12" t="n">
-        <v>0.388628</v>
+        <v>0.397875</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.579062</v>
+        <v>0.592792</v>
       </c>
       <c r="C13" t="n">
-        <v>0.47709</v>
+        <v>0.362079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.396449</v>
+        <v>0.401292</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.589348</v>
+        <v>0.596091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.481084</v>
+        <v>0.36368</v>
       </c>
       <c r="D14" t="n">
-        <v>0.399942</v>
+        <v>0.407741</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5975200000000001</v>
+        <v>0.607413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.487565</v>
+        <v>0.367255</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4069</v>
+        <v>0.414206</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.607754</v>
+        <v>0.619081</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4892</v>
+        <v>0.37441</v>
       </c>
       <c r="D16" t="n">
-        <v>0.41143</v>
+        <v>0.41768</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.62052</v>
+        <v>0.6294729999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.497049</v>
+        <v>0.378786</v>
       </c>
       <c r="D17" t="n">
-        <v>0.420879</v>
+        <v>0.422555</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.629522</v>
+        <v>0.640446</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5015849999999999</v>
+        <v>0.382271</v>
       </c>
       <c r="D18" t="n">
-        <v>0.426682</v>
+        <v>0.426734</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.647444</v>
+        <v>0.653609</v>
       </c>
       <c r="C19" t="n">
-        <v>0.512872</v>
+        <v>0.383398</v>
       </c>
       <c r="D19" t="n">
-        <v>0.433092</v>
+        <v>0.433746</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.656079</v>
+        <v>0.666558</v>
       </c>
       <c r="C20" t="n">
-        <v>0.513165</v>
+        <v>0.395259</v>
       </c>
       <c r="D20" t="n">
-        <v>0.438644</v>
+        <v>0.441571</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.671826</v>
+        <v>0.677999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.519086</v>
+        <v>0.395019</v>
       </c>
       <c r="D21" t="n">
-        <v>0.444953</v>
+        <v>0.447367</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.67671</v>
+        <v>0.680396</v>
       </c>
       <c r="C22" t="n">
-        <v>0.525973</v>
+        <v>0.401052</v>
       </c>
       <c r="D22" t="n">
-        <v>0.451421</v>
+        <v>0.45216</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.683482</v>
+        <v>0.689221</v>
       </c>
       <c r="C23" t="n">
-        <v>0.531328</v>
+        <v>0.401362</v>
       </c>
       <c r="D23" t="n">
-        <v>0.457483</v>
+        <v>0.455997</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.688017</v>
+        <v>0.693502</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5369660000000001</v>
+        <v>0.407789</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462683</v>
+        <v>0.462309</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.698817</v>
+        <v>0.702082</v>
       </c>
       <c r="C25" t="n">
-        <v>0.548268</v>
+        <v>0.415734</v>
       </c>
       <c r="D25" t="n">
-        <v>0.467605</v>
+        <v>0.466457</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.707379</v>
+        <v>0.706548</v>
       </c>
       <c r="C26" t="n">
-        <v>0.544366</v>
+        <v>0.412237</v>
       </c>
       <c r="D26" t="n">
-        <v>0.471392</v>
+        <v>0.469271</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.717967</v>
+        <v>0.717938</v>
       </c>
       <c r="C27" t="n">
-        <v>0.551277</v>
+        <v>0.421044</v>
       </c>
       <c r="D27" t="n">
-        <v>0.475752</v>
+        <v>0.473748</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.719655</v>
+        <v>0.722593</v>
       </c>
       <c r="C28" t="n">
-        <v>0.556194</v>
+        <v>0.426261</v>
       </c>
       <c r="D28" t="n">
-        <v>0.48119</v>
+        <v>0.478678</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.73332</v>
+        <v>0.733855</v>
       </c>
       <c r="C29" t="n">
-        <v>0.557897</v>
+        <v>0.430946</v>
       </c>
       <c r="D29" t="n">
-        <v>0.485898</v>
+        <v>0.482291</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.735622</v>
+        <v>0.7385429999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.564656</v>
+        <v>0.432753</v>
       </c>
       <c r="D30" t="n">
-        <v>0.489834</v>
+        <v>0.486384</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.744788</v>
+        <v>0.745705</v>
       </c>
       <c r="C31" t="n">
-        <v>0.570725</v>
+        <v>0.435617</v>
       </c>
       <c r="D31" t="n">
-        <v>0.495629</v>
+        <v>0.490984</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.736094</v>
+        <v>0.736982</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5692430000000001</v>
+        <v>0.439663</v>
       </c>
       <c r="D32" t="n">
-        <v>0.496631</v>
+        <v>0.491757</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.749058</v>
+        <v>0.74509</v>
       </c>
       <c r="C33" t="n">
-        <v>0.574895</v>
+        <v>0.44259</v>
       </c>
       <c r="D33" t="n">
-        <v>0.501325</v>
+        <v>0.497772</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7583760000000001</v>
+        <v>0.754243</v>
       </c>
       <c r="C34" t="n">
-        <v>0.579302</v>
+        <v>0.451417</v>
       </c>
       <c r="D34" t="n">
-        <v>0.502633</v>
+        <v>0.499953</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.760664</v>
+        <v>0.755749</v>
       </c>
       <c r="C35" t="n">
-        <v>0.555701</v>
+        <v>0.424838</v>
       </c>
       <c r="D35" t="n">
-        <v>0.505636</v>
+        <v>0.501835</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.761883</v>
+        <v>0.763828</v>
       </c>
       <c r="C36" t="n">
-        <v>0.561962</v>
+        <v>0.430287</v>
       </c>
       <c r="D36" t="n">
-        <v>0.510281</v>
+        <v>0.507506</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.775825</v>
+        <v>0.771234</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5653280000000001</v>
+        <v>0.431292</v>
       </c>
       <c r="D37" t="n">
-        <v>0.512394</v>
+        <v>0.509359</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7745649999999999</v>
+        <v>0.775142</v>
       </c>
       <c r="C38" t="n">
-        <v>0.570919</v>
+        <v>0.433742</v>
       </c>
       <c r="D38" t="n">
-        <v>0.516803</v>
+        <v>0.51184</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.774736</v>
+        <v>0.777547</v>
       </c>
       <c r="C39" t="n">
-        <v>0.574946</v>
+        <v>0.436833</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51936</v>
+        <v>0.516232</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.791994</v>
+        <v>0.7866379999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.572832</v>
+        <v>0.442048</v>
       </c>
       <c r="D40" t="n">
-        <v>0.521154</v>
+        <v>0.516856</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.792448</v>
+        <v>0.793275</v>
       </c>
       <c r="C41" t="n">
-        <v>0.576676</v>
+        <v>0.444371</v>
       </c>
       <c r="D41" t="n">
-        <v>0.522973</v>
+        <v>0.518216</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.799865</v>
+        <v>0.797992</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5793779999999999</v>
+        <v>0.445188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.52644</v>
+        <v>0.523002</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8062009999999999</v>
+        <v>0.803166</v>
       </c>
       <c r="C43" t="n">
-        <v>0.582975</v>
+        <v>0.444561</v>
       </c>
       <c r="D43" t="n">
-        <v>0.529051</v>
+        <v>0.525211</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.803612</v>
+        <v>0.803477</v>
       </c>
       <c r="C44" t="n">
-        <v>0.582881</v>
+        <v>0.450505</v>
       </c>
       <c r="D44" t="n">
-        <v>0.529925</v>
+        <v>0.526572</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.813423</v>
+        <v>0.810073</v>
       </c>
       <c r="C45" t="n">
-        <v>0.585987</v>
+        <v>0.452557</v>
       </c>
       <c r="D45" t="n">
-        <v>0.532121</v>
+        <v>0.529065</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.813028</v>
+        <v>0.814016</v>
       </c>
       <c r="C46" t="n">
-        <v>0.590455</v>
+        <v>0.453644</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5351129999999999</v>
+        <v>0.531012</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.797789</v>
+        <v>0.788054</v>
       </c>
       <c r="C47" t="n">
-        <v>0.591933</v>
+        <v>0.454019</v>
       </c>
       <c r="D47" t="n">
-        <v>0.536949</v>
+        <v>0.525454</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.801583</v>
+        <v>0.798444</v>
       </c>
       <c r="C48" t="n">
-        <v>0.597359</v>
+        <v>0.459822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.538424</v>
+        <v>0.535048</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.796474</v>
+        <v>0.800264</v>
       </c>
       <c r="C49" t="n">
-        <v>0.598276</v>
+        <v>0.463434</v>
       </c>
       <c r="D49" t="n">
-        <v>0.540157</v>
+        <v>0.536263</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8045949999999999</v>
+        <v>0.804333</v>
       </c>
       <c r="C50" t="n">
-        <v>0.58961</v>
+        <v>0.452511</v>
       </c>
       <c r="D50" t="n">
-        <v>0.541422</v>
+        <v>0.537038</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.810643</v>
+        <v>0.8068689999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.590489</v>
+        <v>0.449988</v>
       </c>
       <c r="D51" t="n">
-        <v>0.54295</v>
+        <v>0.532362</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.80877</v>
+        <v>0.809615</v>
       </c>
       <c r="C52" t="n">
-        <v>0.594527</v>
+        <v>0.45573</v>
       </c>
       <c r="D52" t="n">
-        <v>0.545383</v>
+        <v>0.54018</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.814612</v>
+        <v>0.814585</v>
       </c>
       <c r="C53" t="n">
-        <v>0.600383</v>
+        <v>0.456733</v>
       </c>
       <c r="D53" t="n">
-        <v>0.546977</v>
+        <v>0.538824</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.818134</v>
+        <v>0.817729</v>
       </c>
       <c r="C54" t="n">
-        <v>0.603298</v>
+        <v>0.464037</v>
       </c>
       <c r="D54" t="n">
-        <v>0.548369</v>
+        <v>0.541449</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.821947</v>
+        <v>0.821547</v>
       </c>
       <c r="C55" t="n">
-        <v>0.608345</v>
+        <v>0.462954</v>
       </c>
       <c r="D55" t="n">
-        <v>0.550686</v>
+        <v>0.547192</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.827007</v>
+        <v>0.825663</v>
       </c>
       <c r="C56" t="n">
-        <v>0.609753</v>
+        <v>0.471419</v>
       </c>
       <c r="D56" t="n">
-        <v>0.551583</v>
+        <v>0.546329</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.829788</v>
+        <v>0.821002</v>
       </c>
       <c r="C57" t="n">
-        <v>0.615625</v>
+        <v>0.471802</v>
       </c>
       <c r="D57" t="n">
-        <v>0.552608</v>
+        <v>0.544693</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.835633</v>
+        <v>0.830362</v>
       </c>
       <c r="C58" t="n">
-        <v>0.624852</v>
+        <v>0.482737</v>
       </c>
       <c r="D58" t="n">
-        <v>0.556962</v>
+        <v>0.549052</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.842259</v>
+        <v>0.828183</v>
       </c>
       <c r="C59" t="n">
-        <v>0.635806</v>
+        <v>0.489468</v>
       </c>
       <c r="D59" t="n">
-        <v>0.557167</v>
+        <v>0.5516760000000001</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.845462</v>
+        <v>0.840602</v>
       </c>
       <c r="C60" t="n">
-        <v>0.638219</v>
+        <v>0.49415</v>
       </c>
       <c r="D60" t="n">
-        <v>0.562175</v>
+        <v>0.555319</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.84524</v>
+        <v>0.840578</v>
       </c>
       <c r="C61" t="n">
-        <v>0.647553</v>
+        <v>0.50203</v>
       </c>
       <c r="D61" t="n">
-        <v>0.565702</v>
+        <v>0.55504</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.858761</v>
+        <v>0.8517670000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.657122</v>
+        <v>0.509042</v>
       </c>
       <c r="D62" t="n">
-        <v>0.569586</v>
+        <v>0.5566759999999999</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.871741</v>
+        <v>0.861608</v>
       </c>
       <c r="C63" t="n">
-        <v>0.664215</v>
+        <v>0.518196</v>
       </c>
       <c r="D63" t="n">
-        <v>0.571866</v>
+        <v>0.558867</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.886593</v>
+        <v>0.874075</v>
       </c>
       <c r="C64" t="n">
-        <v>0.716584</v>
+        <v>0.566021</v>
       </c>
       <c r="D64" t="n">
-        <v>0.609123</v>
+        <v>0.599131</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.896411</v>
+        <v>0.888357</v>
       </c>
       <c r="C65" t="n">
-        <v>0.72953</v>
+        <v>0.572726</v>
       </c>
       <c r="D65" t="n">
-        <v>0.610013</v>
+        <v>0.604277</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.910793</v>
+        <v>0.908724</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7514729999999999</v>
+        <v>0.59095</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6249400000000001</v>
+        <v>0.609252</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.936923</v>
+        <v>0.922519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7719</v>
+        <v>0.608729</v>
       </c>
       <c r="D67" t="n">
-        <v>0.62701</v>
+        <v>0.621611</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.943245</v>
+        <v>0.943354</v>
       </c>
       <c r="C68" t="n">
-        <v>0.794784</v>
+        <v>0.63276</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6504450000000001</v>
+        <v>0.6385110000000001</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.983662</v>
+        <v>0.967156</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8150230000000001</v>
+        <v>0.668414</v>
       </c>
       <c r="D69" t="n">
-        <v>0.662426</v>
+        <v>0.6591320000000001</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.00648</v>
+        <v>0.9971950000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.847209</v>
+        <v>0.697417</v>
       </c>
       <c r="D70" t="n">
-        <v>0.685592</v>
+        <v>0.668358</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03705</v>
+        <v>1.01804</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8763919999999999</v>
+        <v>0.727618</v>
       </c>
       <c r="D71" t="n">
-        <v>0.692302</v>
+        <v>0.692035</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04617</v>
+        <v>1.05713</v>
       </c>
       <c r="C72" t="n">
-        <v>0.905514</v>
+        <v>0.757514</v>
       </c>
       <c r="D72" t="n">
-        <v>0.713186</v>
+        <v>0.725714</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.08973</v>
+        <v>1.10184</v>
       </c>
       <c r="C73" t="n">
-        <v>0.942493</v>
+        <v>0.7988189999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7398940000000001</v>
+        <v>0.736666</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.12926</v>
+        <v>1.12704</v>
       </c>
       <c r="C74" t="n">
-        <v>0.985218</v>
+        <v>0.8286790000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.770375</v>
+        <v>0.763938</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17792</v>
+        <v>1.17259</v>
       </c>
       <c r="C75" t="n">
-        <v>1.01921</v>
+        <v>0.858009</v>
       </c>
       <c r="D75" t="n">
-        <v>0.79978</v>
+        <v>0.809522</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.35363</v>
+        <v>1.3701</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0619</v>
+        <v>0.909583</v>
       </c>
       <c r="D76" t="n">
-        <v>0.839128</v>
+        <v>0.8491300000000001</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.4198</v>
+        <v>1.44402</v>
       </c>
       <c r="C77" t="n">
-        <v>1.10578</v>
+        <v>0.953018</v>
       </c>
       <c r="D77" t="n">
-        <v>0.876503</v>
+        <v>0.8829090000000001</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.49144</v>
+        <v>1.50874</v>
       </c>
       <c r="C78" t="n">
-        <v>1.30218</v>
+        <v>1.1166</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01808</v>
+        <v>1.02309</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.56547</v>
+        <v>1.59174</v>
       </c>
       <c r="C79" t="n">
-        <v>1.34489</v>
+        <v>1.15759</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06258</v>
+        <v>1.07473</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.64645</v>
+        <v>1.65657</v>
       </c>
       <c r="C80" t="n">
-        <v>1.38323</v>
+        <v>1.19144</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11356</v>
+        <v>1.129</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.73205</v>
+        <v>1.75164</v>
       </c>
       <c r="C81" t="n">
-        <v>1.43377</v>
+        <v>1.23199</v>
       </c>
       <c r="D81" t="n">
-        <v>1.18101</v>
+        <v>1.19484</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.8208</v>
+        <v>1.84444</v>
       </c>
       <c r="C82" t="n">
-        <v>1.47894</v>
+        <v>1.27554</v>
       </c>
       <c r="D82" t="n">
-        <v>1.23864</v>
+        <v>1.25133</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.90257</v>
+        <v>1.94271</v>
       </c>
       <c r="C83" t="n">
-        <v>1.51771</v>
+        <v>1.31385</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28931</v>
+        <v>1.30323</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.00266</v>
+        <v>2.04326</v>
       </c>
       <c r="C84" t="n">
-        <v>1.56885</v>
+        <v>1.36363</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34556</v>
+        <v>1.35569</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.09571</v>
+        <v>2.12177</v>
       </c>
       <c r="C85" t="n">
-        <v>1.61399</v>
+        <v>1.40293</v>
       </c>
       <c r="D85" t="n">
-        <v>1.41048</v>
+        <v>1.41981</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.19508</v>
+        <v>2.23222</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65862</v>
+        <v>1.4495</v>
       </c>
       <c r="D86" t="n">
-        <v>1.46819</v>
+        <v>1.48447</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.29165</v>
+        <v>2.32568</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70635</v>
+        <v>1.49331</v>
       </c>
       <c r="D87" t="n">
-        <v>1.53331</v>
+        <v>1.5447</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.39197</v>
+        <v>2.41672</v>
       </c>
       <c r="C88" t="n">
-        <v>1.75899</v>
+        <v>1.53808</v>
       </c>
       <c r="D88" t="n">
-        <v>1.58881</v>
+        <v>1.59664</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.49721</v>
+        <v>2.52231</v>
       </c>
       <c r="C89" t="n">
-        <v>1.7978</v>
+        <v>1.58042</v>
       </c>
       <c r="D89" t="n">
-        <v>1.64851</v>
+        <v>1.65717</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.67964</v>
+        <v>2.71884</v>
       </c>
       <c r="C90" t="n">
-        <v>1.84267</v>
+        <v>1.62094</v>
       </c>
       <c r="D90" t="n">
-        <v>1.70526</v>
+        <v>1.71905</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.76624</v>
+        <v>2.80457</v>
       </c>
       <c r="C91" t="n">
-        <v>1.89522</v>
+        <v>1.66837</v>
       </c>
       <c r="D91" t="n">
-        <v>1.76086</v>
+        <v>1.76579</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.83439</v>
+        <v>2.88241</v>
       </c>
       <c r="C92" t="n">
-        <v>2.01317</v>
+        <v>1.75809</v>
       </c>
       <c r="D92" t="n">
-        <v>1.88164</v>
+        <v>1.89537</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.92632</v>
+        <v>2.96505</v>
       </c>
       <c r="C93" t="n">
-        <v>2.04837</v>
+        <v>1.78276</v>
       </c>
       <c r="D93" t="n">
-        <v>1.93386</v>
+        <v>1.95416</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.0077</v>
+        <v>3.05718</v>
       </c>
       <c r="C94" t="n">
-        <v>2.08212</v>
+        <v>1.8245</v>
       </c>
       <c r="D94" t="n">
-        <v>1.98256</v>
+        <v>1.99331</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.0882</v>
+        <v>3.13492</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1212</v>
+        <v>1.8585</v>
       </c>
       <c r="D95" t="n">
-        <v>2.02762</v>
+        <v>2.04802</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.15805</v>
+        <v>3.20651</v>
       </c>
       <c r="C96" t="n">
-        <v>2.15172</v>
+        <v>1.90454</v>
       </c>
       <c r="D96" t="n">
-        <v>2.07585</v>
+        <v>2.09268</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.23918</v>
+        <v>3.29342</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18323</v>
+        <v>1.93812</v>
       </c>
       <c r="D97" t="n">
-        <v>2.1194</v>
+        <v>2.14832</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31692</v>
+        <v>3.35773</v>
       </c>
       <c r="C98" t="n">
-        <v>2.22624</v>
+        <v>1.97249</v>
       </c>
       <c r="D98" t="n">
-        <v>2.16871</v>
+        <v>2.18331</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36784</v>
+        <v>3.44332</v>
       </c>
       <c r="C99" t="n">
-        <v>2.26376</v>
+        <v>1.99682</v>
       </c>
       <c r="D99" t="n">
-        <v>2.20695</v>
+        <v>2.22736</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.45621</v>
+        <v>3.50561</v>
       </c>
       <c r="C100" t="n">
-        <v>2.29374</v>
+        <v>2.04571</v>
       </c>
       <c r="D100" t="n">
-        <v>2.24044</v>
+        <v>2.26509</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.49858</v>
+        <v>3.56682</v>
       </c>
       <c r="C101" t="n">
-        <v>2.32043</v>
+        <v>2.0721</v>
       </c>
       <c r="D101" t="n">
-        <v>2.27548</v>
+        <v>2.31476</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.54895</v>
+        <v>3.62652</v>
       </c>
       <c r="C102" t="n">
-        <v>2.35846</v>
+        <v>2.11621</v>
       </c>
       <c r="D102" t="n">
-        <v>2.28954</v>
+        <v>2.3438</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.6219</v>
+        <v>3.70041</v>
       </c>
       <c r="C103" t="n">
-        <v>2.39225</v>
+        <v>2.13942</v>
       </c>
       <c r="D103" t="n">
-        <v>2.33818</v>
+        <v>2.37231</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.67893</v>
+        <v>3.76958</v>
       </c>
       <c r="C104" t="n">
-        <v>2.43434</v>
+        <v>2.17491</v>
       </c>
       <c r="D104" t="n">
-        <v>2.37381</v>
+        <v>2.40237</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.71254</v>
+        <v>3.78324</v>
       </c>
       <c r="C105" t="n">
-        <v>2.46906</v>
+        <v>2.20429</v>
       </c>
       <c r="D105" t="n">
-        <v>2.40847</v>
+        <v>2.44903</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.75808</v>
+        <v>3.84322</v>
       </c>
       <c r="C106" t="n">
-        <v>2.50671</v>
+        <v>2.24651</v>
       </c>
       <c r="D106" t="n">
-        <v>2.43624</v>
+        <v>2.47123</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.82256</v>
+        <v>3.89491</v>
       </c>
       <c r="C107" t="n">
-        <v>2.49088</v>
+        <v>2.21306</v>
       </c>
       <c r="D107" t="n">
-        <v>2.50132</v>
+        <v>2.54883</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.86727</v>
+        <v>3.94345</v>
       </c>
       <c r="C108" t="n">
-        <v>2.51892</v>
+        <v>2.2406</v>
       </c>
       <c r="D108" t="n">
-        <v>2.52153</v>
+        <v>2.58412</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.92855</v>
+        <v>3.98566</v>
       </c>
       <c r="C109" t="n">
-        <v>2.53909</v>
+        <v>2.26468</v>
       </c>
       <c r="D109" t="n">
-        <v>2.56157</v>
+        <v>2.60778</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.9619</v>
+        <v>4.04796</v>
       </c>
       <c r="C110" t="n">
-        <v>2.57597</v>
+        <v>2.29261</v>
       </c>
       <c r="D110" t="n">
-        <v>2.58772</v>
+        <v>2.63495</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.00616</v>
+        <v>4.08373</v>
       </c>
       <c r="C111" t="n">
-        <v>2.58468</v>
+        <v>2.32568</v>
       </c>
       <c r="D111" t="n">
-        <v>2.61716</v>
+        <v>2.66871</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.06367</v>
+        <v>4.14432</v>
       </c>
       <c r="C112" t="n">
-        <v>2.61046</v>
+        <v>2.36383</v>
       </c>
       <c r="D112" t="n">
-        <v>2.63821</v>
+        <v>2.69069</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.10646</v>
+        <v>4.18383</v>
       </c>
       <c r="C113" t="n">
-        <v>2.64935</v>
+        <v>2.38243</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65676</v>
+        <v>2.72181</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.16815</v>
+        <v>4.22546</v>
       </c>
       <c r="C114" t="n">
-        <v>2.64598</v>
+        <v>2.40635</v>
       </c>
       <c r="D114" t="n">
-        <v>2.6844</v>
+        <v>2.74328</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.21024</v>
+        <v>4.25567</v>
       </c>
       <c r="C115" t="n">
-        <v>2.70625</v>
+        <v>2.4145</v>
       </c>
       <c r="D115" t="n">
-        <v>2.71217</v>
+        <v>2.76945</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.25494</v>
+        <v>4.32089</v>
       </c>
       <c r="C116" t="n">
-        <v>2.71779</v>
+        <v>2.46953</v>
       </c>
       <c r="D116" t="n">
-        <v>2.73473</v>
+        <v>2.79301</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.30128</v>
+        <v>4.36211</v>
       </c>
       <c r="C117" t="n">
-        <v>2.75294</v>
+        <v>2.47833</v>
       </c>
       <c r="D117" t="n">
-        <v>2.75311</v>
+        <v>2.8161</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.34889</v>
+        <v>4.42052</v>
       </c>
       <c r="C118" t="n">
-        <v>2.76922</v>
+        <v>2.51413</v>
       </c>
       <c r="D118" t="n">
-        <v>2.7702</v>
+        <v>2.84417</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.28432</v>
+        <v>4.36625</v>
       </c>
       <c r="C119" t="n">
-        <v>2.80281</v>
+        <v>2.53671</v>
       </c>
       <c r="D119" t="n">
-        <v>2.79586</v>
+        <v>2.85926</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.488174</v>
+        <v>0.522583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.417942</v>
+        <v>0.321594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.315352</v>
+        <v>0.337296</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.495782</v>
+        <v>0.530756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.422127</v>
+        <v>0.328335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317048</v>
+        <v>0.339953</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.502987</v>
+        <v>0.534564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.428958</v>
+        <v>0.332363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32065</v>
+        <v>0.341974</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.512365</v>
+        <v>0.545812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435713</v>
+        <v>0.340552</v>
       </c>
       <c r="D5" t="n">
-        <v>0.326767</v>
+        <v>0.347724</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.518896</v>
+        <v>0.558715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.441533</v>
+        <v>0.350172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.328152</v>
+        <v>0.350917</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.530976</v>
+        <v>0.567899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.455555</v>
+        <v>0.35566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.335477</v>
+        <v>0.357622</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.537651</v>
+        <v>0.576555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.460383</v>
+        <v>0.361682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.338764</v>
+        <v>0.360822</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.556267</v>
+        <v>0.5908409999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.47053</v>
+        <v>0.37222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.346499</v>
+        <v>0.368047</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.56937</v>
+        <v>0.607263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.483064</v>
+        <v>0.386319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.35045</v>
+        <v>0.374208</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.582508</v>
+        <v>0.616804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.472624</v>
+        <v>0.367137</v>
       </c>
       <c r="D11" t="n">
-        <v>0.363659</v>
+        <v>0.379833</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5806210000000001</v>
+        <v>0.602318</v>
       </c>
       <c r="C12" t="n">
-        <v>0.47787</v>
+        <v>0.370708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.369637</v>
+        <v>0.385532</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.59112</v>
+        <v>0.612676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.491572</v>
+        <v>0.378459</v>
       </c>
       <c r="D13" t="n">
-        <v>0.373951</v>
+        <v>0.388982</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.607793</v>
+        <v>0.624872</v>
       </c>
       <c r="C14" t="n">
-        <v>0.497203</v>
+        <v>0.387931</v>
       </c>
       <c r="D14" t="n">
-        <v>0.383499</v>
+        <v>0.396834</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.623038</v>
+        <v>0.640348</v>
       </c>
       <c r="C15" t="n">
-        <v>0.505642</v>
+        <v>0.397781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.390412</v>
+        <v>0.402728</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6348510000000001</v>
+        <v>0.651895</v>
       </c>
       <c r="C16" t="n">
-        <v>0.515637</v>
+        <v>0.406024</v>
       </c>
       <c r="D16" t="n">
-        <v>0.397578</v>
+        <v>0.409541</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.648333</v>
+        <v>0.663652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.525894</v>
+        <v>0.414467</v>
       </c>
       <c r="D17" t="n">
-        <v>0.403946</v>
+        <v>0.414199</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.661564</v>
+        <v>0.679211</v>
       </c>
       <c r="C18" t="n">
-        <v>0.527769</v>
+        <v>0.415414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.413103</v>
+        <v>0.421746</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.677142</v>
+        <v>0.69472</v>
       </c>
       <c r="C19" t="n">
-        <v>0.542538</v>
+        <v>0.433566</v>
       </c>
       <c r="D19" t="n">
-        <v>0.416854</v>
+        <v>0.426631</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.693311</v>
+        <v>0.707078</v>
       </c>
       <c r="C20" t="n">
-        <v>0.557325</v>
+        <v>0.441837</v>
       </c>
       <c r="D20" t="n">
-        <v>0.424408</v>
+        <v>0.434194</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.700967</v>
+        <v>0.712609</v>
       </c>
       <c r="C21" t="n">
-        <v>0.56402</v>
+        <v>0.451347</v>
       </c>
       <c r="D21" t="n">
-        <v>0.430996</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.718401</v>
+        <v>0.724036</v>
       </c>
       <c r="C22" t="n">
-        <v>0.580788</v>
+        <v>0.456969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.43781</v>
+        <v>0.442274</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.736971</v>
+        <v>0.742865</v>
       </c>
       <c r="C23" t="n">
-        <v>0.590037</v>
+        <v>0.471833</v>
       </c>
       <c r="D23" t="n">
-        <v>0.442978</v>
+        <v>0.445146</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7515579999999999</v>
+        <v>0.7559090000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.600062</v>
+        <v>0.47818</v>
       </c>
       <c r="D24" t="n">
-        <v>0.449572</v>
+        <v>0.45168</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.76606</v>
+        <v>0.775425</v>
       </c>
       <c r="C25" t="n">
-        <v>0.612908</v>
+        <v>0.49686</v>
       </c>
       <c r="D25" t="n">
-        <v>0.454093</v>
+        <v>0.458296</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.783321</v>
+        <v>0.794462</v>
       </c>
       <c r="C26" t="n">
-        <v>0.557304</v>
+        <v>0.441057</v>
       </c>
       <c r="D26" t="n">
-        <v>0.462099</v>
+        <v>0.4645</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.747094</v>
+        <v>0.749441</v>
       </c>
       <c r="C27" t="n">
-        <v>0.566557</v>
+        <v>0.445301</v>
       </c>
       <c r="D27" t="n">
-        <v>0.467585</v>
+        <v>0.467165</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7567199999999999</v>
+        <v>0.760421</v>
       </c>
       <c r="C28" t="n">
-        <v>0.576613</v>
+        <v>0.454761</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47477</v>
+        <v>0.473583</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.770799</v>
+        <v>0.772692</v>
       </c>
       <c r="C29" t="n">
-        <v>0.580414</v>
+        <v>0.457208</v>
       </c>
       <c r="D29" t="n">
-        <v>0.477255</v>
+        <v>0.476379</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.774014</v>
+        <v>0.7825029999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5892810000000001</v>
+        <v>0.465211</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482887</v>
+        <v>0.482216</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.78904</v>
+        <v>0.793974</v>
       </c>
       <c r="C31" t="n">
-        <v>0.597938</v>
+        <v>0.472707</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486207</v>
+        <v>0.484881</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.803854</v>
+        <v>0.805633</v>
       </c>
       <c r="C32" t="n">
-        <v>0.607522</v>
+        <v>0.480302</v>
       </c>
       <c r="D32" t="n">
-        <v>0.49113</v>
+        <v>0.486902</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8119</v>
+        <v>0.8176600000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.615195</v>
+        <v>0.487734</v>
       </c>
       <c r="D33" t="n">
-        <v>0.495168</v>
+        <v>0.490776</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.828542</v>
+        <v>0.830425</v>
       </c>
       <c r="C34" t="n">
-        <v>0.62735</v>
+        <v>0.50057</v>
       </c>
       <c r="D34" t="n">
-        <v>0.498115</v>
+        <v>0.495049</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.84197</v>
+        <v>0.842769</v>
       </c>
       <c r="C35" t="n">
-        <v>0.635598</v>
+        <v>0.5090479999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.502449</v>
+        <v>0.499974</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.853988</v>
+        <v>0.8557979999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.647645</v>
+        <v>0.519421</v>
       </c>
       <c r="D36" t="n">
-        <v>0.506606</v>
+        <v>0.502963</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.861695</v>
+        <v>0.862324</v>
       </c>
       <c r="C37" t="n">
-        <v>0.65972</v>
+        <v>0.530385</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507853</v>
+        <v>0.505367</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.873456</v>
+        <v>0.876094</v>
       </c>
       <c r="C38" t="n">
-        <v>0.668579</v>
+        <v>0.54154</v>
       </c>
       <c r="D38" t="n">
-        <v>0.514608</v>
+        <v>0.510525</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.896016</v>
+        <v>0.894883</v>
       </c>
       <c r="C39" t="n">
-        <v>0.680038</v>
+        <v>0.548657</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51557</v>
+        <v>0.511479</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.897165</v>
+        <v>0.901827</v>
       </c>
       <c r="C40" t="n">
-        <v>0.628819</v>
+        <v>0.501658</v>
       </c>
       <c r="D40" t="n">
-        <v>0.520099</v>
+        <v>0.515753</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.851904</v>
+        <v>0.85238</v>
       </c>
       <c r="C41" t="n">
-        <v>0.633888</v>
+        <v>0.506235</v>
       </c>
       <c r="D41" t="n">
-        <v>0.523031</v>
+        <v>0.517663</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.859718</v>
+        <v>0.86388</v>
       </c>
       <c r="C42" t="n">
-        <v>0.643082</v>
+        <v>0.515468</v>
       </c>
       <c r="D42" t="n">
-        <v>0.524141</v>
+        <v>0.521153</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.866217</v>
+        <v>0.870414</v>
       </c>
       <c r="C43" t="n">
-        <v>0.649583</v>
+        <v>0.519693</v>
       </c>
       <c r="D43" t="n">
-        <v>0.527353</v>
+        <v>0.524661</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.87349</v>
+        <v>0.877471</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6619119999999999</v>
+        <v>0.532095</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5312170000000001</v>
+        <v>0.526955</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.89283</v>
+        <v>0.891024</v>
       </c>
       <c r="C45" t="n">
-        <v>0.668075</v>
+        <v>0.534745</v>
       </c>
       <c r="D45" t="n">
-        <v>0.532961</v>
+        <v>0.528416</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.894171</v>
+        <v>0.8976460000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6752320000000001</v>
+        <v>0.545828</v>
       </c>
       <c r="D46" t="n">
-        <v>0.535706</v>
+        <v>0.531802</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.908508</v>
+        <v>0.909662</v>
       </c>
       <c r="C47" t="n">
-        <v>0.686426</v>
+        <v>0.554629</v>
       </c>
       <c r="D47" t="n">
-        <v>0.537571</v>
+        <v>0.532967</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.916134</v>
+        <v>0.918597</v>
       </c>
       <c r="C48" t="n">
-        <v>0.694431</v>
+        <v>0.560327</v>
       </c>
       <c r="D48" t="n">
-        <v>0.539928</v>
+        <v>0.535524</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.922224</v>
+        <v>0.9266489999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.70217</v>
+        <v>0.570755</v>
       </c>
       <c r="D49" t="n">
-        <v>0.542654</v>
+        <v>0.539082</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.936508</v>
+        <v>0.940275</v>
       </c>
       <c r="C50" t="n">
-        <v>0.712893</v>
+        <v>0.577596</v>
       </c>
       <c r="D50" t="n">
-        <v>0.543723</v>
+        <v>0.5406879999999999</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.944813</v>
+        <v>0.948215</v>
       </c>
       <c r="C51" t="n">
-        <v>0.721209</v>
+        <v>0.589816</v>
       </c>
       <c r="D51" t="n">
-        <v>0.544863</v>
+        <v>0.542355</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.959201</v>
+        <v>0.960518</v>
       </c>
       <c r="C52" t="n">
-        <v>0.735354</v>
+        <v>0.5996010000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.548774</v>
+        <v>0.544041</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.969436</v>
+        <v>0.969946</v>
       </c>
       <c r="C53" t="n">
-        <v>0.744218</v>
+        <v>0.610775</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5499270000000001</v>
+        <v>0.546516</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.981778</v>
+        <v>0.983661</v>
       </c>
       <c r="C54" t="n">
-        <v>0.677157</v>
+        <v>0.541111</v>
       </c>
       <c r="D54" t="n">
-        <v>0.549975</v>
+        <v>0.546542</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9938669999999999</v>
+        <v>0.996265</v>
       </c>
       <c r="C55" t="n">
-        <v>0.683222</v>
+        <v>0.5464020000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.551756</v>
+        <v>0.547164</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.913471</v>
+        <v>0.913995</v>
       </c>
       <c r="C56" t="n">
-        <v>0.69008</v>
+        <v>0.554922</v>
       </c>
       <c r="D56" t="n">
-        <v>0.553552</v>
+        <v>0.548543</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.919462</v>
+        <v>0.92026</v>
       </c>
       <c r="C57" t="n">
-        <v>0.696474</v>
+        <v>0.561217</v>
       </c>
       <c r="D57" t="n">
-        <v>0.555182</v>
+        <v>0.550515</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.931226</v>
+        <v>0.930375</v>
       </c>
       <c r="C58" t="n">
-        <v>0.70526</v>
+        <v>0.564402</v>
       </c>
       <c r="D58" t="n">
-        <v>0.55728</v>
+        <v>0.5526529999999999</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.935751</v>
+        <v>0.937793</v>
       </c>
       <c r="C59" t="n">
-        <v>0.713858</v>
+        <v>0.57185</v>
       </c>
       <c r="D59" t="n">
-        <v>0.559787</v>
+        <v>0.5514019999999999</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.946527</v>
+        <v>0.9439</v>
       </c>
       <c r="C60" t="n">
-        <v>0.723448</v>
+        <v>0.582367</v>
       </c>
       <c r="D60" t="n">
-        <v>0.560052</v>
+        <v>0.555283</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.951149</v>
+        <v>0.951582</v>
       </c>
       <c r="C61" t="n">
-        <v>0.733897</v>
+        <v>0.596145</v>
       </c>
       <c r="D61" t="n">
-        <v>0.562526</v>
+        <v>0.5586989999999999</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9618910000000001</v>
+        <v>0.959905</v>
       </c>
       <c r="C62" t="n">
-        <v>0.744077</v>
+        <v>0.605097</v>
       </c>
       <c r="D62" t="n">
-        <v>0.563546</v>
+        <v>0.558063</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.972823</v>
+        <v>0.972521</v>
       </c>
       <c r="C63" t="n">
-        <v>0.757139</v>
+        <v>0.6181950000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.564778</v>
+        <v>0.561344</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.984118</v>
+        <v>0.982194</v>
       </c>
       <c r="C64" t="n">
-        <v>0.772301</v>
+        <v>0.6310170000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.568563</v>
+        <v>0.561246</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.999149</v>
+        <v>0.993108</v>
       </c>
       <c r="C65" t="n">
-        <v>0.790191</v>
+        <v>0.647765</v>
       </c>
       <c r="D65" t="n">
-        <v>0.570643</v>
+        <v>0.564353</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.01249</v>
+        <v>1.00599</v>
       </c>
       <c r="C66" t="n">
-        <v>0.801393</v>
+        <v>0.662802</v>
       </c>
       <c r="D66" t="n">
-        <v>0.57292</v>
+        <v>0.565675</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.02164</v>
+        <v>1.01815</v>
       </c>
       <c r="C67" t="n">
-        <v>0.821655</v>
+        <v>0.683232</v>
       </c>
       <c r="D67" t="n">
-        <v>0.575775</v>
+        <v>0.568317</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03486</v>
+        <v>1.03169</v>
       </c>
       <c r="C68" t="n">
-        <v>0.75356</v>
+        <v>0.618309</v>
       </c>
       <c r="D68" t="n">
-        <v>0.587475</v>
+        <v>0.58568</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06388</v>
+        <v>1.06636</v>
       </c>
       <c r="C69" t="n">
-        <v>0.781303</v>
+        <v>0.639334</v>
       </c>
       <c r="D69" t="n">
-        <v>0.596993</v>
+        <v>0.593618</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.00618</v>
+        <v>1.00307</v>
       </c>
       <c r="C70" t="n">
-        <v>0.810473</v>
+        <v>0.667725</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6151529999999999</v>
+        <v>0.6075430000000001</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03475</v>
+        <v>1.03392</v>
       </c>
       <c r="C71" t="n">
-        <v>0.838633</v>
+        <v>0.69803</v>
       </c>
       <c r="D71" t="n">
-        <v>0.626263</v>
+        <v>0.621624</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07561</v>
+        <v>1.0721</v>
       </c>
       <c r="C72" t="n">
-        <v>0.873169</v>
+        <v>0.733858</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6475649999999999</v>
+        <v>0.641883</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10571</v>
+        <v>1.10232</v>
       </c>
       <c r="C73" t="n">
-        <v>0.907618</v>
+        <v>0.7690709999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.663928</v>
+        <v>0.656967</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14376</v>
+        <v>1.13834</v>
       </c>
       <c r="C74" t="n">
-        <v>0.949123</v>
+        <v>0.8047339999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.683132</v>
+        <v>0.6774019999999999</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.18284</v>
+        <v>1.18466</v>
       </c>
       <c r="C75" t="n">
-        <v>0.991874</v>
+        <v>0.850788</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7078100000000001</v>
+        <v>0.70336</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.23129</v>
+        <v>1.23489</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03711</v>
+        <v>0.896498</v>
       </c>
       <c r="D76" t="n">
-        <v>0.735701</v>
+        <v>0.730707</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28795</v>
+        <v>1.29144</v>
       </c>
       <c r="C77" t="n">
-        <v>1.08558</v>
+        <v>0.948264</v>
       </c>
       <c r="D77" t="n">
-        <v>0.764278</v>
+        <v>0.763792</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34932</v>
+        <v>1.3541</v>
       </c>
       <c r="C78" t="n">
-        <v>1.1406</v>
+        <v>0.995695</v>
       </c>
       <c r="D78" t="n">
-        <v>0.797505</v>
+        <v>0.797603</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.41035</v>
+        <v>1.42249</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18754</v>
+        <v>1.05184</v>
       </c>
       <c r="D79" t="n">
-        <v>0.832767</v>
+        <v>0.839444</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.48265</v>
+        <v>1.5043</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25</v>
+        <v>1.11286</v>
       </c>
       <c r="D80" t="n">
-        <v>0.866629</v>
+        <v>0.879875</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.57292</v>
+        <v>1.58723</v>
       </c>
       <c r="C81" t="n">
-        <v>1.32019</v>
+        <v>1.17707</v>
       </c>
       <c r="D81" t="n">
-        <v>0.919963</v>
+        <v>0.924717</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.65934</v>
+        <v>1.67309</v>
       </c>
       <c r="C82" t="n">
-        <v>1.39368</v>
+        <v>1.23801</v>
       </c>
       <c r="D82" t="n">
-        <v>0.969929</v>
+        <v>0.973596</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.76026</v>
+        <v>1.78001</v>
       </c>
       <c r="C83" t="n">
-        <v>1.38018</v>
+        <v>1.22309</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08843</v>
+        <v>1.09017</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.87367</v>
+        <v>1.89241</v>
       </c>
       <c r="C84" t="n">
-        <v>1.44163</v>
+        <v>1.28535</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13918</v>
+        <v>1.1468</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.89671</v>
+        <v>1.91328</v>
       </c>
       <c r="C85" t="n">
-        <v>1.50455</v>
+        <v>1.33854</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19747</v>
+        <v>1.21302</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.99882</v>
+        <v>2.01822</v>
       </c>
       <c r="C86" t="n">
-        <v>1.57961</v>
+        <v>1.40852</v>
       </c>
       <c r="D86" t="n">
-        <v>1.26033</v>
+        <v>1.26155</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.1095</v>
+        <v>2.1248</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65164</v>
+        <v>1.48259</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32246</v>
+        <v>1.32448</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.22239</v>
+        <v>2.25359</v>
       </c>
       <c r="C88" t="n">
-        <v>1.72932</v>
+        <v>1.55287</v>
       </c>
       <c r="D88" t="n">
-        <v>1.38594</v>
+        <v>1.38821</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.3492</v>
+        <v>2.36593</v>
       </c>
       <c r="C89" t="n">
-        <v>1.81517</v>
+        <v>1.62452</v>
       </c>
       <c r="D89" t="n">
-        <v>1.44417</v>
+        <v>1.44135</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.46703</v>
+        <v>2.47762</v>
       </c>
       <c r="C90" t="n">
-        <v>1.89273</v>
+        <v>1.70618</v>
       </c>
       <c r="D90" t="n">
-        <v>1.50587</v>
+        <v>1.50721</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.60207</v>
+        <v>2.61259</v>
       </c>
       <c r="C91" t="n">
-        <v>1.98242</v>
+        <v>1.80411</v>
       </c>
       <c r="D91" t="n">
-        <v>1.55462</v>
+        <v>1.55868</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.7071</v>
+        <v>2.74456</v>
       </c>
       <c r="C92" t="n">
-        <v>2.06331</v>
+        <v>1.8774</v>
       </c>
       <c r="D92" t="n">
-        <v>1.61744</v>
+        <v>1.61311</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.85182</v>
+        <v>2.87951</v>
       </c>
       <c r="C93" t="n">
-        <v>2.16315</v>
+        <v>1.96284</v>
       </c>
       <c r="D93" t="n">
-        <v>1.6771</v>
+        <v>1.66891</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.98835</v>
+        <v>3.01894</v>
       </c>
       <c r="C94" t="n">
-        <v>2.25805</v>
+        <v>2.05025</v>
       </c>
       <c r="D94" t="n">
-        <v>1.72111</v>
+        <v>1.72385</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.11837</v>
+        <v>3.12819</v>
       </c>
       <c r="C95" t="n">
-        <v>2.34818</v>
+        <v>2.15475</v>
       </c>
       <c r="D95" t="n">
-        <v>1.77898</v>
+        <v>1.76888</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.23477</v>
+        <v>3.30589</v>
       </c>
       <c r="C96" t="n">
-        <v>2.46394</v>
+        <v>2.26375</v>
       </c>
       <c r="D96" t="n">
-        <v>1.82844</v>
+        <v>1.81902</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40444</v>
+        <v>3.42603</v>
       </c>
       <c r="C97" t="n">
-        <v>2.25004</v>
+        <v>2.01886</v>
       </c>
       <c r="D97" t="n">
-        <v>1.96767</v>
+        <v>1.9614</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.50896</v>
+        <v>3.565</v>
       </c>
       <c r="C98" t="n">
-        <v>2.32061</v>
+        <v>2.0728</v>
       </c>
       <c r="D98" t="n">
-        <v>2.01437</v>
+        <v>2.01935</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.42795</v>
+        <v>3.47412</v>
       </c>
       <c r="C99" t="n">
-        <v>2.37688</v>
+        <v>2.14708</v>
       </c>
       <c r="D99" t="n">
-        <v>2.06083</v>
+        <v>2.0556</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.54529</v>
+        <v>3.56694</v>
       </c>
       <c r="C100" t="n">
-        <v>2.45781</v>
+        <v>2.21779</v>
       </c>
       <c r="D100" t="n">
-        <v>2.09884</v>
+        <v>2.10699</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.61572</v>
+        <v>3.68265</v>
       </c>
       <c r="C101" t="n">
-        <v>2.53641</v>
+        <v>2.26676</v>
       </c>
       <c r="D101" t="n">
-        <v>2.12887</v>
+        <v>2.13501</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.71184</v>
+        <v>3.75856</v>
       </c>
       <c r="C102" t="n">
-        <v>2.60078</v>
+        <v>2.35532</v>
       </c>
       <c r="D102" t="n">
-        <v>2.16964</v>
+        <v>2.19506</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.83872</v>
+        <v>3.88899</v>
       </c>
       <c r="C103" t="n">
-        <v>2.67792</v>
+        <v>2.42055</v>
       </c>
       <c r="D103" t="n">
-        <v>2.21099</v>
+        <v>2.21446</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.92913</v>
+        <v>3.99612</v>
       </c>
       <c r="C104" t="n">
-        <v>2.75558</v>
+        <v>2.50712</v>
       </c>
       <c r="D104" t="n">
-        <v>2.24107</v>
+        <v>2.2577</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.05224</v>
+        <v>4.10222</v>
       </c>
       <c r="C105" t="n">
-        <v>2.84054</v>
+        <v>2.58695</v>
       </c>
       <c r="D105" t="n">
-        <v>2.27689</v>
+        <v>2.30522</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.10106</v>
+        <v>4.16639</v>
       </c>
       <c r="C106" t="n">
-        <v>2.91569</v>
+        <v>2.6615</v>
       </c>
       <c r="D106" t="n">
-        <v>2.30634</v>
+        <v>2.3315</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.17334</v>
+        <v>4.29817</v>
       </c>
       <c r="C107" t="n">
-        <v>2.99388</v>
+        <v>2.7463</v>
       </c>
       <c r="D107" t="n">
-        <v>2.33743</v>
+        <v>2.35955</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.2464</v>
+        <v>4.40464</v>
       </c>
       <c r="C108" t="n">
-        <v>3.07716</v>
+        <v>2.84452</v>
       </c>
       <c r="D108" t="n">
-        <v>2.35531</v>
+        <v>2.40171</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.37143</v>
+        <v>4.49122</v>
       </c>
       <c r="C109" t="n">
-        <v>3.17688</v>
+        <v>2.93914</v>
       </c>
       <c r="D109" t="n">
-        <v>2.39636</v>
+        <v>2.42433</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.47487</v>
+        <v>4.60867</v>
       </c>
       <c r="C110" t="n">
-        <v>3.26189</v>
+        <v>3.02411</v>
       </c>
       <c r="D110" t="n">
-        <v>2.42321</v>
+        <v>2.44714</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.60499</v>
+        <v>4.72597</v>
       </c>
       <c r="C111" t="n">
-        <v>2.87932</v>
+        <v>2.64658</v>
       </c>
       <c r="D111" t="n">
-        <v>2.52715</v>
+        <v>2.56292</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.75656</v>
+        <v>4.83825</v>
       </c>
       <c r="C112" t="n">
-        <v>2.95864</v>
+        <v>2.72664</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55104</v>
+        <v>2.61059</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.81787</v>
+        <v>4.9481</v>
       </c>
       <c r="C113" t="n">
-        <v>3.01167</v>
+        <v>2.76968</v>
       </c>
       <c r="D113" t="n">
-        <v>2.58024</v>
+        <v>2.63595</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.48685</v>
+        <v>4.58755</v>
       </c>
       <c r="C114" t="n">
-        <v>3.05744</v>
+        <v>2.82056</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60897</v>
+        <v>2.66015</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.5609</v>
+        <v>4.62929</v>
       </c>
       <c r="C115" t="n">
-        <v>3.12468</v>
+        <v>2.87195</v>
       </c>
       <c r="D115" t="n">
-        <v>2.62837</v>
+        <v>2.67374</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.6192</v>
+        <v>4.76943</v>
       </c>
       <c r="C116" t="n">
-        <v>3.1739</v>
+        <v>2.93461</v>
       </c>
       <c r="D116" t="n">
-        <v>2.65155</v>
+        <v>2.69835</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.74409</v>
+        <v>4.83119</v>
       </c>
       <c r="C117" t="n">
-        <v>3.24864</v>
+        <v>2.99249</v>
       </c>
       <c r="D117" t="n">
-        <v>2.67123</v>
+        <v>2.72088</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.83983</v>
+        <v>4.87247</v>
       </c>
       <c r="C118" t="n">
-        <v>3.32525</v>
+        <v>3.07318</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69038</v>
+        <v>2.73534</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.9104</v>
+        <v>5.00528</v>
       </c>
       <c r="C119" t="n">
-        <v>3.40615</v>
+        <v>3.15707</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71589</v>
+        <v>2.7702</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.314589</v>
+        <v>0.321531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.181304</v>
+        <v>0.180778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.243795</v>
+        <v>0.23158</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3007</v>
+        <v>0.297329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.184668</v>
+        <v>0.184386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250071</v>
+        <v>0.243242</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.307264</v>
+        <v>0.301394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188244</v>
+        <v>0.187086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.254964</v>
+        <v>0.240102</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.313033</v>
+        <v>0.304449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192909</v>
+        <v>0.191545</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257959</v>
+        <v>0.250815</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.321644</v>
+        <v>0.312616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195667</v>
+        <v>0.194223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268109</v>
+        <v>0.257374</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.33248</v>
+        <v>0.3202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17997</v>
+        <v>0.179799</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27349</v>
+        <v>0.26957</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3313</v>
+        <v>0.324991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181961</v>
+        <v>0.181609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.278825</v>
+        <v>0.276786</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.340303</v>
+        <v>0.335439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184324</v>
+        <v>0.184518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287062</v>
+        <v>0.281977</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.348609</v>
+        <v>0.341254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.186226</v>
+        <v>0.186408</v>
       </c>
       <c r="D10" t="n">
-        <v>0.291122</v>
+        <v>0.288422</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.354303</v>
+        <v>0.34841</v>
       </c>
       <c r="C11" t="n">
-        <v>0.187994</v>
+        <v>0.188131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.298148</v>
+        <v>0.29336</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.357962</v>
+        <v>0.356504</v>
       </c>
       <c r="C12" t="n">
-        <v>0.189944</v>
+        <v>0.190138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.303312</v>
+        <v>0.298695</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.367252</v>
+        <v>0.36228</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193315</v>
+        <v>0.193477</v>
       </c>
       <c r="D13" t="n">
-        <v>0.307316</v>
+        <v>0.306382</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.371307</v>
+        <v>0.370084</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195398</v>
+        <v>0.195788</v>
       </c>
       <c r="D14" t="n">
-        <v>0.313103</v>
+        <v>0.309197</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.381751</v>
+        <v>0.377264</v>
       </c>
       <c r="C15" t="n">
-        <v>0.199082</v>
+        <v>0.199479</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317283</v>
+        <v>0.317614</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.387233</v>
+        <v>0.386081</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200618</v>
+        <v>0.202711</v>
       </c>
       <c r="D16" t="n">
-        <v>0.32331</v>
+        <v>0.322968</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.394126</v>
+        <v>0.392045</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202847</v>
+        <v>0.204019</v>
       </c>
       <c r="D17" t="n">
-        <v>0.329395</v>
+        <v>0.329653</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.379105</v>
+        <v>0.379356</v>
       </c>
       <c r="C18" t="n">
-        <v>0.205957</v>
+        <v>0.207648</v>
       </c>
       <c r="D18" t="n">
-        <v>0.335148</v>
+        <v>0.333819</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.384996</v>
+        <v>0.383783</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21002</v>
+        <v>0.210082</v>
       </c>
       <c r="D19" t="n">
-        <v>0.340965</v>
+        <v>0.340862</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.389373</v>
+        <v>0.390297</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212216</v>
+        <v>0.212812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.347019</v>
+        <v>0.34671</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.394184</v>
+        <v>0.395515</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191589</v>
+        <v>0.191952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.353777</v>
+        <v>0.353844</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.399544</v>
+        <v>0.399894</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193163</v>
+        <v>0.193596</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358174</v>
+        <v>0.358249</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407583</v>
+        <v>0.406732</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195378</v>
+        <v>0.195586</v>
       </c>
       <c r="D23" t="n">
-        <v>0.362081</v>
+        <v>0.363304</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.413955</v>
+        <v>0.412669</v>
       </c>
       <c r="C24" t="n">
-        <v>0.197688</v>
+        <v>0.197474</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365991</v>
+        <v>0.366688</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.418836</v>
+        <v>0.417386</v>
       </c>
       <c r="C25" t="n">
-        <v>0.200373</v>
+        <v>0.199134</v>
       </c>
       <c r="D25" t="n">
-        <v>0.369572</v>
+        <v>0.370602</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.424824</v>
+        <v>0.424046</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201235</v>
+        <v>0.201346</v>
       </c>
       <c r="D26" t="n">
-        <v>0.373582</v>
+        <v>0.373899</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.430889</v>
+        <v>0.430743</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204088</v>
+        <v>0.204324</v>
       </c>
       <c r="D27" t="n">
-        <v>0.376913</v>
+        <v>0.377378</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.436809</v>
+        <v>0.436484</v>
       </c>
       <c r="C28" t="n">
-        <v>0.206744</v>
+        <v>0.206665</v>
       </c>
       <c r="D28" t="n">
-        <v>0.381706</v>
+        <v>0.38154</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.44451</v>
+        <v>0.4434</v>
       </c>
       <c r="C29" t="n">
-        <v>0.210854</v>
+        <v>0.211018</v>
       </c>
       <c r="D29" t="n">
-        <v>0.385541</v>
+        <v>0.385686</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.44847</v>
+        <v>0.448276</v>
       </c>
       <c r="C30" t="n">
-        <v>0.213033</v>
+        <v>0.213563</v>
       </c>
       <c r="D30" t="n">
-        <v>0.389015</v>
+        <v>0.389206</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454255</v>
+        <v>0.454493</v>
       </c>
       <c r="C31" t="n">
-        <v>0.213967</v>
+        <v>0.215898</v>
       </c>
       <c r="D31" t="n">
-        <v>0.392198</v>
+        <v>0.392365</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.426608</v>
+        <v>0.426548</v>
       </c>
       <c r="C32" t="n">
-        <v>0.216874</v>
+        <v>0.218294</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395727</v>
+        <v>0.395733</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.430494</v>
+        <v>0.429822</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219793</v>
+        <v>0.221833</v>
       </c>
       <c r="D33" t="n">
-        <v>0.399452</v>
+        <v>0.39966</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434021</v>
+        <v>0.43427</v>
       </c>
       <c r="C34" t="n">
-        <v>0.222763</v>
+        <v>0.224609</v>
       </c>
       <c r="D34" t="n">
-        <v>0.402767</v>
+        <v>0.402846</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.439087</v>
+        <v>0.439331</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197816</v>
+        <v>0.199359</v>
       </c>
       <c r="D35" t="n">
-        <v>0.402381</v>
+        <v>0.402596</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.442412</v>
+        <v>0.441906</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200056</v>
+        <v>0.200477</v>
       </c>
       <c r="D36" t="n">
-        <v>0.404555</v>
+        <v>0.404458</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.44598</v>
+        <v>0.44577</v>
       </c>
       <c r="C37" t="n">
-        <v>0.200782</v>
+        <v>0.201292</v>
       </c>
       <c r="D37" t="n">
-        <v>0.406412</v>
+        <v>0.406358</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.450587</v>
+        <v>0.450305</v>
       </c>
       <c r="C38" t="n">
-        <v>0.202634</v>
+        <v>0.203319</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408389</v>
+        <v>0.408666</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454371</v>
+        <v>0.454833</v>
       </c>
       <c r="C39" t="n">
-        <v>0.205248</v>
+        <v>0.205229</v>
       </c>
       <c r="D39" t="n">
-        <v>0.410628</v>
+        <v>0.410596</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4591</v>
+        <v>0.458778</v>
       </c>
       <c r="C40" t="n">
-        <v>0.20688</v>
+        <v>0.207322</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412704</v>
+        <v>0.412448</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463067</v>
+        <v>0.463154</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209197</v>
+        <v>0.209231</v>
       </c>
       <c r="D41" t="n">
-        <v>0.414787</v>
+        <v>0.41482</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468552</v>
+        <v>0.467963</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211196</v>
+        <v>0.211024</v>
       </c>
       <c r="D42" t="n">
-        <v>0.417223</v>
+        <v>0.417169</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.473122</v>
+        <v>0.472832</v>
       </c>
       <c r="C43" t="n">
-        <v>0.215013</v>
+        <v>0.214322</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419652</v>
+        <v>0.419505</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.477725</v>
+        <v>0.477162</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215929</v>
+        <v>0.217477</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421737</v>
+        <v>0.421744</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.483162</v>
+        <v>0.482872</v>
       </c>
       <c r="C45" t="n">
-        <v>0.218955</v>
+        <v>0.220524</v>
       </c>
       <c r="D45" t="n">
-        <v>0.423876</v>
+        <v>0.423861</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.487952</v>
+        <v>0.487683</v>
       </c>
       <c r="C46" t="n">
-        <v>0.221639</v>
+        <v>0.223205</v>
       </c>
       <c r="D46" t="n">
-        <v>0.425962</v>
+        <v>0.426195</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451035</v>
+        <v>0.451208</v>
       </c>
       <c r="C47" t="n">
-        <v>0.224233</v>
+        <v>0.226061</v>
       </c>
       <c r="D47" t="n">
-        <v>0.42867</v>
+        <v>0.428835</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.453896</v>
+        <v>0.454588</v>
       </c>
       <c r="C48" t="n">
-        <v>0.226275</v>
+        <v>0.228194</v>
       </c>
       <c r="D48" t="n">
-        <v>0.430686</v>
+        <v>0.430967</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.458423</v>
+        <v>0.458067</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230234</v>
+        <v>0.232016</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432798</v>
+        <v>0.432964</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461581</v>
+        <v>0.461388</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202774</v>
+        <v>0.20325</v>
       </c>
       <c r="D50" t="n">
-        <v>0.428729</v>
+        <v>0.428498</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.464937</v>
+        <v>0.465089</v>
       </c>
       <c r="C51" t="n">
-        <v>0.205829</v>
+        <v>0.207356</v>
       </c>
       <c r="D51" t="n">
-        <v>0.429756</v>
+        <v>0.429919</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468371</v>
+        <v>0.468847</v>
       </c>
       <c r="C52" t="n">
-        <v>0.207164</v>
+        <v>0.207535</v>
       </c>
       <c r="D52" t="n">
-        <v>0.430622</v>
+        <v>0.430671</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472203</v>
+        <v>0.472135</v>
       </c>
       <c r="C53" t="n">
-        <v>0.209627</v>
+        <v>0.2099</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431881</v>
+        <v>0.431996</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.475982</v>
+        <v>0.476273</v>
       </c>
       <c r="C54" t="n">
-        <v>0.211112</v>
+        <v>0.215538</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433804</v>
+        <v>0.433279</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479704</v>
+        <v>0.479614</v>
       </c>
       <c r="C55" t="n">
-        <v>0.213676</v>
+        <v>0.216985</v>
       </c>
       <c r="D55" t="n">
-        <v>0.434769</v>
+        <v>0.434784</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484305</v>
+        <v>0.484268</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22009</v>
+        <v>0.2214</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436282</v>
+        <v>0.436264</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.487315</v>
+        <v>0.487952</v>
       </c>
       <c r="C57" t="n">
-        <v>0.223687</v>
+        <v>0.224698</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437789</v>
+        <v>0.437842</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.49227</v>
+        <v>0.492598</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227293</v>
+        <v>0.226909</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439339</v>
+        <v>0.439403</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.497056</v>
+        <v>0.497238</v>
       </c>
       <c r="C59" t="n">
-        <v>0.234603</v>
+        <v>0.233323</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441511</v>
+        <v>0.441266</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5018359999999999</v>
+        <v>0.502373</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242376</v>
+        <v>0.24113</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444242</v>
+        <v>0.448576</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.487043</v>
+        <v>0.487013</v>
       </c>
       <c r="C61" t="n">
-        <v>0.248663</v>
+        <v>0.250135</v>
       </c>
       <c r="D61" t="n">
-        <v>0.446778</v>
+        <v>0.450952</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.495885</v>
+        <v>0.49627</v>
       </c>
       <c r="C62" t="n">
-        <v>0.256383</v>
+        <v>0.256541</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448959</v>
+        <v>0.453028</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.499739</v>
+        <v>0.505266</v>
       </c>
       <c r="C63" t="n">
-        <v>0.261936</v>
+        <v>0.260367</v>
       </c>
       <c r="D63" t="n">
-        <v>0.449842</v>
+        <v>0.451361</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.510188</v>
+        <v>0.516141</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302474</v>
+        <v>0.299247</v>
       </c>
       <c r="D64" t="n">
-        <v>0.490564</v>
+        <v>0.483943</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.528536</v>
+        <v>0.527083</v>
       </c>
       <c r="C65" t="n">
-        <v>0.318197</v>
+        <v>0.314008</v>
       </c>
       <c r="D65" t="n">
-        <v>0.497219</v>
+        <v>0.493514</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5434059999999999</v>
+        <v>0.544369</v>
       </c>
       <c r="C66" t="n">
-        <v>0.335358</v>
+        <v>0.329733</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5039130000000001</v>
+        <v>0.503014</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.550856</v>
+        <v>0.548573</v>
       </c>
       <c r="C67" t="n">
-        <v>0.358616</v>
+        <v>0.357233</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513638</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.565233</v>
+        <v>0.568155</v>
       </c>
       <c r="C68" t="n">
-        <v>0.362197</v>
+        <v>0.369321</v>
       </c>
       <c r="D68" t="n">
-        <v>0.538122</v>
+        <v>0.534925</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.597539</v>
+        <v>0.592898</v>
       </c>
       <c r="C69" t="n">
-        <v>0.379814</v>
+        <v>0.38914</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5552049999999999</v>
+        <v>0.561741</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.617601</v>
+        <v>0.623889</v>
       </c>
       <c r="C70" t="n">
-        <v>0.397992</v>
+        <v>0.410945</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5515910000000001</v>
+        <v>0.577924</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6282720000000001</v>
+        <v>0.630537</v>
       </c>
       <c r="C71" t="n">
-        <v>0.420068</v>
+        <v>0.422455</v>
       </c>
       <c r="D71" t="n">
-        <v>0.581019</v>
+        <v>0.589429</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.660174</v>
+        <v>0.663138</v>
       </c>
       <c r="C72" t="n">
-        <v>0.440364</v>
+        <v>0.443937</v>
       </c>
       <c r="D72" t="n">
-        <v>0.590233</v>
+        <v>0.61973</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.663059</v>
+        <v>0.696651</v>
       </c>
       <c r="C73" t="n">
-        <v>0.460693</v>
+        <v>0.463909</v>
       </c>
       <c r="D73" t="n">
-        <v>0.619345</v>
+        <v>0.627505</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.70148</v>
+        <v>0.706534</v>
       </c>
       <c r="C74" t="n">
-        <v>0.481026</v>
+        <v>0.48473</v>
       </c>
       <c r="D74" t="n">
-        <v>0.662268</v>
+        <v>0.679298</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.735706</v>
+        <v>0.747862</v>
       </c>
       <c r="C75" t="n">
-        <v>0.497753</v>
+        <v>0.499866</v>
       </c>
       <c r="D75" t="n">
-        <v>0.692035</v>
+        <v>0.707991</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.953209</v>
+        <v>0.972296</v>
       </c>
       <c r="C76" t="n">
-        <v>0.516855</v>
+        <v>0.521312</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7303460000000001</v>
+        <v>0.742507</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.00933</v>
+        <v>1.01722</v>
       </c>
       <c r="C77" t="n">
-        <v>0.535614</v>
+        <v>0.538304</v>
       </c>
       <c r="D77" t="n">
-        <v>0.771387</v>
+        <v>0.780026</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.05755</v>
+        <v>1.06404</v>
       </c>
       <c r="C78" t="n">
-        <v>0.627861</v>
+        <v>0.628661</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02692</v>
+        <v>1.03471</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.1061</v>
+        <v>1.11353</v>
       </c>
       <c r="C79" t="n">
-        <v>0.639154</v>
+        <v>0.640577</v>
       </c>
       <c r="D79" t="n">
-        <v>1.08071</v>
+        <v>1.08199</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.16098</v>
+        <v>1.15443</v>
       </c>
       <c r="C80" t="n">
-        <v>0.650459</v>
+        <v>0.652162</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12639</v>
+        <v>1.13094</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.20548</v>
+        <v>1.20675</v>
       </c>
       <c r="C81" t="n">
-        <v>0.663004</v>
+        <v>0.666739</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16839</v>
+        <v>1.17627</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25569</v>
+        <v>1.26421</v>
       </c>
       <c r="C82" t="n">
-        <v>0.676412</v>
+        <v>0.679783</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21879</v>
+        <v>1.22292</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30443</v>
+        <v>1.30578</v>
       </c>
       <c r="C83" t="n">
-        <v>0.688652</v>
+        <v>0.6893629999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26532</v>
+        <v>1.27192</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36183</v>
+        <v>1.35749</v>
       </c>
       <c r="C84" t="n">
-        <v>0.700045</v>
+        <v>0.701139</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32026</v>
+        <v>1.32536</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.40612</v>
+        <v>1.4118</v>
       </c>
       <c r="C85" t="n">
-        <v>0.711667</v>
+        <v>0.713748</v>
       </c>
       <c r="D85" t="n">
-        <v>1.36735</v>
+        <v>1.37588</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46042</v>
+        <v>1.46485</v>
       </c>
       <c r="C86" t="n">
-        <v>0.72458</v>
+        <v>0.726224</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41757</v>
+        <v>1.42153</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.51064</v>
+        <v>1.51229</v>
       </c>
       <c r="C87" t="n">
-        <v>0.736596</v>
+        <v>0.738039</v>
       </c>
       <c r="D87" t="n">
-        <v>1.46445</v>
+        <v>1.47175</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.56584</v>
+        <v>1.5657</v>
       </c>
       <c r="C88" t="n">
-        <v>0.749526</v>
+        <v>0.751148</v>
       </c>
       <c r="D88" t="n">
-        <v>1.51227</v>
+        <v>1.51639</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.61491</v>
+        <v>1.61515</v>
       </c>
       <c r="C89" t="n">
-        <v>0.761308</v>
+        <v>0.762558</v>
       </c>
       <c r="D89" t="n">
-        <v>1.55751</v>
+        <v>1.56447</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.82866</v>
+        <v>1.83802</v>
       </c>
       <c r="C90" t="n">
-        <v>0.773352</v>
+        <v>0.776537</v>
       </c>
       <c r="D90" t="n">
-        <v>1.59048</v>
+        <v>1.60587</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.86685</v>
+        <v>1.8726</v>
       </c>
       <c r="C91" t="n">
-        <v>0.786484</v>
+        <v>0.790733</v>
       </c>
       <c r="D91" t="n">
-        <v>1.64418</v>
+        <v>1.64234</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.91007</v>
+        <v>1.9086</v>
       </c>
       <c r="C92" t="n">
-        <v>0.792448</v>
+        <v>0.793914</v>
       </c>
       <c r="D92" t="n">
-        <v>1.8556</v>
+        <v>1.85732</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.94031</v>
+        <v>1.94157</v>
       </c>
       <c r="C93" t="n">
-        <v>0.801639</v>
+        <v>0.799079</v>
       </c>
       <c r="D93" t="n">
-        <v>1.88882</v>
+        <v>1.89094</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.97537</v>
+        <v>1.97178</v>
       </c>
       <c r="C94" t="n">
-        <v>0.809461</v>
+        <v>0.809226</v>
       </c>
       <c r="D94" t="n">
-        <v>1.9239</v>
+        <v>1.91984</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.01007</v>
+        <v>2.0041</v>
       </c>
       <c r="C95" t="n">
-        <v>0.818921</v>
+        <v>0.816931</v>
       </c>
       <c r="D95" t="n">
-        <v>1.94912</v>
+        <v>1.94954</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.0381</v>
+        <v>2.03801</v>
       </c>
       <c r="C96" t="n">
-        <v>0.823186</v>
+        <v>0.82524</v>
       </c>
       <c r="D96" t="n">
-        <v>1.97618</v>
+        <v>1.97512</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.06782</v>
+        <v>2.07155</v>
       </c>
       <c r="C97" t="n">
-        <v>0.834537</v>
+        <v>0.835865</v>
       </c>
       <c r="D97" t="n">
-        <v>2.004</v>
+        <v>2.0023</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.10015</v>
+        <v>2.0993</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8441</v>
+        <v>0.841351</v>
       </c>
       <c r="D98" t="n">
-        <v>2.02342</v>
+        <v>2.02035</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12891</v>
+        <v>2.12959</v>
       </c>
       <c r="C99" t="n">
-        <v>0.850345</v>
+        <v>0.851398</v>
       </c>
       <c r="D99" t="n">
-        <v>2.05963</v>
+        <v>2.05591</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.15882</v>
+        <v>2.15554</v>
       </c>
       <c r="C100" t="n">
-        <v>0.858966</v>
+        <v>0.861733</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07011</v>
+        <v>2.07342</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.1859</v>
+        <v>2.18375</v>
       </c>
       <c r="C101" t="n">
-        <v>0.869439</v>
+        <v>0.873962</v>
       </c>
       <c r="D101" t="n">
-        <v>2.09591</v>
+        <v>2.10562</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.21644</v>
+        <v>2.21231</v>
       </c>
       <c r="C102" t="n">
-        <v>0.88275</v>
+        <v>0.8818859999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11334</v>
+        <v>2.11051</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.23971</v>
+        <v>2.23933</v>
       </c>
       <c r="C103" t="n">
-        <v>0.890801</v>
+        <v>0.8917119999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>2.14961</v>
+        <v>2.15036</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.26785</v>
+        <v>2.27075</v>
       </c>
       <c r="C104" t="n">
-        <v>0.901987</v>
+        <v>0.903871</v>
       </c>
       <c r="D104" t="n">
-        <v>2.17222</v>
+        <v>2.16911</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.36244</v>
+        <v>2.35227</v>
       </c>
       <c r="C105" t="n">
-        <v>0.915199</v>
+        <v>0.913678</v>
       </c>
       <c r="D105" t="n">
-        <v>2.19262</v>
+        <v>2.18868</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.3817</v>
+        <v>2.37401</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9286799999999999</v>
+        <v>0.9291239999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>2.19975</v>
+        <v>2.20849</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40194</v>
+        <v>2.39394</v>
       </c>
       <c r="C107" t="n">
-        <v>0.882583</v>
+        <v>0.877408</v>
       </c>
       <c r="D107" t="n">
-        <v>2.33441</v>
+        <v>2.32473</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.42271</v>
+        <v>2.41198</v>
       </c>
       <c r="C108" t="n">
-        <v>0.889645</v>
+        <v>0.883209</v>
       </c>
       <c r="D108" t="n">
-        <v>2.3395</v>
+        <v>2.33076</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.4415</v>
+        <v>2.43218</v>
       </c>
       <c r="C109" t="n">
-        <v>0.89759</v>
+        <v>0.892802</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34953</v>
+        <v>2.34872</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.46731</v>
+        <v>2.45497</v>
       </c>
       <c r="C110" t="n">
-        <v>0.903961</v>
+        <v>0.899469</v>
       </c>
       <c r="D110" t="n">
-        <v>2.38057</v>
+        <v>2.36338</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.48532</v>
+        <v>2.47667</v>
       </c>
       <c r="C111" t="n">
-        <v>0.911124</v>
+        <v>0.907289</v>
       </c>
       <c r="D111" t="n">
-        <v>2.39025</v>
+        <v>2.38563</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.50588</v>
+        <v>2.49121</v>
       </c>
       <c r="C112" t="n">
-        <v>0.923552</v>
+        <v>0.917809</v>
       </c>
       <c r="D112" t="n">
-        <v>2.40945</v>
+        <v>2.39937</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.52936</v>
+        <v>2.51181</v>
       </c>
       <c r="C113" t="n">
-        <v>0.92356</v>
+        <v>0.928575</v>
       </c>
       <c r="D113" t="n">
-        <v>2.42958</v>
+        <v>2.40916</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.54672</v>
+        <v>2.53005</v>
       </c>
       <c r="C114" t="n">
-        <v>0.940677</v>
+        <v>0.930874</v>
       </c>
       <c r="D114" t="n">
-        <v>2.43119</v>
+        <v>2.41385</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.5707</v>
+        <v>2.55344</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9568950000000001</v>
+        <v>0.944238</v>
       </c>
       <c r="D115" t="n">
-        <v>2.45543</v>
+        <v>2.43698</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.58597</v>
+        <v>2.57129</v>
       </c>
       <c r="C116" t="n">
-        <v>0.961438</v>
+        <v>0.954657</v>
       </c>
       <c r="D116" t="n">
-        <v>2.46752</v>
+        <v>2.44706</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60839</v>
+        <v>2.59146</v>
       </c>
       <c r="C117" t="n">
-        <v>0.973409</v>
+        <v>0.963493</v>
       </c>
       <c r="D117" t="n">
-        <v>2.48295</v>
+        <v>2.46338</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.62945</v>
+        <v>2.6106</v>
       </c>
       <c r="C118" t="n">
-        <v>0.981096</v>
+        <v>0.9762459999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4931</v>
+        <v>2.47649</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.6699</v>
+        <v>2.62935</v>
       </c>
       <c r="C119" t="n">
-        <v>0.999378</v>
+        <v>0.986498</v>
       </c>
       <c r="D119" t="n">
-        <v>2.49118</v>
+        <v>2.4847</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.497758</v>
+        <v>0.495433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.310464</v>
+        <v>0.306697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.342821</v>
+        <v>0.338239</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5075</v>
+        <v>0.508279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.312035</v>
+        <v>0.312987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.347572</v>
+        <v>0.347921</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5102100000000001</v>
+        <v>0.507889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.319967</v>
+        <v>0.319281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.348689</v>
+        <v>0.350262</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.523288</v>
+        <v>0.52594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.327348</v>
+        <v>0.324919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.356269</v>
+        <v>0.351568</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.529498</v>
+        <v>0.528038</v>
       </c>
       <c r="C6" t="n">
-        <v>0.328592</v>
+        <v>0.32693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.362812</v>
+        <v>0.357266</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.542121</v>
+        <v>0.537049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.333722</v>
+        <v>0.334663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.369007</v>
+        <v>0.367584</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.551246</v>
+        <v>0.548722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.340748</v>
+        <v>0.342013</v>
       </c>
       <c r="D8" t="n">
-        <v>0.372895</v>
+        <v>0.369119</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.552839</v>
+        <v>0.5475989999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.347699</v>
+        <v>0.348628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.376823</v>
+        <v>0.377673</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.559851</v>
+        <v>0.562097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.350947</v>
+        <v>0.351321</v>
       </c>
       <c r="D10" t="n">
-        <v>0.385264</v>
+        <v>0.38098</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.574689</v>
+        <v>0.564276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.35005</v>
+        <v>0.350278</v>
       </c>
       <c r="D11" t="n">
-        <v>0.390156</v>
+        <v>0.39132</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.582213</v>
+        <v>0.580684</v>
       </c>
       <c r="C12" t="n">
-        <v>0.357435</v>
+        <v>0.358488</v>
       </c>
       <c r="D12" t="n">
-        <v>0.397875</v>
+        <v>0.396761</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.592792</v>
+        <v>0.5961920000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.362079</v>
+        <v>0.362038</v>
       </c>
       <c r="D13" t="n">
-        <v>0.401292</v>
+        <v>0.398278</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.596091</v>
+        <v>0.595926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.36368</v>
+        <v>0.362145</v>
       </c>
       <c r="D14" t="n">
-        <v>0.407741</v>
+        <v>0.404429</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.607413</v>
+        <v>0.60278</v>
       </c>
       <c r="C15" t="n">
-        <v>0.367255</v>
+        <v>0.367327</v>
       </c>
       <c r="D15" t="n">
-        <v>0.414206</v>
+        <v>0.413497</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.619081</v>
+        <v>0.616938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.37441</v>
+        <v>0.373578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.41768</v>
+        <v>0.41587</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6294729999999999</v>
+        <v>0.6237549999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.378786</v>
+        <v>0.378271</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422555</v>
+        <v>0.420696</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.640446</v>
+        <v>0.63788</v>
       </c>
       <c r="C18" t="n">
-        <v>0.382271</v>
+        <v>0.380939</v>
       </c>
       <c r="D18" t="n">
-        <v>0.426734</v>
+        <v>0.425281</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.653609</v>
+        <v>0.651558</v>
       </c>
       <c r="C19" t="n">
-        <v>0.383398</v>
+        <v>0.383704</v>
       </c>
       <c r="D19" t="n">
-        <v>0.433746</v>
+        <v>0.431775</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.666558</v>
+        <v>0.661663</v>
       </c>
       <c r="C20" t="n">
-        <v>0.395259</v>
+        <v>0.394097</v>
       </c>
       <c r="D20" t="n">
-        <v>0.441571</v>
+        <v>0.436346</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.677999</v>
+        <v>0.6737109999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.395019</v>
+        <v>0.395021</v>
       </c>
       <c r="D21" t="n">
-        <v>0.447367</v>
+        <v>0.446019</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.680396</v>
+        <v>0.679691</v>
       </c>
       <c r="C22" t="n">
-        <v>0.401052</v>
+        <v>0.400115</v>
       </c>
       <c r="D22" t="n">
-        <v>0.45216</v>
+        <v>0.452333</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.689221</v>
+        <v>0.688172</v>
       </c>
       <c r="C23" t="n">
-        <v>0.401362</v>
+        <v>0.401488</v>
       </c>
       <c r="D23" t="n">
-        <v>0.455997</v>
+        <v>0.456623</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.693502</v>
+        <v>0.692119</v>
       </c>
       <c r="C24" t="n">
-        <v>0.407789</v>
+        <v>0.407016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462309</v>
+        <v>0.461652</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.702082</v>
+        <v>0.701929</v>
       </c>
       <c r="C25" t="n">
-        <v>0.415734</v>
+        <v>0.415212</v>
       </c>
       <c r="D25" t="n">
-        <v>0.466457</v>
+        <v>0.46695</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.706548</v>
+        <v>0.707469</v>
       </c>
       <c r="C26" t="n">
-        <v>0.412237</v>
+        <v>0.412064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.469271</v>
+        <v>0.468624</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.717938</v>
+        <v>0.716913</v>
       </c>
       <c r="C27" t="n">
-        <v>0.421044</v>
+        <v>0.420926</v>
       </c>
       <c r="D27" t="n">
-        <v>0.473748</v>
+        <v>0.473596</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.722593</v>
+        <v>0.7207249999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.426261</v>
+        <v>0.425887</v>
       </c>
       <c r="D28" t="n">
-        <v>0.478678</v>
+        <v>0.477726</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.733855</v>
+        <v>0.733178</v>
       </c>
       <c r="C29" t="n">
-        <v>0.430946</v>
+        <v>0.431345</v>
       </c>
       <c r="D29" t="n">
-        <v>0.482291</v>
+        <v>0.482829</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7385429999999999</v>
+        <v>0.736865</v>
       </c>
       <c r="C30" t="n">
-        <v>0.432753</v>
+        <v>0.433367</v>
       </c>
       <c r="D30" t="n">
-        <v>0.486384</v>
+        <v>0.485559</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.745705</v>
+        <v>0.745575</v>
       </c>
       <c r="C31" t="n">
-        <v>0.435617</v>
+        <v>0.435402</v>
       </c>
       <c r="D31" t="n">
-        <v>0.490984</v>
+        <v>0.49066</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.736982</v>
+        <v>0.73829</v>
       </c>
       <c r="C32" t="n">
-        <v>0.439663</v>
+        <v>0.439587</v>
       </c>
       <c r="D32" t="n">
-        <v>0.491757</v>
+        <v>0.492939</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.74509</v>
+        <v>0.744799</v>
       </c>
       <c r="C33" t="n">
-        <v>0.44259</v>
+        <v>0.443699</v>
       </c>
       <c r="D33" t="n">
-        <v>0.497772</v>
+        <v>0.496778</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.754243</v>
+        <v>0.754567</v>
       </c>
       <c r="C34" t="n">
-        <v>0.451417</v>
+        <v>0.45077</v>
       </c>
       <c r="D34" t="n">
-        <v>0.499953</v>
+        <v>0.499113</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.755749</v>
+        <v>0.75617</v>
       </c>
       <c r="C35" t="n">
-        <v>0.424838</v>
+        <v>0.425039</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501835</v>
+        <v>0.501995</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.763828</v>
+        <v>0.763946</v>
       </c>
       <c r="C36" t="n">
-        <v>0.430287</v>
+        <v>0.430433</v>
       </c>
       <c r="D36" t="n">
-        <v>0.507506</v>
+        <v>0.507795</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.771234</v>
+        <v>0.769877</v>
       </c>
       <c r="C37" t="n">
-        <v>0.431292</v>
+        <v>0.433805</v>
       </c>
       <c r="D37" t="n">
-        <v>0.509359</v>
+        <v>0.5088510000000001</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.775142</v>
+        <v>0.773625</v>
       </c>
       <c r="C38" t="n">
-        <v>0.433742</v>
+        <v>0.43444</v>
       </c>
       <c r="D38" t="n">
-        <v>0.51184</v>
+        <v>0.512779</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.777547</v>
+        <v>0.778977</v>
       </c>
       <c r="C39" t="n">
-        <v>0.436833</v>
+        <v>0.438442</v>
       </c>
       <c r="D39" t="n">
-        <v>0.516232</v>
+        <v>0.516416</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7866379999999999</v>
+        <v>0.785825</v>
       </c>
       <c r="C40" t="n">
-        <v>0.442048</v>
+        <v>0.442748</v>
       </c>
       <c r="D40" t="n">
-        <v>0.516856</v>
+        <v>0.518005</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.793275</v>
+        <v>0.792246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.444371</v>
+        <v>0.445291</v>
       </c>
       <c r="D41" t="n">
-        <v>0.518216</v>
+        <v>0.519602</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.797992</v>
+        <v>0.798341</v>
       </c>
       <c r="C42" t="n">
-        <v>0.445188</v>
+        <v>0.445442</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523002</v>
+        <v>0.523214</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.803166</v>
+        <v>0.802615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.444561</v>
+        <v>0.447078</v>
       </c>
       <c r="D43" t="n">
-        <v>0.525211</v>
+        <v>0.525918</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.803477</v>
+        <v>0.802581</v>
       </c>
       <c r="C44" t="n">
-        <v>0.450505</v>
+        <v>0.449698</v>
       </c>
       <c r="D44" t="n">
-        <v>0.526572</v>
+        <v>0.526589</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.810073</v>
+        <v>0.809995</v>
       </c>
       <c r="C45" t="n">
-        <v>0.452557</v>
+        <v>0.452893</v>
       </c>
       <c r="D45" t="n">
-        <v>0.529065</v>
+        <v>0.528667</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.814016</v>
+        <v>0.813043</v>
       </c>
       <c r="C46" t="n">
-        <v>0.453644</v>
+        <v>0.452999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531012</v>
+        <v>0.532748</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.788054</v>
+        <v>0.792175</v>
       </c>
       <c r="C47" t="n">
-        <v>0.454019</v>
+        <v>0.454696</v>
       </c>
       <c r="D47" t="n">
-        <v>0.525454</v>
+        <v>0.533704</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.798444</v>
+        <v>0.798224</v>
       </c>
       <c r="C48" t="n">
-        <v>0.459822</v>
+        <v>0.461025</v>
       </c>
       <c r="D48" t="n">
-        <v>0.535048</v>
+        <v>0.53527</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.800264</v>
+        <v>0.799397</v>
       </c>
       <c r="C49" t="n">
-        <v>0.463434</v>
+        <v>0.46441</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536263</v>
+        <v>0.536462</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.804333</v>
+        <v>0.80433</v>
       </c>
       <c r="C50" t="n">
-        <v>0.452511</v>
+        <v>0.453867</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537038</v>
+        <v>0.537157</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8068689999999999</v>
+        <v>0.806958</v>
       </c>
       <c r="C51" t="n">
-        <v>0.449988</v>
+        <v>0.451578</v>
       </c>
       <c r="D51" t="n">
-        <v>0.532362</v>
+        <v>0.539873</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.809615</v>
+        <v>0.808862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.45573</v>
+        <v>0.456641</v>
       </c>
       <c r="D52" t="n">
-        <v>0.54018</v>
+        <v>0.541678</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.814585</v>
+        <v>0.814442</v>
       </c>
       <c r="C53" t="n">
-        <v>0.456733</v>
+        <v>0.459131</v>
       </c>
       <c r="D53" t="n">
-        <v>0.538824</v>
+        <v>0.54177</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.817729</v>
+        <v>0.8172779999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.464037</v>
+        <v>0.466237</v>
       </c>
       <c r="D54" t="n">
-        <v>0.541449</v>
+        <v>0.549585</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.821547</v>
+        <v>0.827572</v>
       </c>
       <c r="C55" t="n">
-        <v>0.462954</v>
+        <v>0.470501</v>
       </c>
       <c r="D55" t="n">
-        <v>0.547192</v>
+        <v>0.550125</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.825663</v>
+        <v>0.82948</v>
       </c>
       <c r="C56" t="n">
-        <v>0.471419</v>
+        <v>0.473267</v>
       </c>
       <c r="D56" t="n">
-        <v>0.546329</v>
+        <v>0.54761</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.821002</v>
+        <v>0.829888</v>
       </c>
       <c r="C57" t="n">
-        <v>0.471802</v>
+        <v>0.478009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.544693</v>
+        <v>0.548998</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.830362</v>
+        <v>0.829908</v>
       </c>
       <c r="C58" t="n">
-        <v>0.482737</v>
+        <v>0.482861</v>
       </c>
       <c r="D58" t="n">
-        <v>0.549052</v>
+        <v>0.549991</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.828183</v>
+        <v>0.837236</v>
       </c>
       <c r="C59" t="n">
-        <v>0.489468</v>
+        <v>0.490072</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5516760000000001</v>
+        <v>0.557053</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.840602</v>
+        <v>0.846357</v>
       </c>
       <c r="C60" t="n">
-        <v>0.49415</v>
+        <v>0.497769</v>
       </c>
       <c r="D60" t="n">
-        <v>0.555319</v>
+        <v>0.554936</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.840578</v>
+        <v>0.842899</v>
       </c>
       <c r="C61" t="n">
-        <v>0.50203</v>
+        <v>0.505569</v>
       </c>
       <c r="D61" t="n">
-        <v>0.55504</v>
+        <v>0.558024</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8517670000000001</v>
+        <v>0.853812</v>
       </c>
       <c r="C62" t="n">
-        <v>0.509042</v>
+        <v>0.510358</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5566759999999999</v>
+        <v>0.559771</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.861608</v>
+        <v>0.860402</v>
       </c>
       <c r="C63" t="n">
-        <v>0.518196</v>
+        <v>0.518966</v>
       </c>
       <c r="D63" t="n">
-        <v>0.558867</v>
+        <v>0.564026</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.874075</v>
+        <v>0.874418</v>
       </c>
       <c r="C64" t="n">
-        <v>0.566021</v>
+        <v>0.561409</v>
       </c>
       <c r="D64" t="n">
-        <v>0.599131</v>
+        <v>0.601401</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.888357</v>
+        <v>0.891548</v>
       </c>
       <c r="C65" t="n">
-        <v>0.572726</v>
+        <v>0.576837</v>
       </c>
       <c r="D65" t="n">
-        <v>0.604277</v>
+        <v>0.605013</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.908724</v>
+        <v>0.911767</v>
       </c>
       <c r="C66" t="n">
-        <v>0.59095</v>
+        <v>0.593637</v>
       </c>
       <c r="D66" t="n">
-        <v>0.609252</v>
+        <v>0.6113730000000001</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.922519</v>
+        <v>0.926783</v>
       </c>
       <c r="C67" t="n">
-        <v>0.608729</v>
+        <v>0.608158</v>
       </c>
       <c r="D67" t="n">
-        <v>0.621611</v>
+        <v>0.624209</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.943354</v>
+        <v>0.9449</v>
       </c>
       <c r="C68" t="n">
-        <v>0.63276</v>
+        <v>0.633125</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6385110000000001</v>
+        <v>0.6392370000000001</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.967156</v>
+        <v>0.967484</v>
       </c>
       <c r="C69" t="n">
-        <v>0.668414</v>
+        <v>0.6650160000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6591320000000001</v>
+        <v>0.649932</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9971950000000001</v>
+        <v>0.98292</v>
       </c>
       <c r="C70" t="n">
-        <v>0.697417</v>
+        <v>0.680518</v>
       </c>
       <c r="D70" t="n">
-        <v>0.668358</v>
+        <v>0.672022</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.01804</v>
+        <v>1.0188</v>
       </c>
       <c r="C71" t="n">
-        <v>0.727618</v>
+        <v>0.720859</v>
       </c>
       <c r="D71" t="n">
-        <v>0.692035</v>
+        <v>0.6911389999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05713</v>
+        <v>1.05105</v>
       </c>
       <c r="C72" t="n">
-        <v>0.757514</v>
+        <v>0.753053</v>
       </c>
       <c r="D72" t="n">
-        <v>0.725714</v>
+        <v>0.720394</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10184</v>
+        <v>1.09396</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7988189999999999</v>
+        <v>0.786228</v>
       </c>
       <c r="D73" t="n">
-        <v>0.736666</v>
+        <v>0.741506</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.12704</v>
+        <v>1.1352</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8286790000000001</v>
+        <v>0.824931</v>
       </c>
       <c r="D74" t="n">
-        <v>0.763938</v>
+        <v>0.771827</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17259</v>
+        <v>1.18598</v>
       </c>
       <c r="C75" t="n">
-        <v>0.858009</v>
+        <v>0.852488</v>
       </c>
       <c r="D75" t="n">
-        <v>0.809522</v>
+        <v>0.807245</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.3701</v>
+        <v>1.3551</v>
       </c>
       <c r="C76" t="n">
-        <v>0.909583</v>
+        <v>0.902052</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8491300000000001</v>
+        <v>0.834727</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.44402</v>
+        <v>1.41422</v>
       </c>
       <c r="C77" t="n">
-        <v>0.953018</v>
+        <v>0.942255</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8829090000000001</v>
+        <v>0.870398</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.50874</v>
+        <v>1.48398</v>
       </c>
       <c r="C78" t="n">
-        <v>1.1166</v>
+        <v>1.09264</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02309</v>
+        <v>1.00908</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.59174</v>
+        <v>1.57837</v>
       </c>
       <c r="C79" t="n">
-        <v>1.15759</v>
+        <v>1.13213</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07473</v>
+        <v>1.06589</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.65657</v>
+        <v>1.65719</v>
       </c>
       <c r="C80" t="n">
-        <v>1.19144</v>
+        <v>1.17394</v>
       </c>
       <c r="D80" t="n">
-        <v>1.129</v>
+        <v>1.11803</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.75164</v>
+        <v>1.7299</v>
       </c>
       <c r="C81" t="n">
-        <v>1.23199</v>
+        <v>1.21584</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19484</v>
+        <v>1.16459</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.84444</v>
+        <v>1.81209</v>
       </c>
       <c r="C82" t="n">
-        <v>1.27554</v>
+        <v>1.25464</v>
       </c>
       <c r="D82" t="n">
-        <v>1.25133</v>
+        <v>1.22005</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.94271</v>
+        <v>1.91294</v>
       </c>
       <c r="C83" t="n">
-        <v>1.31385</v>
+        <v>1.29666</v>
       </c>
       <c r="D83" t="n">
-        <v>1.30323</v>
+        <v>1.27807</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.04326</v>
+        <v>2.00606</v>
       </c>
       <c r="C84" t="n">
-        <v>1.36363</v>
+        <v>1.33869</v>
       </c>
       <c r="D84" t="n">
-        <v>1.35569</v>
+        <v>1.33719</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.12177</v>
+        <v>2.10014</v>
       </c>
       <c r="C85" t="n">
-        <v>1.40293</v>
+        <v>1.38182</v>
       </c>
       <c r="D85" t="n">
-        <v>1.41981</v>
+        <v>1.39352</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.23222</v>
+        <v>2.1984</v>
       </c>
       <c r="C86" t="n">
-        <v>1.4495</v>
+        <v>1.42921</v>
       </c>
       <c r="D86" t="n">
-        <v>1.48447</v>
+        <v>1.45222</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.32568</v>
+        <v>2.29494</v>
       </c>
       <c r="C87" t="n">
-        <v>1.49331</v>
+        <v>1.46753</v>
       </c>
       <c r="D87" t="n">
-        <v>1.5447</v>
+        <v>1.51321</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.41672</v>
+        <v>2.38877</v>
       </c>
       <c r="C88" t="n">
-        <v>1.53808</v>
+        <v>1.50641</v>
       </c>
       <c r="D88" t="n">
-        <v>1.59664</v>
+        <v>1.57525</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.52231</v>
+        <v>2.49611</v>
       </c>
       <c r="C89" t="n">
-        <v>1.58042</v>
+        <v>1.55266</v>
       </c>
       <c r="D89" t="n">
-        <v>1.65717</v>
+        <v>1.63281</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.71884</v>
+        <v>2.6806</v>
       </c>
       <c r="C90" t="n">
-        <v>1.62094</v>
+        <v>1.59709</v>
       </c>
       <c r="D90" t="n">
-        <v>1.71905</v>
+        <v>1.69079</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.80457</v>
+        <v>2.77561</v>
       </c>
       <c r="C91" t="n">
-        <v>1.66837</v>
+        <v>1.64731</v>
       </c>
       <c r="D91" t="n">
-        <v>1.76579</v>
+        <v>1.7415</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.88241</v>
+        <v>2.85069</v>
       </c>
       <c r="C92" t="n">
-        <v>1.75809</v>
+        <v>1.73144</v>
       </c>
       <c r="D92" t="n">
-        <v>1.89537</v>
+        <v>1.8645</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.96505</v>
+        <v>2.94229</v>
       </c>
       <c r="C93" t="n">
-        <v>1.78276</v>
+        <v>1.75569</v>
       </c>
       <c r="D93" t="n">
-        <v>1.95416</v>
+        <v>1.91407</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.05718</v>
+        <v>3.0134</v>
       </c>
       <c r="C94" t="n">
-        <v>1.8245</v>
+        <v>1.79347</v>
       </c>
       <c r="D94" t="n">
-        <v>1.99331</v>
+        <v>1.95919</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.13492</v>
+        <v>3.10182</v>
       </c>
       <c r="C95" t="n">
-        <v>1.8585</v>
+        <v>1.83764</v>
       </c>
       <c r="D95" t="n">
-        <v>2.04802</v>
+        <v>2.00896</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.20651</v>
+        <v>3.18579</v>
       </c>
       <c r="C96" t="n">
-        <v>1.90454</v>
+        <v>1.87216</v>
       </c>
       <c r="D96" t="n">
-        <v>2.09268</v>
+        <v>2.05728</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.29342</v>
+        <v>3.26463</v>
       </c>
       <c r="C97" t="n">
-        <v>1.93812</v>
+        <v>1.89588</v>
       </c>
       <c r="D97" t="n">
-        <v>2.14832</v>
+        <v>2.10188</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.35773</v>
+        <v>3.31748</v>
       </c>
       <c r="C98" t="n">
-        <v>1.97249</v>
+        <v>1.94462</v>
       </c>
       <c r="D98" t="n">
-        <v>2.18331</v>
+        <v>2.14426</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.44332</v>
+        <v>3.38313</v>
       </c>
       <c r="C99" t="n">
-        <v>1.99682</v>
+        <v>1.97358</v>
       </c>
       <c r="D99" t="n">
-        <v>2.22736</v>
+        <v>2.17811</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.50561</v>
+        <v>3.455</v>
       </c>
       <c r="C100" t="n">
-        <v>2.04571</v>
+        <v>1.99969</v>
       </c>
       <c r="D100" t="n">
-        <v>2.26509</v>
+        <v>2.22316</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.56682</v>
+        <v>3.52231</v>
       </c>
       <c r="C101" t="n">
-        <v>2.0721</v>
+        <v>2.04161</v>
       </c>
       <c r="D101" t="n">
-        <v>2.31476</v>
+        <v>2.24821</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.62652</v>
+        <v>3.56913</v>
       </c>
       <c r="C102" t="n">
-        <v>2.11621</v>
+        <v>2.07453</v>
       </c>
       <c r="D102" t="n">
-        <v>2.3438</v>
+        <v>2.29814</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.70041</v>
+        <v>3.64837</v>
       </c>
       <c r="C103" t="n">
-        <v>2.13942</v>
+        <v>2.10839</v>
       </c>
       <c r="D103" t="n">
-        <v>2.37231</v>
+        <v>2.33059</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.76958</v>
+        <v>3.70901</v>
       </c>
       <c r="C104" t="n">
-        <v>2.17491</v>
+        <v>2.14498</v>
       </c>
       <c r="D104" t="n">
-        <v>2.40237</v>
+        <v>2.35791</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.78324</v>
+        <v>3.73091</v>
       </c>
       <c r="C105" t="n">
-        <v>2.20429</v>
+        <v>2.16729</v>
       </c>
       <c r="D105" t="n">
-        <v>2.44903</v>
+        <v>2.39954</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.84322</v>
+        <v>3.76781</v>
       </c>
       <c r="C106" t="n">
-        <v>2.24651</v>
+        <v>2.20106</v>
       </c>
       <c r="D106" t="n">
-        <v>2.47123</v>
+        <v>2.42141</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.89491</v>
+        <v>3.82552</v>
       </c>
       <c r="C107" t="n">
-        <v>2.21306</v>
+        <v>2.18012</v>
       </c>
       <c r="D107" t="n">
-        <v>2.54883</v>
+        <v>2.49553</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.94345</v>
+        <v>3.89671</v>
       </c>
       <c r="C108" t="n">
-        <v>2.2406</v>
+        <v>2.20554</v>
       </c>
       <c r="D108" t="n">
-        <v>2.58412</v>
+        <v>2.52852</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.98566</v>
+        <v>3.92151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.26468</v>
+        <v>2.2343</v>
       </c>
       <c r="D109" t="n">
-        <v>2.60778</v>
+        <v>2.55256</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.04796</v>
+        <v>3.97182</v>
       </c>
       <c r="C110" t="n">
-        <v>2.29261</v>
+        <v>2.25837</v>
       </c>
       <c r="D110" t="n">
-        <v>2.63495</v>
+        <v>2.57992</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.08373</v>
+        <v>4.00959</v>
       </c>
       <c r="C111" t="n">
-        <v>2.32568</v>
+        <v>2.27732</v>
       </c>
       <c r="D111" t="n">
-        <v>2.66871</v>
+        <v>2.6039</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.14432</v>
+        <v>4.07293</v>
       </c>
       <c r="C112" t="n">
-        <v>2.36383</v>
+        <v>2.31071</v>
       </c>
       <c r="D112" t="n">
-        <v>2.69069</v>
+        <v>2.62894</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.18383</v>
+        <v>4.12458</v>
       </c>
       <c r="C113" t="n">
-        <v>2.38243</v>
+        <v>2.3341</v>
       </c>
       <c r="D113" t="n">
-        <v>2.72181</v>
+        <v>2.65769</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.22546</v>
+        <v>4.17449</v>
       </c>
       <c r="C114" t="n">
-        <v>2.40635</v>
+        <v>2.36647</v>
       </c>
       <c r="D114" t="n">
-        <v>2.74328</v>
+        <v>2.68244</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.25567</v>
+        <v>4.2157</v>
       </c>
       <c r="C115" t="n">
-        <v>2.4145</v>
+        <v>2.37902</v>
       </c>
       <c r="D115" t="n">
-        <v>2.76945</v>
+        <v>2.70802</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.32089</v>
+        <v>4.25536</v>
       </c>
       <c r="C116" t="n">
-        <v>2.46953</v>
+        <v>2.41677</v>
       </c>
       <c r="D116" t="n">
-        <v>2.79301</v>
+        <v>2.72944</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.36211</v>
+        <v>4.31595</v>
       </c>
       <c r="C117" t="n">
-        <v>2.47833</v>
+        <v>2.43803</v>
       </c>
       <c r="D117" t="n">
-        <v>2.8161</v>
+        <v>2.74925</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.42052</v>
+        <v>4.35787</v>
       </c>
       <c r="C118" t="n">
-        <v>2.51413</v>
+        <v>2.46497</v>
       </c>
       <c r="D118" t="n">
-        <v>2.84417</v>
+        <v>2.77874</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.36625</v>
+        <v>4.30084</v>
       </c>
       <c r="C119" t="n">
-        <v>2.53671</v>
+        <v>2.50521</v>
       </c>
       <c r="D119" t="n">
-        <v>2.85926</v>
+        <v>2.78946</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.522583</v>
+        <v>0.526706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.321594</v>
+        <v>0.32267</v>
       </c>
       <c r="D2" t="n">
-        <v>0.337296</v>
+        <v>0.338075</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.530756</v>
+        <v>0.532617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.328335</v>
+        <v>0.329842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.339953</v>
+        <v>0.34082</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.534564</v>
+        <v>0.535324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.332363</v>
+        <v>0.332243</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341974</v>
+        <v>0.341677</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.545812</v>
+        <v>0.5465410000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.340552</v>
+        <v>0.340442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.347724</v>
+        <v>0.346795</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.558715</v>
+        <v>0.556596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.350172</v>
+        <v>0.349291</v>
       </c>
       <c r="D6" t="n">
-        <v>0.350917</v>
+        <v>0.350442</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.567899</v>
+        <v>0.5659189999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.35566</v>
+        <v>0.354072</v>
       </c>
       <c r="D7" t="n">
-        <v>0.357622</v>
+        <v>0.355816</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.576555</v>
+        <v>0.571095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.361682</v>
+        <v>0.359044</v>
       </c>
       <c r="D8" t="n">
-        <v>0.360822</v>
+        <v>0.357558</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5908409999999999</v>
+        <v>0.5823390000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.37222</v>
+        <v>0.368971</v>
       </c>
       <c r="D9" t="n">
-        <v>0.368047</v>
+        <v>0.363076</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.607263</v>
+        <v>0.598558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.386319</v>
+        <v>0.381807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.374208</v>
+        <v>0.369438</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.616804</v>
+        <v>0.607159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.367137</v>
+        <v>0.363784</v>
       </c>
       <c r="D11" t="n">
-        <v>0.379833</v>
+        <v>0.375033</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.602318</v>
+        <v>0.593565</v>
       </c>
       <c r="C12" t="n">
-        <v>0.370708</v>
+        <v>0.36721</v>
       </c>
       <c r="D12" t="n">
-        <v>0.385532</v>
+        <v>0.381548</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.612676</v>
+        <v>0.606205</v>
       </c>
       <c r="C13" t="n">
-        <v>0.378459</v>
+        <v>0.37502</v>
       </c>
       <c r="D13" t="n">
-        <v>0.388982</v>
+        <v>0.385471</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.624872</v>
+        <v>0.618113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.387931</v>
+        <v>0.384593</v>
       </c>
       <c r="D14" t="n">
-        <v>0.396834</v>
+        <v>0.392784</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.640348</v>
+        <v>0.632459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.397781</v>
+        <v>0.393827</v>
       </c>
       <c r="D15" t="n">
-        <v>0.402728</v>
+        <v>0.398068</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.651895</v>
+        <v>0.646863</v>
       </c>
       <c r="C16" t="n">
-        <v>0.406024</v>
+        <v>0.403517</v>
       </c>
       <c r="D16" t="n">
-        <v>0.409541</v>
+        <v>0.406711</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.663652</v>
+        <v>0.655707</v>
       </c>
       <c r="C17" t="n">
-        <v>0.414467</v>
+        <v>0.410598</v>
       </c>
       <c r="D17" t="n">
-        <v>0.414199</v>
+        <v>0.40938</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.679211</v>
+        <v>0.666947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.415414</v>
+        <v>0.412282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421746</v>
+        <v>0.418048</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.69472</v>
+        <v>0.684449</v>
       </c>
       <c r="C19" t="n">
-        <v>0.433566</v>
+        <v>0.429813</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426631</v>
+        <v>0.421943</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.707078</v>
+        <v>0.698404</v>
       </c>
       <c r="C20" t="n">
-        <v>0.441837</v>
+        <v>0.437865</v>
       </c>
       <c r="D20" t="n">
-        <v>0.434194</v>
+        <v>0.429688</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.712609</v>
+        <v>0.711197</v>
       </c>
       <c r="C21" t="n">
-        <v>0.451347</v>
+        <v>0.449556</v>
       </c>
       <c r="D21" t="n">
-        <v>0.434592</v>
+        <v>0.434429</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.724036</v>
+        <v>0.7216050000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.456969</v>
+        <v>0.455815</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442274</v>
+        <v>0.442315</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.742865</v>
+        <v>0.734955</v>
       </c>
       <c r="C23" t="n">
-        <v>0.471833</v>
+        <v>0.472279</v>
       </c>
       <c r="D23" t="n">
-        <v>0.445146</v>
+        <v>0.44608</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7559090000000001</v>
+        <v>0.749383</v>
       </c>
       <c r="C24" t="n">
-        <v>0.47818</v>
+        <v>0.476154</v>
       </c>
       <c r="D24" t="n">
-        <v>0.45168</v>
+        <v>0.451447</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.775425</v>
+        <v>0.772957</v>
       </c>
       <c r="C25" t="n">
-        <v>0.49686</v>
+        <v>0.49456</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458296</v>
+        <v>0.458211</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.794462</v>
+        <v>0.7911010000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.441057</v>
+        <v>0.438109</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4645</v>
+        <v>0.463615</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.749441</v>
+        <v>0.744742</v>
       </c>
       <c r="C27" t="n">
-        <v>0.445301</v>
+        <v>0.443094</v>
       </c>
       <c r="D27" t="n">
-        <v>0.467165</v>
+        <v>0.466147</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.760421</v>
+        <v>0.756382</v>
       </c>
       <c r="C28" t="n">
-        <v>0.454761</v>
+        <v>0.452142</v>
       </c>
       <c r="D28" t="n">
-        <v>0.473583</v>
+        <v>0.47327</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.772692</v>
+        <v>0.769577</v>
       </c>
       <c r="C29" t="n">
-        <v>0.457208</v>
+        <v>0.45285</v>
       </c>
       <c r="D29" t="n">
-        <v>0.476379</v>
+        <v>0.474717</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7825029999999999</v>
+        <v>0.780791</v>
       </c>
       <c r="C30" t="n">
-        <v>0.465211</v>
+        <v>0.46345</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482216</v>
+        <v>0.481689</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.793974</v>
+        <v>0.791485</v>
       </c>
       <c r="C31" t="n">
-        <v>0.472707</v>
+        <v>0.471604</v>
       </c>
       <c r="D31" t="n">
-        <v>0.484881</v>
+        <v>0.48507</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.805633</v>
+        <v>0.804814</v>
       </c>
       <c r="C32" t="n">
-        <v>0.480302</v>
+        <v>0.479485</v>
       </c>
       <c r="D32" t="n">
-        <v>0.486902</v>
+        <v>0.487095</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8176600000000001</v>
+        <v>0.816652</v>
       </c>
       <c r="C33" t="n">
-        <v>0.487734</v>
+        <v>0.486864</v>
       </c>
       <c r="D33" t="n">
-        <v>0.490776</v>
+        <v>0.491096</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.830425</v>
+        <v>0.829944</v>
       </c>
       <c r="C34" t="n">
-        <v>0.50057</v>
+        <v>0.499014</v>
       </c>
       <c r="D34" t="n">
-        <v>0.495049</v>
+        <v>0.495657</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.842769</v>
+        <v>0.840374</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5090479999999999</v>
+        <v>0.508714</v>
       </c>
       <c r="D35" t="n">
-        <v>0.499974</v>
+        <v>0.500516</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8557979999999999</v>
+        <v>0.854911</v>
       </c>
       <c r="C36" t="n">
-        <v>0.519421</v>
+        <v>0.517683</v>
       </c>
       <c r="D36" t="n">
-        <v>0.502963</v>
+        <v>0.503109</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.862324</v>
+        <v>0.8624849999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.530385</v>
+        <v>0.528645</v>
       </c>
       <c r="D37" t="n">
-        <v>0.505367</v>
+        <v>0.505657</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.876094</v>
+        <v>0.873387</v>
       </c>
       <c r="C38" t="n">
-        <v>0.54154</v>
+        <v>0.541031</v>
       </c>
       <c r="D38" t="n">
-        <v>0.510525</v>
+        <v>0.510442</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.894883</v>
+        <v>0.895173</v>
       </c>
       <c r="C39" t="n">
-        <v>0.548657</v>
+        <v>0.548242</v>
       </c>
       <c r="D39" t="n">
-        <v>0.511479</v>
+        <v>0.512191</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.901827</v>
+        <v>0.901477</v>
       </c>
       <c r="C40" t="n">
-        <v>0.501658</v>
+        <v>0.502349</v>
       </c>
       <c r="D40" t="n">
-        <v>0.515753</v>
+        <v>0.516755</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.85238</v>
+        <v>0.8548750000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.506235</v>
+        <v>0.506004</v>
       </c>
       <c r="D41" t="n">
-        <v>0.517663</v>
+        <v>0.518632</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.86388</v>
+        <v>0.862718</v>
       </c>
       <c r="C42" t="n">
-        <v>0.515468</v>
+        <v>0.51234</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521153</v>
+        <v>0.522189</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.870414</v>
+        <v>0.869621</v>
       </c>
       <c r="C43" t="n">
-        <v>0.519693</v>
+        <v>0.51952</v>
       </c>
       <c r="D43" t="n">
-        <v>0.524661</v>
+        <v>0.525554</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.877471</v>
+        <v>0.876266</v>
       </c>
       <c r="C44" t="n">
-        <v>0.532095</v>
+        <v>0.5296689999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.526955</v>
+        <v>0.527848</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.891024</v>
+        <v>0.891502</v>
       </c>
       <c r="C45" t="n">
-        <v>0.534745</v>
+        <v>0.534748</v>
       </c>
       <c r="D45" t="n">
-        <v>0.528416</v>
+        <v>0.529067</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8976460000000001</v>
+        <v>0.897046</v>
       </c>
       <c r="C46" t="n">
-        <v>0.545828</v>
+        <v>0.54508</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531802</v>
+        <v>0.532285</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.909662</v>
+        <v>0.908819</v>
       </c>
       <c r="C47" t="n">
-        <v>0.554629</v>
+        <v>0.553722</v>
       </c>
       <c r="D47" t="n">
-        <v>0.532967</v>
+        <v>0.533512</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.918597</v>
+        <v>0.918346</v>
       </c>
       <c r="C48" t="n">
-        <v>0.560327</v>
+        <v>0.560198</v>
       </c>
       <c r="D48" t="n">
-        <v>0.535524</v>
+        <v>0.535145</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9266489999999999</v>
+        <v>0.92564</v>
       </c>
       <c r="C49" t="n">
-        <v>0.570755</v>
+        <v>0.57057</v>
       </c>
       <c r="D49" t="n">
-        <v>0.539082</v>
+        <v>0.539367</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.940275</v>
+        <v>0.939392</v>
       </c>
       <c r="C50" t="n">
-        <v>0.577596</v>
+        <v>0.577541</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5406879999999999</v>
+        <v>0.541002</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.948215</v>
+        <v>0.948449</v>
       </c>
       <c r="C51" t="n">
-        <v>0.589816</v>
+        <v>0.589241</v>
       </c>
       <c r="D51" t="n">
-        <v>0.542355</v>
+        <v>0.542492</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.960518</v>
+        <v>0.959955</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5996010000000001</v>
+        <v>0.599391</v>
       </c>
       <c r="D52" t="n">
-        <v>0.544041</v>
+        <v>0.543959</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.969946</v>
+        <v>0.96972</v>
       </c>
       <c r="C53" t="n">
-        <v>0.610775</v>
+        <v>0.609696</v>
       </c>
       <c r="D53" t="n">
-        <v>0.546516</v>
+        <v>0.547442</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.983661</v>
+        <v>0.983653</v>
       </c>
       <c r="C54" t="n">
-        <v>0.541111</v>
+        <v>0.540376</v>
       </c>
       <c r="D54" t="n">
-        <v>0.546542</v>
+        <v>0.546659</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.996265</v>
+        <v>0.996201</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5464020000000001</v>
+        <v>0.546363</v>
       </c>
       <c r="D55" t="n">
-        <v>0.547164</v>
+        <v>0.547629</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.913995</v>
+        <v>0.91404</v>
       </c>
       <c r="C56" t="n">
-        <v>0.554922</v>
+        <v>0.55459</v>
       </c>
       <c r="D56" t="n">
-        <v>0.548543</v>
+        <v>0.548742</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.92026</v>
+        <v>0.9207959999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.561217</v>
+        <v>0.561037</v>
       </c>
       <c r="D57" t="n">
-        <v>0.550515</v>
+        <v>0.550451</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.930375</v>
+        <v>0.929801</v>
       </c>
       <c r="C58" t="n">
-        <v>0.564402</v>
+        <v>0.570171</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5526529999999999</v>
+        <v>0.552534</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.937793</v>
+        <v>0.938214</v>
       </c>
       <c r="C59" t="n">
-        <v>0.57185</v>
+        <v>0.57769</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5514019999999999</v>
+        <v>0.553511</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9439</v>
+        <v>0.942993</v>
       </c>
       <c r="C60" t="n">
-        <v>0.582367</v>
+        <v>0.589179</v>
       </c>
       <c r="D60" t="n">
-        <v>0.555283</v>
+        <v>0.554555</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.951582</v>
+        <v>0.95133</v>
       </c>
       <c r="C61" t="n">
-        <v>0.596145</v>
+        <v>0.599034</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5586989999999999</v>
+        <v>0.559009</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.959905</v>
+        <v>0.960352</v>
       </c>
       <c r="C62" t="n">
-        <v>0.605097</v>
+        <v>0.607819</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558063</v>
+        <v>0.558094</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.972521</v>
+        <v>0.972768</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6181950000000001</v>
+        <v>0.618974</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561344</v>
+        <v>0.561702</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.982194</v>
+        <v>0.981299</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6310170000000001</v>
+        <v>0.6309630000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.561246</v>
+        <v>0.561511</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.993108</v>
+        <v>0.993939</v>
       </c>
       <c r="C65" t="n">
-        <v>0.647765</v>
+        <v>0.646971</v>
       </c>
       <c r="D65" t="n">
-        <v>0.564353</v>
+        <v>0.564551</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.00599</v>
+        <v>1.00837</v>
       </c>
       <c r="C66" t="n">
-        <v>0.662802</v>
+        <v>0.661079</v>
       </c>
       <c r="D66" t="n">
-        <v>0.565675</v>
+        <v>0.567371</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01815</v>
+        <v>1.02163</v>
       </c>
       <c r="C67" t="n">
-        <v>0.683232</v>
+        <v>0.681292</v>
       </c>
       <c r="D67" t="n">
-        <v>0.568317</v>
+        <v>0.571256</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03169</v>
+        <v>1.03499</v>
       </c>
       <c r="C68" t="n">
-        <v>0.618309</v>
+        <v>0.613924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.58568</v>
+        <v>0.585678</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06636</v>
+        <v>1.06866</v>
       </c>
       <c r="C69" t="n">
-        <v>0.639334</v>
+        <v>0.635265</v>
       </c>
       <c r="D69" t="n">
-        <v>0.593618</v>
+        <v>0.5953000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.00307</v>
+        <v>1.00811</v>
       </c>
       <c r="C70" t="n">
-        <v>0.667725</v>
+        <v>0.666449</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6075430000000001</v>
+        <v>0.612142</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03392</v>
+        <v>1.03575</v>
       </c>
       <c r="C71" t="n">
-        <v>0.69803</v>
+        <v>0.69594</v>
       </c>
       <c r="D71" t="n">
-        <v>0.621624</v>
+        <v>0.625728</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0721</v>
+        <v>1.0704</v>
       </c>
       <c r="C72" t="n">
-        <v>0.733858</v>
+        <v>0.729044</v>
       </c>
       <c r="D72" t="n">
-        <v>0.641883</v>
+        <v>0.642113</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10232</v>
+        <v>1.10006</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7690709999999999</v>
+        <v>0.764615</v>
       </c>
       <c r="D73" t="n">
-        <v>0.656967</v>
+        <v>0.656851</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.13834</v>
+        <v>1.1337</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8047339999999999</v>
+        <v>0.798753</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6774019999999999</v>
+        <v>0.675184</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.18466</v>
+        <v>1.1729</v>
       </c>
       <c r="C75" t="n">
-        <v>0.850788</v>
+        <v>0.83907</v>
       </c>
       <c r="D75" t="n">
-        <v>0.70336</v>
+        <v>0.694819</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.23489</v>
+        <v>1.2189</v>
       </c>
       <c r="C76" t="n">
-        <v>0.896498</v>
+        <v>0.881008</v>
       </c>
       <c r="D76" t="n">
-        <v>0.730707</v>
+        <v>0.715792</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.29144</v>
+        <v>1.26811</v>
       </c>
       <c r="C77" t="n">
-        <v>0.948264</v>
+        <v>0.928441</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763792</v>
+        <v>0.747431</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.3541</v>
+        <v>1.33242</v>
       </c>
       <c r="C78" t="n">
-        <v>0.995695</v>
+        <v>0.977299</v>
       </c>
       <c r="D78" t="n">
-        <v>0.797603</v>
+        <v>0.781605</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.42249</v>
+        <v>1.39591</v>
       </c>
       <c r="C79" t="n">
-        <v>1.05184</v>
+        <v>1.03216</v>
       </c>
       <c r="D79" t="n">
-        <v>0.839444</v>
+        <v>0.8182739999999999</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.5043</v>
+        <v>1.4767</v>
       </c>
       <c r="C80" t="n">
-        <v>1.11286</v>
+        <v>1.09116</v>
       </c>
       <c r="D80" t="n">
-        <v>0.879875</v>
+        <v>0.863398</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.58723</v>
+        <v>1.56159</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17707</v>
+        <v>1.15617</v>
       </c>
       <c r="D81" t="n">
-        <v>0.924717</v>
+        <v>0.902313</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.67309</v>
+        <v>1.64805</v>
       </c>
       <c r="C82" t="n">
-        <v>1.23801</v>
+        <v>1.21718</v>
       </c>
       <c r="D82" t="n">
-        <v>0.973596</v>
+        <v>0.949577</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78001</v>
+        <v>1.75076</v>
       </c>
       <c r="C83" t="n">
-        <v>1.22309</v>
+        <v>1.19823</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09017</v>
+        <v>1.06226</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.89241</v>
+        <v>1.85413</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28535</v>
+        <v>1.2598</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1468</v>
+        <v>1.12628</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91328</v>
+        <v>1.89247</v>
       </c>
       <c r="C85" t="n">
-        <v>1.33854</v>
+        <v>1.31872</v>
       </c>
       <c r="D85" t="n">
-        <v>1.21302</v>
+        <v>1.1834</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01822</v>
+        <v>2.00018</v>
       </c>
       <c r="C86" t="n">
-        <v>1.40852</v>
+        <v>1.39039</v>
       </c>
       <c r="D86" t="n">
-        <v>1.26155</v>
+        <v>1.24499</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.1248</v>
+        <v>2.1201</v>
       </c>
       <c r="C87" t="n">
-        <v>1.48259</v>
+        <v>1.45339</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32448</v>
+        <v>1.30155</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.25359</v>
+        <v>2.22074</v>
       </c>
       <c r="C88" t="n">
-        <v>1.55287</v>
+        <v>1.53482</v>
       </c>
       <c r="D88" t="n">
-        <v>1.38821</v>
+        <v>1.36235</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36593</v>
+        <v>2.34061</v>
       </c>
       <c r="C89" t="n">
-        <v>1.62452</v>
+        <v>1.61435</v>
       </c>
       <c r="D89" t="n">
-        <v>1.44135</v>
+        <v>1.42018</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.47762</v>
+        <v>2.46835</v>
       </c>
       <c r="C90" t="n">
-        <v>1.70618</v>
+        <v>1.68703</v>
       </c>
       <c r="D90" t="n">
-        <v>1.50721</v>
+        <v>1.47823</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.61259</v>
+        <v>2.59743</v>
       </c>
       <c r="C91" t="n">
-        <v>1.80411</v>
+        <v>1.78033</v>
       </c>
       <c r="D91" t="n">
-        <v>1.55868</v>
+        <v>1.5485</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.74456</v>
+        <v>2.71913</v>
       </c>
       <c r="C92" t="n">
-        <v>1.8774</v>
+        <v>1.86457</v>
       </c>
       <c r="D92" t="n">
-        <v>1.61311</v>
+        <v>1.59285</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.87951</v>
+        <v>2.87096</v>
       </c>
       <c r="C93" t="n">
-        <v>1.96284</v>
+        <v>1.95165</v>
       </c>
       <c r="D93" t="n">
-        <v>1.66891</v>
+        <v>1.64836</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.01894</v>
+        <v>3.00745</v>
       </c>
       <c r="C94" t="n">
-        <v>2.05025</v>
+        <v>2.04183</v>
       </c>
       <c r="D94" t="n">
-        <v>1.72385</v>
+        <v>1.7022</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.12819</v>
+        <v>3.14864</v>
       </c>
       <c r="C95" t="n">
-        <v>2.15475</v>
+        <v>2.13127</v>
       </c>
       <c r="D95" t="n">
-        <v>1.76888</v>
+        <v>1.75012</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.30589</v>
+        <v>3.29403</v>
       </c>
       <c r="C96" t="n">
-        <v>2.26375</v>
+        <v>2.24537</v>
       </c>
       <c r="D96" t="n">
-        <v>1.81902</v>
+        <v>1.80706</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42603</v>
+        <v>3.42456</v>
       </c>
       <c r="C97" t="n">
-        <v>2.01886</v>
+        <v>1.9988</v>
       </c>
       <c r="D97" t="n">
-        <v>1.9614</v>
+        <v>1.94073</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.565</v>
+        <v>3.54718</v>
       </c>
       <c r="C98" t="n">
-        <v>2.0728</v>
+        <v>2.06652</v>
       </c>
       <c r="D98" t="n">
-        <v>2.01935</v>
+        <v>1.98308</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.47412</v>
+        <v>3.4322</v>
       </c>
       <c r="C99" t="n">
-        <v>2.14708</v>
+        <v>2.12438</v>
       </c>
       <c r="D99" t="n">
-        <v>2.0556</v>
+        <v>2.03982</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.56694</v>
+        <v>3.56557</v>
       </c>
       <c r="C100" t="n">
-        <v>2.21779</v>
+        <v>2.1992</v>
       </c>
       <c r="D100" t="n">
-        <v>2.10699</v>
+        <v>2.07029</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.68265</v>
+        <v>3.64816</v>
       </c>
       <c r="C101" t="n">
-        <v>2.26676</v>
+        <v>2.24975</v>
       </c>
       <c r="D101" t="n">
-        <v>2.13501</v>
+        <v>2.12606</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.75856</v>
+        <v>3.76164</v>
       </c>
       <c r="C102" t="n">
-        <v>2.35532</v>
+        <v>2.32866</v>
       </c>
       <c r="D102" t="n">
-        <v>2.19506</v>
+        <v>2.15102</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.88899</v>
+        <v>3.84154</v>
       </c>
       <c r="C103" t="n">
-        <v>2.42055</v>
+        <v>2.41338</v>
       </c>
       <c r="D103" t="n">
-        <v>2.21446</v>
+        <v>2.18729</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.99612</v>
+        <v>3.95317</v>
       </c>
       <c r="C104" t="n">
-        <v>2.50712</v>
+        <v>2.4915</v>
       </c>
       <c r="D104" t="n">
-        <v>2.2577</v>
+        <v>2.21801</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.10222</v>
+        <v>4.05513</v>
       </c>
       <c r="C105" t="n">
-        <v>2.58695</v>
+        <v>2.57542</v>
       </c>
       <c r="D105" t="n">
-        <v>2.30522</v>
+        <v>2.2493</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.16639</v>
+        <v>4.16309</v>
       </c>
       <c r="C106" t="n">
-        <v>2.6615</v>
+        <v>2.65616</v>
       </c>
       <c r="D106" t="n">
-        <v>2.3315</v>
+        <v>2.2847</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.29817</v>
+        <v>4.25562</v>
       </c>
       <c r="C107" t="n">
-        <v>2.7463</v>
+        <v>2.72209</v>
       </c>
       <c r="D107" t="n">
-        <v>2.35955</v>
+        <v>2.3162</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.40464</v>
+        <v>4.37727</v>
       </c>
       <c r="C108" t="n">
-        <v>2.84452</v>
+        <v>2.81909</v>
       </c>
       <c r="D108" t="n">
-        <v>2.40171</v>
+        <v>2.34938</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.49122</v>
+        <v>4.48668</v>
       </c>
       <c r="C109" t="n">
-        <v>2.93914</v>
+        <v>2.91297</v>
       </c>
       <c r="D109" t="n">
-        <v>2.42433</v>
+        <v>2.38281</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.60867</v>
+        <v>4.58297</v>
       </c>
       <c r="C110" t="n">
-        <v>3.02411</v>
+        <v>2.99685</v>
       </c>
       <c r="D110" t="n">
-        <v>2.44714</v>
+        <v>2.40489</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.72597</v>
+        <v>4.62798</v>
       </c>
       <c r="C111" t="n">
-        <v>2.64658</v>
+        <v>2.60845</v>
       </c>
       <c r="D111" t="n">
-        <v>2.56292</v>
+        <v>2.5168</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.83825</v>
+        <v>4.80574</v>
       </c>
       <c r="C112" t="n">
-        <v>2.72664</v>
+        <v>2.65802</v>
       </c>
       <c r="D112" t="n">
-        <v>2.61059</v>
+        <v>2.55215</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.9481</v>
+        <v>4.92309</v>
       </c>
       <c r="C113" t="n">
-        <v>2.76968</v>
+        <v>2.7291</v>
       </c>
       <c r="D113" t="n">
-        <v>2.63595</v>
+        <v>2.5705</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.58755</v>
+        <v>4.53579</v>
       </c>
       <c r="C114" t="n">
-        <v>2.82056</v>
+        <v>2.78191</v>
       </c>
       <c r="D114" t="n">
-        <v>2.66015</v>
+        <v>2.59563</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.62929</v>
+        <v>4.6094</v>
       </c>
       <c r="C115" t="n">
-        <v>2.87195</v>
+        <v>2.83511</v>
       </c>
       <c r="D115" t="n">
-        <v>2.67374</v>
+        <v>2.61457</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.76943</v>
+        <v>4.72626</v>
       </c>
       <c r="C116" t="n">
-        <v>2.93461</v>
+        <v>2.91381</v>
       </c>
       <c r="D116" t="n">
-        <v>2.69835</v>
+        <v>2.65536</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.83119</v>
+        <v>4.77805</v>
       </c>
       <c r="C117" t="n">
-        <v>2.99249</v>
+        <v>2.96455</v>
       </c>
       <c r="D117" t="n">
-        <v>2.72088</v>
+        <v>2.66535</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.87247</v>
+        <v>4.84651</v>
       </c>
       <c r="C118" t="n">
-        <v>3.07318</v>
+        <v>3.04794</v>
       </c>
       <c r="D118" t="n">
-        <v>2.73534</v>
+        <v>2.67726</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.00528</v>
+        <v>4.96418</v>
       </c>
       <c r="C119" t="n">
-        <v>3.15707</v>
+        <v>3.10927</v>
       </c>
       <c r="D119" t="n">
-        <v>2.7702</v>
+        <v>2.70845</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.321531</v>
+        <v>0.330333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.180778</v>
+        <v>0.194395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23158</v>
+        <v>0.256653</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.297329</v>
+        <v>0.311417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.184386</v>
+        <v>0.197342</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243242</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.301394</v>
+        <v>0.316847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187086</v>
+        <v>0.201061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.240102</v>
+        <v>0.268986</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.304449</v>
+        <v>0.321222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.191545</v>
+        <v>0.203061</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250815</v>
+        <v>0.27087</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.312616</v>
+        <v>0.324525</v>
       </c>
       <c r="C6" t="n">
-        <v>0.194223</v>
+        <v>0.205832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.257374</v>
+        <v>0.283162</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3202</v>
+        <v>0.332187</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179799</v>
+        <v>0.189888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26957</v>
+        <v>0.286257</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.324991</v>
+        <v>0.336563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181609</v>
+        <v>0.192206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276786</v>
+        <v>0.291697</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.335439</v>
+        <v>0.341504</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184518</v>
+        <v>0.193231</v>
       </c>
       <c r="D9" t="n">
-        <v>0.281977</v>
+        <v>0.299608</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.341254</v>
+        <v>0.348719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.186408</v>
+        <v>0.194879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.288422</v>
+        <v>0.305009</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.34841</v>
+        <v>0.356191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.188131</v>
+        <v>0.197122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.29336</v>
+        <v>0.309507</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.356504</v>
+        <v>0.361978</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190138</v>
+        <v>0.198417</v>
       </c>
       <c r="D12" t="n">
-        <v>0.298695</v>
+        <v>0.313529</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.36228</v>
+        <v>0.364469</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193477</v>
+        <v>0.20215</v>
       </c>
       <c r="D13" t="n">
-        <v>0.306382</v>
+        <v>0.326275</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.370084</v>
+        <v>0.377936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195788</v>
+        <v>0.203725</v>
       </c>
       <c r="D14" t="n">
-        <v>0.309197</v>
+        <v>0.325191</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.377264</v>
+        <v>0.382367</v>
       </c>
       <c r="C15" t="n">
-        <v>0.199479</v>
+        <v>0.207197</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317614</v>
+        <v>0.333749</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.386081</v>
+        <v>0.38812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.202711</v>
+        <v>0.20935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.322968</v>
+        <v>0.338506</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.392045</v>
+        <v>0.395456</v>
       </c>
       <c r="C17" t="n">
-        <v>0.204019</v>
+        <v>0.212011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.329653</v>
+        <v>0.346179</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.379356</v>
+        <v>0.379788</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207648</v>
+        <v>0.21464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333819</v>
+        <v>0.349049</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383783</v>
+        <v>0.384648</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210082</v>
+        <v>0.218283</v>
       </c>
       <c r="D19" t="n">
-        <v>0.340862</v>
+        <v>0.355928</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.390297</v>
+        <v>0.390789</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212812</v>
+        <v>0.220534</v>
       </c>
       <c r="D20" t="n">
-        <v>0.34671</v>
+        <v>0.361127</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.395515</v>
+        <v>0.397291</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191952</v>
+        <v>0.199834</v>
       </c>
       <c r="D21" t="n">
-        <v>0.353844</v>
+        <v>0.368191</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.399894</v>
+        <v>0.400452</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193596</v>
+        <v>0.202085</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358249</v>
+        <v>0.373138</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406732</v>
+        <v>0.406246</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195586</v>
+        <v>0.204061</v>
       </c>
       <c r="D23" t="n">
-        <v>0.363304</v>
+        <v>0.376653</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.412669</v>
+        <v>0.411698</v>
       </c>
       <c r="C24" t="n">
-        <v>0.197474</v>
+        <v>0.206747</v>
       </c>
       <c r="D24" t="n">
-        <v>0.366688</v>
+        <v>0.380774</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.417386</v>
+        <v>0.416557</v>
       </c>
       <c r="C25" t="n">
-        <v>0.199134</v>
+        <v>0.207998</v>
       </c>
       <c r="D25" t="n">
-        <v>0.370602</v>
+        <v>0.385094</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.424046</v>
+        <v>0.422888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201346</v>
+        <v>0.210579</v>
       </c>
       <c r="D26" t="n">
-        <v>0.373899</v>
+        <v>0.388902</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.430743</v>
+        <v>0.428763</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204324</v>
+        <v>0.213139</v>
       </c>
       <c r="D27" t="n">
-        <v>0.377378</v>
+        <v>0.393159</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.436484</v>
+        <v>0.434511</v>
       </c>
       <c r="C28" t="n">
-        <v>0.206665</v>
+        <v>0.215322</v>
       </c>
       <c r="D28" t="n">
-        <v>0.38154</v>
+        <v>0.397424</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4434</v>
+        <v>0.439829</v>
       </c>
       <c r="C29" t="n">
-        <v>0.211018</v>
+        <v>0.218123</v>
       </c>
       <c r="D29" t="n">
-        <v>0.385686</v>
+        <v>0.400844</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.448276</v>
+        <v>0.445641</v>
       </c>
       <c r="C30" t="n">
-        <v>0.213563</v>
+        <v>0.219867</v>
       </c>
       <c r="D30" t="n">
-        <v>0.389206</v>
+        <v>0.403502</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454493</v>
+        <v>0.451302</v>
       </c>
       <c r="C31" t="n">
-        <v>0.215898</v>
+        <v>0.222605</v>
       </c>
       <c r="D31" t="n">
-        <v>0.392365</v>
+        <v>0.407875</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.426548</v>
+        <v>0.424498</v>
       </c>
       <c r="C32" t="n">
-        <v>0.218294</v>
+        <v>0.225345</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395733</v>
+        <v>0.410672</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.429822</v>
+        <v>0.427507</v>
       </c>
       <c r="C33" t="n">
-        <v>0.221833</v>
+        <v>0.227519</v>
       </c>
       <c r="D33" t="n">
-        <v>0.39966</v>
+        <v>0.414375</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.43427</v>
+        <v>0.434039</v>
       </c>
       <c r="C34" t="n">
-        <v>0.224609</v>
+        <v>0.230297</v>
       </c>
       <c r="D34" t="n">
-        <v>0.402846</v>
+        <v>0.416805</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.439331</v>
+        <v>0.437459</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199359</v>
+        <v>0.206434</v>
       </c>
       <c r="D35" t="n">
-        <v>0.402596</v>
+        <v>0.418094</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441906</v>
+        <v>0.441268</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200477</v>
+        <v>0.207722</v>
       </c>
       <c r="D36" t="n">
-        <v>0.404458</v>
+        <v>0.419349</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.44577</v>
+        <v>0.444543</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201292</v>
+        <v>0.20949</v>
       </c>
       <c r="D37" t="n">
-        <v>0.406358</v>
+        <v>0.421657</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.450305</v>
+        <v>0.448943</v>
       </c>
       <c r="C38" t="n">
-        <v>0.203319</v>
+        <v>0.211404</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408666</v>
+        <v>0.425821</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454833</v>
+        <v>0.452849</v>
       </c>
       <c r="C39" t="n">
-        <v>0.205229</v>
+        <v>0.213414</v>
       </c>
       <c r="D39" t="n">
-        <v>0.410596</v>
+        <v>0.426688</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458778</v>
+        <v>0.45794</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207322</v>
+        <v>0.215537</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412448</v>
+        <v>0.429299</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463154</v>
+        <v>0.461711</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209231</v>
+        <v>0.217671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.41482</v>
+        <v>0.431657</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.467963</v>
+        <v>0.466631</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211024</v>
+        <v>0.21955</v>
       </c>
       <c r="D42" t="n">
-        <v>0.417169</v>
+        <v>0.433669</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.472832</v>
+        <v>0.47109</v>
       </c>
       <c r="C43" t="n">
-        <v>0.214322</v>
+        <v>0.221433</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419505</v>
+        <v>0.436298</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.477162</v>
+        <v>0.47559</v>
       </c>
       <c r="C44" t="n">
-        <v>0.217477</v>
+        <v>0.224212</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421744</v>
+        <v>0.435424</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.482872</v>
+        <v>0.474577</v>
       </c>
       <c r="C45" t="n">
-        <v>0.220524</v>
+        <v>0.226441</v>
       </c>
       <c r="D45" t="n">
-        <v>0.423861</v>
+        <v>0.43755</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.487683</v>
+        <v>0.479755</v>
       </c>
       <c r="C46" t="n">
-        <v>0.223205</v>
+        <v>0.229127</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426195</v>
+        <v>0.439629</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451208</v>
+        <v>0.446706</v>
       </c>
       <c r="C47" t="n">
-        <v>0.226061</v>
+        <v>0.231668</v>
       </c>
       <c r="D47" t="n">
-        <v>0.428835</v>
+        <v>0.441766</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.454588</v>
+        <v>0.450016</v>
       </c>
       <c r="C48" t="n">
-        <v>0.228194</v>
+        <v>0.234209</v>
       </c>
       <c r="D48" t="n">
-        <v>0.430967</v>
+        <v>0.443768</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.458067</v>
+        <v>0.452843</v>
       </c>
       <c r="C49" t="n">
-        <v>0.232016</v>
+        <v>0.237774</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432964</v>
+        <v>0.446189</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461388</v>
+        <v>0.455886</v>
       </c>
       <c r="C50" t="n">
-        <v>0.20325</v>
+        <v>0.211921</v>
       </c>
       <c r="D50" t="n">
-        <v>0.428498</v>
+        <v>0.442911</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465089</v>
+        <v>0.458528</v>
       </c>
       <c r="C51" t="n">
-        <v>0.207356</v>
+        <v>0.214837</v>
       </c>
       <c r="D51" t="n">
-        <v>0.429919</v>
+        <v>0.443947</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468847</v>
+        <v>0.462243</v>
       </c>
       <c r="C52" t="n">
-        <v>0.207535</v>
+        <v>0.214577</v>
       </c>
       <c r="D52" t="n">
-        <v>0.430671</v>
+        <v>0.444646</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472135</v>
+        <v>0.465902</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2099</v>
+        <v>0.218488</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431996</v>
+        <v>0.445861</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.476273</v>
+        <v>0.469577</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215538</v>
+        <v>0.218936</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433279</v>
+        <v>0.447557</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479614</v>
+        <v>0.473222</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216985</v>
+        <v>0.222635</v>
       </c>
       <c r="D55" t="n">
-        <v>0.434784</v>
+        <v>0.448598</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484268</v>
+        <v>0.476928</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2214</v>
+        <v>0.231453</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436264</v>
+        <v>0.450569</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.487952</v>
+        <v>0.480647</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224698</v>
+        <v>0.232622</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437842</v>
+        <v>0.451817</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.492598</v>
+        <v>0.485003</v>
       </c>
       <c r="C58" t="n">
-        <v>0.226909</v>
+        <v>0.237868</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439403</v>
+        <v>0.454521</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.497238</v>
+        <v>0.49016</v>
       </c>
       <c r="C59" t="n">
-        <v>0.233323</v>
+        <v>0.241955</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441266</v>
+        <v>0.457153</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502373</v>
+        <v>0.496571</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24113</v>
+        <v>0.248959</v>
       </c>
       <c r="D60" t="n">
-        <v>0.448576</v>
+        <v>0.456834</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.487013</v>
+        <v>0.483878</v>
       </c>
       <c r="C61" t="n">
-        <v>0.250135</v>
+        <v>0.256089</v>
       </c>
       <c r="D61" t="n">
-        <v>0.450952</v>
+        <v>0.459425</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.49627</v>
+        <v>0.4951</v>
       </c>
       <c r="C62" t="n">
-        <v>0.256541</v>
+        <v>0.263961</v>
       </c>
       <c r="D62" t="n">
-        <v>0.453028</v>
+        <v>0.4612</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.505266</v>
+        <v>0.502312</v>
       </c>
       <c r="C63" t="n">
-        <v>0.260367</v>
+        <v>0.272476</v>
       </c>
       <c r="D63" t="n">
-        <v>0.451361</v>
+        <v>0.46496</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.516141</v>
+        <v>0.51255</v>
       </c>
       <c r="C64" t="n">
-        <v>0.299247</v>
+        <v>0.316409</v>
       </c>
       <c r="D64" t="n">
-        <v>0.483943</v>
+        <v>0.508585</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.527083</v>
+        <v>0.532133</v>
       </c>
       <c r="C65" t="n">
-        <v>0.314008</v>
+        <v>0.336167</v>
       </c>
       <c r="D65" t="n">
-        <v>0.493514</v>
+        <v>0.520088</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.544369</v>
+        <v>0.545133</v>
       </c>
       <c r="C66" t="n">
-        <v>0.329733</v>
+        <v>0.361366</v>
       </c>
       <c r="D66" t="n">
-        <v>0.503014</v>
+        <v>0.526444</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.548573</v>
+        <v>0.563937</v>
       </c>
       <c r="C67" t="n">
-        <v>0.357233</v>
+        <v>0.38154</v>
       </c>
       <c r="D67" t="n">
-        <v>0.516</v>
+        <v>0.55469</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.568155</v>
+        <v>0.585421</v>
       </c>
       <c r="C68" t="n">
-        <v>0.369321</v>
+        <v>0.406099</v>
       </c>
       <c r="D68" t="n">
-        <v>0.534925</v>
+        <v>0.5643629999999999</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.592898</v>
+        <v>0.59888</v>
       </c>
       <c r="C69" t="n">
-        <v>0.38914</v>
+        <v>0.41555</v>
       </c>
       <c r="D69" t="n">
-        <v>0.561741</v>
+        <v>0.587781</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.623889</v>
+        <v>0.62813</v>
       </c>
       <c r="C70" t="n">
-        <v>0.410945</v>
+        <v>0.437179</v>
       </c>
       <c r="D70" t="n">
-        <v>0.577924</v>
+        <v>0.58626</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.630537</v>
+        <v>0.657565</v>
       </c>
       <c r="C71" t="n">
-        <v>0.422455</v>
+        <v>0.462335</v>
       </c>
       <c r="D71" t="n">
-        <v>0.589429</v>
+        <v>0.639753</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.663138</v>
+        <v>0.688982</v>
       </c>
       <c r="C72" t="n">
-        <v>0.443937</v>
+        <v>0.485058</v>
       </c>
       <c r="D72" t="n">
-        <v>0.61973</v>
+        <v>0.6371790000000001</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.696651</v>
+        <v>0.6899420000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.463909</v>
+        <v>0.5033</v>
       </c>
       <c r="D73" t="n">
-        <v>0.627505</v>
+        <v>0.695858</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.706534</v>
+        <v>0.74918</v>
       </c>
       <c r="C74" t="n">
-        <v>0.48473</v>
+        <v>0.529905</v>
       </c>
       <c r="D74" t="n">
-        <v>0.679298</v>
+        <v>0.723318</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.747862</v>
+        <v>0.784934</v>
       </c>
       <c r="C75" t="n">
-        <v>0.499866</v>
+        <v>0.548506</v>
       </c>
       <c r="D75" t="n">
-        <v>0.707991</v>
+        <v>0.747926</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.972296</v>
+        <v>1.03845</v>
       </c>
       <c r="C76" t="n">
-        <v>0.521312</v>
+        <v>0.571226</v>
       </c>
       <c r="D76" t="n">
-        <v>0.742507</v>
+        <v>0.788776</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.01722</v>
+        <v>1.08084</v>
       </c>
       <c r="C77" t="n">
-        <v>0.538304</v>
+        <v>0.596175</v>
       </c>
       <c r="D77" t="n">
-        <v>0.780026</v>
+        <v>0.831671</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06404</v>
+        <v>1.13733</v>
       </c>
       <c r="C78" t="n">
-        <v>0.628661</v>
+        <v>0.702702</v>
       </c>
       <c r="D78" t="n">
-        <v>1.03471</v>
+        <v>1.14943</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.11353</v>
+        <v>1.20389</v>
       </c>
       <c r="C79" t="n">
-        <v>0.640577</v>
+        <v>0.7195240000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>1.08199</v>
+        <v>1.21718</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15443</v>
+        <v>1.2465</v>
       </c>
       <c r="C80" t="n">
-        <v>0.652162</v>
+        <v>0.7333</v>
       </c>
       <c r="D80" t="n">
-        <v>1.13094</v>
+        <v>1.25561</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.20675</v>
+        <v>1.30208</v>
       </c>
       <c r="C81" t="n">
-        <v>0.666739</v>
+        <v>0.747774</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17627</v>
+        <v>1.32085</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26421</v>
+        <v>1.37005</v>
       </c>
       <c r="C82" t="n">
-        <v>0.679783</v>
+        <v>0.761621</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22292</v>
+        <v>1.37376</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30578</v>
+        <v>1.4288</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6893629999999999</v>
+        <v>0.774451</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27192</v>
+        <v>1.43274</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.35749</v>
+        <v>1.48716</v>
       </c>
       <c r="C84" t="n">
-        <v>0.701139</v>
+        <v>0.787292</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32536</v>
+        <v>1.48761</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.4118</v>
+        <v>1.54608</v>
       </c>
       <c r="C85" t="n">
-        <v>0.713748</v>
+        <v>0.8006</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37588</v>
+        <v>1.53577</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46485</v>
+        <v>1.60251</v>
       </c>
       <c r="C86" t="n">
-        <v>0.726224</v>
+        <v>0.814854</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42153</v>
+        <v>1.59911</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.51229</v>
+        <v>1.65907</v>
       </c>
       <c r="C87" t="n">
-        <v>0.738039</v>
+        <v>0.828001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47175</v>
+        <v>1.64982</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.5657</v>
+        <v>1.71233</v>
       </c>
       <c r="C88" t="n">
-        <v>0.751148</v>
+        <v>0.841298</v>
       </c>
       <c r="D88" t="n">
-        <v>1.51639</v>
+        <v>1.70573</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.61515</v>
+        <v>1.76989</v>
       </c>
       <c r="C89" t="n">
-        <v>0.762558</v>
+        <v>0.854556</v>
       </c>
       <c r="D89" t="n">
-        <v>1.56447</v>
+        <v>1.75874</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.83802</v>
+        <v>2.02882</v>
       </c>
       <c r="C90" t="n">
-        <v>0.776537</v>
+        <v>0.870961</v>
       </c>
       <c r="D90" t="n">
-        <v>1.60587</v>
+        <v>1.80469</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.8726</v>
+        <v>2.07239</v>
       </c>
       <c r="C91" t="n">
-        <v>0.790733</v>
+        <v>0.885204</v>
       </c>
       <c r="D91" t="n">
-        <v>1.64234</v>
+        <v>1.85929</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.9086</v>
+        <v>2.10958</v>
       </c>
       <c r="C92" t="n">
-        <v>0.793914</v>
+        <v>0.893597</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85732</v>
+        <v>2.10285</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.94157</v>
+        <v>2.14209</v>
       </c>
       <c r="C93" t="n">
-        <v>0.799079</v>
+        <v>0.901004</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89094</v>
+        <v>2.14159</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.97178</v>
+        <v>2.18303</v>
       </c>
       <c r="C94" t="n">
-        <v>0.809226</v>
+        <v>0.912432</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91984</v>
+        <v>2.18217</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.0041</v>
+        <v>2.21349</v>
       </c>
       <c r="C95" t="n">
-        <v>0.816931</v>
+        <v>0.920825</v>
       </c>
       <c r="D95" t="n">
-        <v>1.94954</v>
+        <v>2.20554</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.03801</v>
+        <v>2.25495</v>
       </c>
       <c r="C96" t="n">
-        <v>0.82524</v>
+        <v>0.928037</v>
       </c>
       <c r="D96" t="n">
-        <v>1.97512</v>
+        <v>2.24571</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.07155</v>
+        <v>2.29139</v>
       </c>
       <c r="C97" t="n">
-        <v>0.835865</v>
+        <v>0.936663</v>
       </c>
       <c r="D97" t="n">
-        <v>2.0023</v>
+        <v>2.2815</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.0993</v>
+        <v>2.32669</v>
       </c>
       <c r="C98" t="n">
-        <v>0.841351</v>
+        <v>0.944138</v>
       </c>
       <c r="D98" t="n">
-        <v>2.02035</v>
+        <v>2.31263</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12959</v>
+        <v>2.36588</v>
       </c>
       <c r="C99" t="n">
-        <v>0.851398</v>
+        <v>0.9563120000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>2.05591</v>
+        <v>2.34692</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.15554</v>
+        <v>2.40011</v>
       </c>
       <c r="C100" t="n">
-        <v>0.861733</v>
+        <v>0.966452</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07342</v>
+        <v>2.37229</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.18375</v>
+        <v>2.43076</v>
       </c>
       <c r="C101" t="n">
-        <v>0.873962</v>
+        <v>0.977312</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10562</v>
+        <v>2.40122</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.21231</v>
+        <v>2.45958</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8818859999999999</v>
+        <v>0.986605</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11051</v>
+        <v>2.43297</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.23933</v>
+        <v>2.49907</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8917119999999999</v>
+        <v>1.00244</v>
       </c>
       <c r="D103" t="n">
-        <v>2.15036</v>
+        <v>2.46155</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.27075</v>
+        <v>2.5334</v>
       </c>
       <c r="C104" t="n">
-        <v>0.903871</v>
+        <v>1.01251</v>
       </c>
       <c r="D104" t="n">
-        <v>2.16911</v>
+        <v>2.47692</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.35227</v>
+        <v>2.6222</v>
       </c>
       <c r="C105" t="n">
-        <v>0.913678</v>
+        <v>1.02644</v>
       </c>
       <c r="D105" t="n">
-        <v>2.18868</v>
+        <v>2.50939</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.37401</v>
+        <v>2.64681</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9291239999999999</v>
+        <v>1.03664</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20849</v>
+        <v>2.53548</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.39394</v>
+        <v>2.67245</v>
       </c>
       <c r="C107" t="n">
-        <v>0.877408</v>
+        <v>0.983912</v>
       </c>
       <c r="D107" t="n">
-        <v>2.32473</v>
+        <v>2.6753</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.41198</v>
+        <v>2.69587</v>
       </c>
       <c r="C108" t="n">
-        <v>0.883209</v>
+        <v>0.990964</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33076</v>
+        <v>2.6788</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.43218</v>
+        <v>2.71402</v>
       </c>
       <c r="C109" t="n">
-        <v>0.892802</v>
+        <v>0.998615</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34872</v>
+        <v>2.69779</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.45497</v>
+        <v>2.73552</v>
       </c>
       <c r="C110" t="n">
-        <v>0.899469</v>
+        <v>1.00947</v>
       </c>
       <c r="D110" t="n">
-        <v>2.36338</v>
+        <v>2.69419</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.47667</v>
+        <v>2.75591</v>
       </c>
       <c r="C111" t="n">
-        <v>0.907289</v>
+        <v>1.01972</v>
       </c>
       <c r="D111" t="n">
-        <v>2.38563</v>
+        <v>2.73589</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.49121</v>
+        <v>2.78355</v>
       </c>
       <c r="C112" t="n">
-        <v>0.917809</v>
+        <v>1.02859</v>
       </c>
       <c r="D112" t="n">
-        <v>2.39937</v>
+        <v>2.74736</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.51181</v>
+        <v>2.79708</v>
       </c>
       <c r="C113" t="n">
-        <v>0.928575</v>
+        <v>1.03339</v>
       </c>
       <c r="D113" t="n">
-        <v>2.40916</v>
+        <v>2.75922</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.53005</v>
+        <v>2.82875</v>
       </c>
       <c r="C114" t="n">
-        <v>0.930874</v>
+        <v>1.04943</v>
       </c>
       <c r="D114" t="n">
-        <v>2.41385</v>
+        <v>2.77682</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.55344</v>
+        <v>2.84402</v>
       </c>
       <c r="C115" t="n">
-        <v>0.944238</v>
+        <v>1.05934</v>
       </c>
       <c r="D115" t="n">
-        <v>2.43698</v>
+        <v>2.78324</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.57129</v>
+        <v>2.86087</v>
       </c>
       <c r="C116" t="n">
-        <v>0.954657</v>
+        <v>1.06478</v>
       </c>
       <c r="D116" t="n">
-        <v>2.44706</v>
+        <v>2.80238</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.59146</v>
+        <v>2.88646</v>
       </c>
       <c r="C117" t="n">
-        <v>0.963493</v>
+        <v>1.07745</v>
       </c>
       <c r="D117" t="n">
-        <v>2.46338</v>
+        <v>2.81336</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.6106</v>
+        <v>2.90932</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9762459999999999</v>
+        <v>1.08968</v>
       </c>
       <c r="D118" t="n">
-        <v>2.47649</v>
+        <v>2.82898</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.62935</v>
+        <v>2.93145</v>
       </c>
       <c r="C119" t="n">
-        <v>0.986498</v>
+        <v>1.10151</v>
       </c>
       <c r="D119" t="n">
-        <v>2.4847</v>
+        <v>2.83734</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.495433</v>
+        <v>0.511121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.306697</v>
+        <v>0.329139</v>
       </c>
       <c r="D2" t="n">
-        <v>0.338239</v>
+        <v>0.354268</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.508279</v>
+        <v>0.51323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.312987</v>
+        <v>0.332857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.347921</v>
+        <v>0.35884</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.507889</v>
+        <v>0.519781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.319281</v>
+        <v>0.341271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.350262</v>
+        <v>0.36404</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.52594</v>
+        <v>0.534373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.324919</v>
+        <v>0.346521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.351568</v>
+        <v>0.374622</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.528038</v>
+        <v>0.5398500000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.32693</v>
+        <v>0.351847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.357266</v>
+        <v>0.380771</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.537049</v>
+        <v>0.547377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.334663</v>
+        <v>0.357438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.367584</v>
+        <v>0.383353</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.548722</v>
+        <v>0.551808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.342013</v>
+        <v>0.362703</v>
       </c>
       <c r="D8" t="n">
-        <v>0.369119</v>
+        <v>0.388499</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5475989999999999</v>
+        <v>0.554098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.348628</v>
+        <v>0.371195</v>
       </c>
       <c r="D9" t="n">
-        <v>0.377673</v>
+        <v>0.398548</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.562097</v>
+        <v>0.57213</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351321</v>
+        <v>0.375006</v>
       </c>
       <c r="D10" t="n">
-        <v>0.38098</v>
+        <v>0.404892</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.564276</v>
+        <v>0.578999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.350278</v>
+        <v>0.371676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.39132</v>
+        <v>0.407499</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.580684</v>
+        <v>0.584378</v>
       </c>
       <c r="C12" t="n">
-        <v>0.358488</v>
+        <v>0.379503</v>
       </c>
       <c r="D12" t="n">
-        <v>0.396761</v>
+        <v>0.418866</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5961920000000001</v>
+        <v>0.599658</v>
       </c>
       <c r="C13" t="n">
-        <v>0.362038</v>
+        <v>0.383439</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398278</v>
+        <v>0.415494</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.595926</v>
+        <v>0.599034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.362145</v>
+        <v>0.383889</v>
       </c>
       <c r="D14" t="n">
-        <v>0.404429</v>
+        <v>0.425083</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.60278</v>
+        <v>0.604977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.367327</v>
+        <v>0.387579</v>
       </c>
       <c r="D15" t="n">
-        <v>0.413497</v>
+        <v>0.431786</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.616938</v>
+        <v>0.61467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.373578</v>
+        <v>0.395298</v>
       </c>
       <c r="D16" t="n">
-        <v>0.41587</v>
+        <v>0.433954</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6237549999999999</v>
+        <v>0.624739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.378271</v>
+        <v>0.3982</v>
       </c>
       <c r="D17" t="n">
-        <v>0.420696</v>
+        <v>0.441001</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.63788</v>
+        <v>0.622261</v>
       </c>
       <c r="C18" t="n">
-        <v>0.380939</v>
+        <v>0.40004</v>
       </c>
       <c r="D18" t="n">
-        <v>0.425281</v>
+        <v>0.445613</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.651558</v>
+        <v>0.650137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.383704</v>
+        <v>0.40406</v>
       </c>
       <c r="D19" t="n">
-        <v>0.431775</v>
+        <v>0.451243</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.661663</v>
+        <v>0.66231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.394097</v>
+        <v>0.414711</v>
       </c>
       <c r="D20" t="n">
-        <v>0.436346</v>
+        <v>0.459855</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6737109999999999</v>
+        <v>0.672466</v>
       </c>
       <c r="C21" t="n">
-        <v>0.395021</v>
+        <v>0.414147</v>
       </c>
       <c r="D21" t="n">
-        <v>0.446019</v>
+        <v>0.462025</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.679691</v>
+        <v>0.679154</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400115</v>
+        <v>0.419165</v>
       </c>
       <c r="D22" t="n">
-        <v>0.452333</v>
+        <v>0.468766</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.688172</v>
+        <v>0.685495</v>
       </c>
       <c r="C23" t="n">
-        <v>0.401488</v>
+        <v>0.421466</v>
       </c>
       <c r="D23" t="n">
-        <v>0.456623</v>
+        <v>0.47319</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.692119</v>
+        <v>0.69332</v>
       </c>
       <c r="C24" t="n">
-        <v>0.407016</v>
+        <v>0.42565</v>
       </c>
       <c r="D24" t="n">
-        <v>0.461652</v>
+        <v>0.477559</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.701929</v>
+        <v>0.701017</v>
       </c>
       <c r="C25" t="n">
-        <v>0.415212</v>
+        <v>0.435264</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46695</v>
+        <v>0.486859</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.707469</v>
+        <v>0.703701</v>
       </c>
       <c r="C26" t="n">
-        <v>0.412064</v>
+        <v>0.431457</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468624</v>
+        <v>0.490683</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.716913</v>
+        <v>0.7191109999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.420926</v>
+        <v>0.440312</v>
       </c>
       <c r="D27" t="n">
-        <v>0.473596</v>
+        <v>0.495219</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7207249999999999</v>
+        <v>0.720726</v>
       </c>
       <c r="C28" t="n">
-        <v>0.425887</v>
+        <v>0.446901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.477726</v>
+        <v>0.5006620000000001</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.733178</v>
+        <v>0.732954</v>
       </c>
       <c r="C29" t="n">
-        <v>0.431345</v>
+        <v>0.450141</v>
       </c>
       <c r="D29" t="n">
-        <v>0.482829</v>
+        <v>0.504772</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.736865</v>
+        <v>0.7349059999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.433367</v>
+        <v>0.454578</v>
       </c>
       <c r="D30" t="n">
-        <v>0.485559</v>
+        <v>0.5081830000000001</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.745575</v>
+        <v>0.743083</v>
       </c>
       <c r="C31" t="n">
-        <v>0.435402</v>
+        <v>0.454938</v>
       </c>
       <c r="D31" t="n">
-        <v>0.49066</v>
+        <v>0.513176</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.73829</v>
+        <v>0.732578</v>
       </c>
       <c r="C32" t="n">
-        <v>0.439587</v>
+        <v>0.45815</v>
       </c>
       <c r="D32" t="n">
-        <v>0.492939</v>
+        <v>0.515413</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.744799</v>
+        <v>0.746452</v>
       </c>
       <c r="C33" t="n">
-        <v>0.443699</v>
+        <v>0.463546</v>
       </c>
       <c r="D33" t="n">
-        <v>0.496778</v>
+        <v>0.520337</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.754567</v>
+        <v>0.750874</v>
       </c>
       <c r="C34" t="n">
-        <v>0.45077</v>
+        <v>0.472052</v>
       </c>
       <c r="D34" t="n">
-        <v>0.499113</v>
+        <v>0.523386</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.75617</v>
+        <v>0.755812</v>
       </c>
       <c r="C35" t="n">
-        <v>0.425039</v>
+        <v>0.445856</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501995</v>
+        <v>0.521194</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.763946</v>
+        <v>0.7633450000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.430433</v>
+        <v>0.451227</v>
       </c>
       <c r="D36" t="n">
-        <v>0.507795</v>
+        <v>0.527566</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.769877</v>
+        <v>0.7716730000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.433805</v>
+        <v>0.454264</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5088510000000001</v>
+        <v>0.5311129999999999</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.773625</v>
+        <v>0.7738</v>
       </c>
       <c r="C38" t="n">
-        <v>0.43444</v>
+        <v>0.453234</v>
       </c>
       <c r="D38" t="n">
-        <v>0.512779</v>
+        <v>0.53604</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.778977</v>
+        <v>0.76284</v>
       </c>
       <c r="C39" t="n">
-        <v>0.438442</v>
+        <v>0.457997</v>
       </c>
       <c r="D39" t="n">
-        <v>0.516416</v>
+        <v>0.539281</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.785825</v>
+        <v>0.7844410000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.442748</v>
+        <v>0.461765</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518005</v>
+        <v>0.540392</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.792246</v>
+        <v>0.794308</v>
       </c>
       <c r="C41" t="n">
-        <v>0.445291</v>
+        <v>0.465502</v>
       </c>
       <c r="D41" t="n">
-        <v>0.519602</v>
+        <v>0.543493</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.798341</v>
+        <v>0.80035</v>
       </c>
       <c r="C42" t="n">
-        <v>0.445442</v>
+        <v>0.465586</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523214</v>
+        <v>0.546587</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.802615</v>
+        <v>0.793984</v>
       </c>
       <c r="C43" t="n">
-        <v>0.447078</v>
+        <v>0.466196</v>
       </c>
       <c r="D43" t="n">
-        <v>0.525918</v>
+        <v>0.5449349999999999</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.802581</v>
+        <v>0.794662</v>
       </c>
       <c r="C44" t="n">
-        <v>0.449698</v>
+        <v>0.469543</v>
       </c>
       <c r="D44" t="n">
-        <v>0.526589</v>
+        <v>0.546019</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.809995</v>
+        <v>0.802777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.452893</v>
+        <v>0.472037</v>
       </c>
       <c r="D45" t="n">
-        <v>0.528667</v>
+        <v>0.547892</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.813043</v>
+        <v>0.803902</v>
       </c>
       <c r="C46" t="n">
-        <v>0.452999</v>
+        <v>0.472017</v>
       </c>
       <c r="D46" t="n">
-        <v>0.532748</v>
+        <v>0.556167</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.792175</v>
+        <v>0.783977</v>
       </c>
       <c r="C47" t="n">
-        <v>0.454696</v>
+        <v>0.474582</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533704</v>
+        <v>0.553508</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.798224</v>
+        <v>0.792273</v>
       </c>
       <c r="C48" t="n">
-        <v>0.461025</v>
+        <v>0.480364</v>
       </c>
       <c r="D48" t="n">
-        <v>0.53527</v>
+        <v>0.554978</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.799397</v>
+        <v>0.7925410000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.46441</v>
+        <v>0.483501</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536462</v>
+        <v>0.559562</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.80433</v>
+        <v>0.797454</v>
       </c>
       <c r="C50" t="n">
-        <v>0.453867</v>
+        <v>0.474252</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537157</v>
+        <v>0.557969</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.806958</v>
+        <v>0.800264</v>
       </c>
       <c r="C51" t="n">
-        <v>0.451578</v>
+        <v>0.474401</v>
       </c>
       <c r="D51" t="n">
-        <v>0.539873</v>
+        <v>0.561038</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.808862</v>
+        <v>0.8031509999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.456641</v>
+        <v>0.481326</v>
       </c>
       <c r="D52" t="n">
-        <v>0.541678</v>
+        <v>0.562187</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.814442</v>
+        <v>0.808152</v>
       </c>
       <c r="C53" t="n">
-        <v>0.459131</v>
+        <v>0.481373</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54177</v>
+        <v>0.564693</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8172779999999999</v>
+        <v>0.81137</v>
       </c>
       <c r="C54" t="n">
-        <v>0.466237</v>
+        <v>0.485056</v>
       </c>
       <c r="D54" t="n">
-        <v>0.549585</v>
+        <v>0.567229</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.827572</v>
+        <v>0.816433</v>
       </c>
       <c r="C55" t="n">
-        <v>0.470501</v>
+        <v>0.489788</v>
       </c>
       <c r="D55" t="n">
-        <v>0.550125</v>
+        <v>0.567937</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.82948</v>
+        <v>0.820476</v>
       </c>
       <c r="C56" t="n">
-        <v>0.473267</v>
+        <v>0.48792</v>
       </c>
       <c r="D56" t="n">
-        <v>0.54761</v>
+        <v>0.56917</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.829888</v>
+        <v>0.826285</v>
       </c>
       <c r="C57" t="n">
-        <v>0.478009</v>
+        <v>0.501186</v>
       </c>
       <c r="D57" t="n">
-        <v>0.548998</v>
+        <v>0.569771</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.829908</v>
+        <v>0.791465</v>
       </c>
       <c r="C58" t="n">
-        <v>0.482861</v>
+        <v>0.506096</v>
       </c>
       <c r="D58" t="n">
-        <v>0.549991</v>
+        <v>0.576628</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.837236</v>
+        <v>0.831521</v>
       </c>
       <c r="C59" t="n">
-        <v>0.490072</v>
+        <v>0.511379</v>
       </c>
       <c r="D59" t="n">
-        <v>0.557053</v>
+        <v>0.5760150000000001</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.846357</v>
+        <v>0.838593</v>
       </c>
       <c r="C60" t="n">
-        <v>0.497769</v>
+        <v>0.516132</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554936</v>
+        <v>0.575126</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.842899</v>
+        <v>0.835153</v>
       </c>
       <c r="C61" t="n">
-        <v>0.505569</v>
+        <v>0.521676</v>
       </c>
       <c r="D61" t="n">
-        <v>0.558024</v>
+        <v>0.582964</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.853812</v>
+        <v>0.8494699999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.510358</v>
+        <v>0.530841</v>
       </c>
       <c r="D62" t="n">
-        <v>0.559771</v>
+        <v>0.578718</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.860402</v>
+        <v>0.857363</v>
       </c>
       <c r="C63" t="n">
-        <v>0.518966</v>
+        <v>0.540007</v>
       </c>
       <c r="D63" t="n">
-        <v>0.564026</v>
+        <v>0.581547</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.874418</v>
+        <v>0.870752</v>
       </c>
       <c r="C64" t="n">
-        <v>0.561409</v>
+        <v>0.591704</v>
       </c>
       <c r="D64" t="n">
-        <v>0.601401</v>
+        <v>0.625535</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.891548</v>
+        <v>0.889422</v>
       </c>
       <c r="C65" t="n">
-        <v>0.576837</v>
+        <v>0.612893</v>
       </c>
       <c r="D65" t="n">
-        <v>0.605013</v>
+        <v>0.631677</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.911767</v>
+        <v>0.909089</v>
       </c>
       <c r="C66" t="n">
-        <v>0.593637</v>
+        <v>0.63692</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6113730000000001</v>
+        <v>0.643021</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.926783</v>
+        <v>0.930546</v>
       </c>
       <c r="C67" t="n">
-        <v>0.608158</v>
+        <v>0.665133</v>
       </c>
       <c r="D67" t="n">
-        <v>0.624209</v>
+        <v>0.654753</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9449</v>
+        <v>0.955443</v>
       </c>
       <c r="C68" t="n">
-        <v>0.633125</v>
+        <v>0.686198</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6392370000000001</v>
+        <v>0.671365</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.967484</v>
+        <v>0.980047</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6650160000000001</v>
+        <v>0.714232</v>
       </c>
       <c r="D69" t="n">
-        <v>0.649932</v>
+        <v>0.693787</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.98292</v>
+        <v>1.01677</v>
       </c>
       <c r="C70" t="n">
-        <v>0.680518</v>
+        <v>0.7429480000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.672022</v>
+        <v>0.720862</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0188</v>
+        <v>1.05518</v>
       </c>
       <c r="C71" t="n">
-        <v>0.720859</v>
+        <v>0.788764</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6911389999999999</v>
+        <v>0.741735</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05105</v>
+        <v>1.08042</v>
       </c>
       <c r="C72" t="n">
-        <v>0.753053</v>
+        <v>0.8168609999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.720394</v>
+        <v>0.764045</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.09396</v>
+        <v>1.12041</v>
       </c>
       <c r="C73" t="n">
-        <v>0.786228</v>
+        <v>0.853633</v>
       </c>
       <c r="D73" t="n">
-        <v>0.741506</v>
+        <v>0.789122</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.1352</v>
+        <v>1.15659</v>
       </c>
       <c r="C74" t="n">
-        <v>0.824931</v>
+        <v>0.898826</v>
       </c>
       <c r="D74" t="n">
-        <v>0.771827</v>
+        <v>0.829685</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.18598</v>
+        <v>1.21915</v>
       </c>
       <c r="C75" t="n">
-        <v>0.852488</v>
+        <v>0.9381119999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.807245</v>
+        <v>0.840205</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.3551</v>
+        <v>1.39598</v>
       </c>
       <c r="C76" t="n">
-        <v>0.902052</v>
+        <v>0.976977</v>
       </c>
       <c r="D76" t="n">
-        <v>0.834727</v>
+        <v>0.894617</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.41422</v>
+        <v>1.48933</v>
       </c>
       <c r="C77" t="n">
-        <v>0.942255</v>
+        <v>1.01898</v>
       </c>
       <c r="D77" t="n">
-        <v>0.870398</v>
+        <v>0.940319</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.48398</v>
+        <v>1.56925</v>
       </c>
       <c r="C78" t="n">
-        <v>1.09264</v>
+        <v>1.20118</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00908</v>
+        <v>1.10499</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.57837</v>
+        <v>1.64892</v>
       </c>
       <c r="C79" t="n">
-        <v>1.13213</v>
+        <v>1.25062</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06589</v>
+        <v>1.17484</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.65719</v>
+        <v>1.7452</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17394</v>
+        <v>1.2954</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11803</v>
+        <v>1.23768</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.7299</v>
+        <v>1.84462</v>
       </c>
       <c r="C81" t="n">
-        <v>1.21584</v>
+        <v>1.33919</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16459</v>
+        <v>1.29681</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81209</v>
+        <v>1.93975</v>
       </c>
       <c r="C82" t="n">
-        <v>1.25464</v>
+        <v>1.39073</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22005</v>
+        <v>1.37263</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.91294</v>
+        <v>2.04888</v>
       </c>
       <c r="C83" t="n">
-        <v>1.29666</v>
+        <v>1.42964</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27807</v>
+        <v>1.43962</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.00606</v>
+        <v>2.15875</v>
       </c>
       <c r="C84" t="n">
-        <v>1.33869</v>
+        <v>1.48346</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33719</v>
+        <v>1.51315</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.10014</v>
+        <v>2.26716</v>
       </c>
       <c r="C85" t="n">
-        <v>1.38182</v>
+        <v>1.52952</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39352</v>
+        <v>1.58673</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1984</v>
+        <v>2.37351</v>
       </c>
       <c r="C86" t="n">
-        <v>1.42921</v>
+        <v>1.57552</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45222</v>
+        <v>1.65098</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.29494</v>
+        <v>2.46745</v>
       </c>
       <c r="C87" t="n">
-        <v>1.46753</v>
+        <v>1.62076</v>
       </c>
       <c r="D87" t="n">
-        <v>1.51321</v>
+        <v>1.72358</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.38877</v>
+        <v>2.57782</v>
       </c>
       <c r="C88" t="n">
-        <v>1.50641</v>
+        <v>1.66367</v>
       </c>
       <c r="D88" t="n">
-        <v>1.57525</v>
+        <v>1.79681</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.49611</v>
+        <v>2.69385</v>
       </c>
       <c r="C89" t="n">
-        <v>1.55266</v>
+        <v>1.71477</v>
       </c>
       <c r="D89" t="n">
-        <v>1.63281</v>
+        <v>1.86575</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.6806</v>
+        <v>2.92262</v>
       </c>
       <c r="C90" t="n">
-        <v>1.59709</v>
+        <v>1.76606</v>
       </c>
       <c r="D90" t="n">
-        <v>1.69079</v>
+        <v>1.93573</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.77561</v>
+        <v>3.0179</v>
       </c>
       <c r="C91" t="n">
-        <v>1.64731</v>
+        <v>1.81562</v>
       </c>
       <c r="D91" t="n">
-        <v>1.7415</v>
+        <v>2.00089</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.85069</v>
+        <v>3.10783</v>
       </c>
       <c r="C92" t="n">
-        <v>1.73144</v>
+        <v>1.91594</v>
       </c>
       <c r="D92" t="n">
-        <v>1.8645</v>
+        <v>2.14667</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.94229</v>
+        <v>3.20067</v>
       </c>
       <c r="C93" t="n">
-        <v>1.75569</v>
+        <v>1.96326</v>
       </c>
       <c r="D93" t="n">
-        <v>1.91407</v>
+        <v>2.19988</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.0134</v>
+        <v>3.28153</v>
       </c>
       <c r="C94" t="n">
-        <v>1.79347</v>
+        <v>1.99706</v>
       </c>
       <c r="D94" t="n">
-        <v>1.95919</v>
+        <v>2.2669</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.10182</v>
+        <v>3.37492</v>
       </c>
       <c r="C95" t="n">
-        <v>1.83764</v>
+        <v>2.03157</v>
       </c>
       <c r="D95" t="n">
-        <v>2.00896</v>
+        <v>2.31888</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.18579</v>
+        <v>3.45939</v>
       </c>
       <c r="C96" t="n">
-        <v>1.87216</v>
+        <v>2.07091</v>
       </c>
       <c r="D96" t="n">
-        <v>2.05728</v>
+        <v>2.38443</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.26463</v>
+        <v>3.54931</v>
       </c>
       <c r="C97" t="n">
-        <v>1.89588</v>
+        <v>2.11143</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10188</v>
+        <v>2.43422</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31748</v>
+        <v>3.54841</v>
       </c>
       <c r="C98" t="n">
-        <v>1.94462</v>
+        <v>2.13281</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14426</v>
+        <v>2.49048</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.38313</v>
+        <v>3.70792</v>
       </c>
       <c r="C99" t="n">
-        <v>1.97358</v>
+        <v>2.15488</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17811</v>
+        <v>2.51573</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.455</v>
+        <v>3.76505</v>
       </c>
       <c r="C100" t="n">
-        <v>1.99969</v>
+        <v>2.19675</v>
       </c>
       <c r="D100" t="n">
-        <v>2.22316</v>
+        <v>2.58646</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.52231</v>
+        <v>3.83467</v>
       </c>
       <c r="C101" t="n">
-        <v>2.04161</v>
+        <v>2.24063</v>
       </c>
       <c r="D101" t="n">
-        <v>2.24821</v>
+        <v>2.63196</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.56913</v>
+        <v>3.90246</v>
       </c>
       <c r="C102" t="n">
-        <v>2.07453</v>
+        <v>2.29345</v>
       </c>
       <c r="D102" t="n">
-        <v>2.29814</v>
+        <v>2.66177</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.64837</v>
+        <v>3.98888</v>
       </c>
       <c r="C103" t="n">
-        <v>2.10839</v>
+        <v>2.31332</v>
       </c>
       <c r="D103" t="n">
-        <v>2.33059</v>
+        <v>2.70129</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.70901</v>
+        <v>4.04541</v>
       </c>
       <c r="C104" t="n">
-        <v>2.14498</v>
+        <v>2.35537</v>
       </c>
       <c r="D104" t="n">
-        <v>2.35791</v>
+        <v>2.74222</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.73091</v>
+        <v>4.08492</v>
       </c>
       <c r="C105" t="n">
-        <v>2.16729</v>
+        <v>2.39028</v>
       </c>
       <c r="D105" t="n">
-        <v>2.39954</v>
+        <v>2.78693</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.76781</v>
+        <v>4.15535</v>
       </c>
       <c r="C106" t="n">
-        <v>2.20106</v>
+        <v>2.42964</v>
       </c>
       <c r="D106" t="n">
-        <v>2.42141</v>
+        <v>2.8388</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.82552</v>
+        <v>4.21871</v>
       </c>
       <c r="C107" t="n">
-        <v>2.18012</v>
+        <v>2.41814</v>
       </c>
       <c r="D107" t="n">
-        <v>2.49553</v>
+        <v>2.91713</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.89671</v>
+        <v>4.27209</v>
       </c>
       <c r="C108" t="n">
-        <v>2.20554</v>
+        <v>2.43002</v>
       </c>
       <c r="D108" t="n">
-        <v>2.52852</v>
+        <v>2.95904</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.92151</v>
+        <v>4.31937</v>
       </c>
       <c r="C109" t="n">
-        <v>2.2343</v>
+        <v>2.4649</v>
       </c>
       <c r="D109" t="n">
-        <v>2.55256</v>
+        <v>2.97621</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.97182</v>
+        <v>4.39412</v>
       </c>
       <c r="C110" t="n">
-        <v>2.25837</v>
+        <v>2.4879</v>
       </c>
       <c r="D110" t="n">
-        <v>2.57992</v>
+        <v>3.02735</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.00959</v>
+        <v>4.40086</v>
       </c>
       <c r="C111" t="n">
-        <v>2.27732</v>
+        <v>2.51562</v>
       </c>
       <c r="D111" t="n">
-        <v>2.6039</v>
+        <v>3.05733</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.07293</v>
+        <v>4.2173</v>
       </c>
       <c r="C112" t="n">
-        <v>2.31071</v>
+        <v>2.55507</v>
       </c>
       <c r="D112" t="n">
-        <v>2.62894</v>
+        <v>3.08707</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.12458</v>
+        <v>4.51278</v>
       </c>
       <c r="C113" t="n">
-        <v>2.3341</v>
+        <v>2.57764</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65769</v>
+        <v>3.1042</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.17449</v>
+        <v>4.61066</v>
       </c>
       <c r="C114" t="n">
-        <v>2.36647</v>
+        <v>2.60653</v>
       </c>
       <c r="D114" t="n">
-        <v>2.68244</v>
+        <v>3.14406</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.2157</v>
+        <v>4.66629</v>
       </c>
       <c r="C115" t="n">
-        <v>2.37902</v>
+        <v>2.64137</v>
       </c>
       <c r="D115" t="n">
-        <v>2.70802</v>
+        <v>3.16978</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.25536</v>
+        <v>4.70065</v>
       </c>
       <c r="C116" t="n">
-        <v>2.41677</v>
+        <v>2.66459</v>
       </c>
       <c r="D116" t="n">
-        <v>2.72944</v>
+        <v>3.18842</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.31595</v>
+        <v>4.77588</v>
       </c>
       <c r="C117" t="n">
-        <v>2.43803</v>
+        <v>2.69925</v>
       </c>
       <c r="D117" t="n">
-        <v>2.74925</v>
+        <v>3.22079</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.35787</v>
+        <v>4.81017</v>
       </c>
       <c r="C118" t="n">
-        <v>2.46497</v>
+        <v>2.73246</v>
       </c>
       <c r="D118" t="n">
-        <v>2.77874</v>
+        <v>3.23498</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.30084</v>
+        <v>4.74669</v>
       </c>
       <c r="C119" t="n">
-        <v>2.50521</v>
+        <v>2.75981</v>
       </c>
       <c r="D119" t="n">
-        <v>2.78946</v>
+        <v>3.23735</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.526706</v>
+        <v>0.527981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.32267</v>
+        <v>0.343648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.338075</v>
+        <v>0.347849</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.532617</v>
+        <v>0.536653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.329842</v>
+        <v>0.349811</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34082</v>
+        <v>0.354302</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.535324</v>
+        <v>0.543818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.332243</v>
+        <v>0.3559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341677</v>
+        <v>0.357338</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5465410000000001</v>
+        <v>0.554018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.340442</v>
+        <v>0.361761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.346795</v>
+        <v>0.363053</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.556596</v>
+        <v>0.562454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.349291</v>
+        <v>0.369061</v>
       </c>
       <c r="D6" t="n">
-        <v>0.350442</v>
+        <v>0.365521</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5659189999999999</v>
+        <v>0.575701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.354072</v>
+        <v>0.377653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.355816</v>
+        <v>0.373195</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.571095</v>
+        <v>0.5869490000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.359044</v>
+        <v>0.384147</v>
       </c>
       <c r="D8" t="n">
-        <v>0.357558</v>
+        <v>0.379566</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5823390000000001</v>
+        <v>0.601316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.368971</v>
+        <v>0.392693</v>
       </c>
       <c r="D9" t="n">
-        <v>0.363076</v>
+        <v>0.387069</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.598558</v>
+        <v>0.6158670000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.381807</v>
+        <v>0.404402</v>
       </c>
       <c r="D10" t="n">
-        <v>0.369438</v>
+        <v>0.392029</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.607159</v>
+        <v>0.625989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.363784</v>
+        <v>0.394508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.375033</v>
+        <v>0.403414</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.593565</v>
+        <v>0.617085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.36721</v>
+        <v>0.398116</v>
       </c>
       <c r="D12" t="n">
-        <v>0.381548</v>
+        <v>0.411631</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.606205</v>
+        <v>0.629209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.37502</v>
+        <v>0.404053</v>
       </c>
       <c r="D13" t="n">
-        <v>0.385471</v>
+        <v>0.414037</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.618113</v>
+        <v>0.642745</v>
       </c>
       <c r="C14" t="n">
-        <v>0.384593</v>
+        <v>0.413608</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392784</v>
+        <v>0.421531</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.632459</v>
+        <v>0.658137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.393827</v>
+        <v>0.422547</v>
       </c>
       <c r="D15" t="n">
-        <v>0.398068</v>
+        <v>0.427615</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.646863</v>
+        <v>0.667838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.403517</v>
+        <v>0.432608</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406711</v>
+        <v>0.432588</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.655707</v>
+        <v>0.677824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.410598</v>
+        <v>0.441616</v>
       </c>
       <c r="D17" t="n">
-        <v>0.40938</v>
+        <v>0.439234</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.666947</v>
+        <v>0.682878</v>
       </c>
       <c r="C18" t="n">
-        <v>0.412282</v>
+        <v>0.442976</v>
       </c>
       <c r="D18" t="n">
-        <v>0.418048</v>
+        <v>0.447964</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.684449</v>
+        <v>0.709072</v>
       </c>
       <c r="C19" t="n">
-        <v>0.429813</v>
+        <v>0.460757</v>
       </c>
       <c r="D19" t="n">
-        <v>0.421943</v>
+        <v>0.451181</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.698404</v>
+        <v>0.724003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437865</v>
+        <v>0.465688</v>
       </c>
       <c r="D20" t="n">
-        <v>0.429688</v>
+        <v>0.455532</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.711197</v>
+        <v>0.731748</v>
       </c>
       <c r="C21" t="n">
-        <v>0.449556</v>
+        <v>0.478496</v>
       </c>
       <c r="D21" t="n">
-        <v>0.434429</v>
+        <v>0.462879</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7216050000000001</v>
+        <v>0.737905</v>
       </c>
       <c r="C22" t="n">
-        <v>0.455815</v>
+        <v>0.480507</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442315</v>
+        <v>0.463342</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.734955</v>
+        <v>0.755502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.472279</v>
+        <v>0.496554</v>
       </c>
       <c r="D23" t="n">
-        <v>0.44608</v>
+        <v>0.466717</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.749383</v>
+        <v>0.767962</v>
       </c>
       <c r="C24" t="n">
-        <v>0.476154</v>
+        <v>0.499229</v>
       </c>
       <c r="D24" t="n">
-        <v>0.451447</v>
+        <v>0.47391</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.772957</v>
+        <v>0.786636</v>
       </c>
       <c r="C25" t="n">
-        <v>0.49456</v>
+        <v>0.516831</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458211</v>
+        <v>0.479305</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7911010000000001</v>
+        <v>0.800606</v>
       </c>
       <c r="C26" t="n">
-        <v>0.438109</v>
+        <v>0.4599</v>
       </c>
       <c r="D26" t="n">
-        <v>0.463615</v>
+        <v>0.477788</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.744742</v>
+        <v>0.745772</v>
       </c>
       <c r="C27" t="n">
-        <v>0.443094</v>
+        <v>0.463337</v>
       </c>
       <c r="D27" t="n">
-        <v>0.466147</v>
+        <v>0.484278</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.756382</v>
+        <v>0.751482</v>
       </c>
       <c r="C28" t="n">
-        <v>0.452142</v>
+        <v>0.468996</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47327</v>
+        <v>0.491439</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.769577</v>
+        <v>0.769214</v>
       </c>
       <c r="C29" t="n">
-        <v>0.45285</v>
+        <v>0.473273</v>
       </c>
       <c r="D29" t="n">
-        <v>0.474717</v>
+        <v>0.493159</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.780791</v>
+        <v>0.779386</v>
       </c>
       <c r="C30" t="n">
-        <v>0.46345</v>
+        <v>0.482865</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481689</v>
+        <v>0.496577</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.791485</v>
+        <v>0.791531</v>
       </c>
       <c r="C31" t="n">
-        <v>0.471604</v>
+        <v>0.490302</v>
       </c>
       <c r="D31" t="n">
-        <v>0.48507</v>
+        <v>0.498895</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.804814</v>
+        <v>0.805879</v>
       </c>
       <c r="C32" t="n">
-        <v>0.479485</v>
+        <v>0.497934</v>
       </c>
       <c r="D32" t="n">
-        <v>0.487095</v>
+        <v>0.509974</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.816652</v>
+        <v>0.815119</v>
       </c>
       <c r="C33" t="n">
-        <v>0.486864</v>
+        <v>0.507256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.491096</v>
+        <v>0.509556</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.829944</v>
+        <v>0.8281809999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.499014</v>
+        <v>0.515492</v>
       </c>
       <c r="D34" t="n">
-        <v>0.495657</v>
+        <v>0.513918</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.840374</v>
+        <v>0.8407210000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.508714</v>
+        <v>0.524182</v>
       </c>
       <c r="D35" t="n">
-        <v>0.500516</v>
+        <v>0.52086</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.854911</v>
+        <v>0.854452</v>
       </c>
       <c r="C36" t="n">
-        <v>0.517683</v>
+        <v>0.535067</v>
       </c>
       <c r="D36" t="n">
-        <v>0.503109</v>
+        <v>0.5216730000000001</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8624849999999999</v>
+        <v>0.8601490000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.528645</v>
+        <v>0.548516</v>
       </c>
       <c r="D37" t="n">
-        <v>0.505657</v>
+        <v>0.525607</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.873387</v>
+        <v>0.874738</v>
       </c>
       <c r="C38" t="n">
-        <v>0.541031</v>
+        <v>0.55989</v>
       </c>
       <c r="D38" t="n">
-        <v>0.510442</v>
+        <v>0.52929</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.895173</v>
+        <v>0.894992</v>
       </c>
       <c r="C39" t="n">
-        <v>0.548242</v>
+        <v>0.565629</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512191</v>
+        <v>0.530552</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.901477</v>
+        <v>0.899537</v>
       </c>
       <c r="C40" t="n">
-        <v>0.502349</v>
+        <v>0.517661</v>
       </c>
       <c r="D40" t="n">
-        <v>0.516755</v>
+        <v>0.536953</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8548750000000001</v>
+        <v>0.85395</v>
       </c>
       <c r="C41" t="n">
-        <v>0.506004</v>
+        <v>0.524433</v>
       </c>
       <c r="D41" t="n">
-        <v>0.518632</v>
+        <v>0.540979</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.862718</v>
+        <v>0.860747</v>
       </c>
       <c r="C42" t="n">
-        <v>0.51234</v>
+        <v>0.5312750000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.522189</v>
+        <v>0.544485</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.869621</v>
+        <v>0.867191</v>
       </c>
       <c r="C43" t="n">
-        <v>0.51952</v>
+        <v>0.536066</v>
       </c>
       <c r="D43" t="n">
-        <v>0.525554</v>
+        <v>0.548086</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.876266</v>
+        <v>0.875315</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5296689999999999</v>
+        <v>0.549065</v>
       </c>
       <c r="D44" t="n">
-        <v>0.527848</v>
+        <v>0.550861</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.891502</v>
+        <v>0.887871</v>
       </c>
       <c r="C45" t="n">
-        <v>0.534748</v>
+        <v>0.551135</v>
       </c>
       <c r="D45" t="n">
-        <v>0.529067</v>
+        <v>0.55096</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.897046</v>
+        <v>0.8964490000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.54508</v>
+        <v>0.56329</v>
       </c>
       <c r="D46" t="n">
-        <v>0.532285</v>
+        <v>0.557486</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.908819</v>
+        <v>0.907905</v>
       </c>
       <c r="C47" t="n">
-        <v>0.553722</v>
+        <v>0.571582</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533512</v>
+        <v>0.553534</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.918346</v>
+        <v>0.918035</v>
       </c>
       <c r="C48" t="n">
-        <v>0.560198</v>
+        <v>0.576933</v>
       </c>
       <c r="D48" t="n">
-        <v>0.535145</v>
+        <v>0.558638</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.92564</v>
+        <v>0.925508</v>
       </c>
       <c r="C49" t="n">
-        <v>0.57057</v>
+        <v>0.587266</v>
       </c>
       <c r="D49" t="n">
-        <v>0.539367</v>
+        <v>0.561144</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.939392</v>
+        <v>0.939461</v>
       </c>
       <c r="C50" t="n">
-        <v>0.577541</v>
+        <v>0.593202</v>
       </c>
       <c r="D50" t="n">
-        <v>0.541002</v>
+        <v>0.561493</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.948449</v>
+        <v>0.949616</v>
       </c>
       <c r="C51" t="n">
-        <v>0.589241</v>
+        <v>0.603451</v>
       </c>
       <c r="D51" t="n">
-        <v>0.542492</v>
+        <v>0.5665480000000001</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.959955</v>
+        <v>0.9627599999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.599391</v>
+        <v>0.617582</v>
       </c>
       <c r="D52" t="n">
-        <v>0.543959</v>
+        <v>0.570553</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.96972</v>
+        <v>0.971512</v>
       </c>
       <c r="C53" t="n">
-        <v>0.609696</v>
+        <v>0.6261060000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.547442</v>
+        <v>0.571729</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.983653</v>
+        <v>0.98445</v>
       </c>
       <c r="C54" t="n">
-        <v>0.540376</v>
+        <v>0.559449</v>
       </c>
       <c r="D54" t="n">
-        <v>0.546659</v>
+        <v>0.572771</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.996201</v>
+        <v>0.996991</v>
       </c>
       <c r="C55" t="n">
-        <v>0.546363</v>
+        <v>0.565436</v>
       </c>
       <c r="D55" t="n">
-        <v>0.547629</v>
+        <v>0.573313</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.91404</v>
+        <v>0.91621</v>
       </c>
       <c r="C56" t="n">
-        <v>0.55459</v>
+        <v>0.574781</v>
       </c>
       <c r="D56" t="n">
-        <v>0.548742</v>
+        <v>0.573621</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9207959999999999</v>
+        <v>0.921701</v>
       </c>
       <c r="C57" t="n">
-        <v>0.561037</v>
+        <v>0.580659</v>
       </c>
       <c r="D57" t="n">
-        <v>0.550451</v>
+        <v>0.572429</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.929801</v>
+        <v>0.931542</v>
       </c>
       <c r="C58" t="n">
-        <v>0.570171</v>
+        <v>0.589214</v>
       </c>
       <c r="D58" t="n">
-        <v>0.552534</v>
+        <v>0.576178</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.938214</v>
+        <v>0.938665</v>
       </c>
       <c r="C59" t="n">
-        <v>0.57769</v>
+        <v>0.598299</v>
       </c>
       <c r="D59" t="n">
-        <v>0.553511</v>
+        <v>0.578352</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.942993</v>
+        <v>0.94241</v>
       </c>
       <c r="C60" t="n">
-        <v>0.589179</v>
+        <v>0.607013</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554555</v>
+        <v>0.577978</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.95133</v>
+        <v>0.954141</v>
       </c>
       <c r="C61" t="n">
-        <v>0.599034</v>
+        <v>0.615351</v>
       </c>
       <c r="D61" t="n">
-        <v>0.559009</v>
+        <v>0.5802929999999999</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.960352</v>
+        <v>0.958122</v>
       </c>
       <c r="C62" t="n">
-        <v>0.607819</v>
+        <v>0.629155</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558094</v>
+        <v>0.584392</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.972768</v>
+        <v>0.972804</v>
       </c>
       <c r="C63" t="n">
-        <v>0.618974</v>
+        <v>0.642968</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561702</v>
+        <v>0.583757</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.981299</v>
+        <v>0.976502</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6309630000000001</v>
+        <v>0.6563099999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.561511</v>
+        <v>0.585128</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.993939</v>
+        <v>0.990888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.646971</v>
+        <v>0.673197</v>
       </c>
       <c r="D65" t="n">
-        <v>0.564551</v>
+        <v>0.587405</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.00837</v>
+        <v>1.00484</v>
       </c>
       <c r="C66" t="n">
-        <v>0.661079</v>
+        <v>0.684681</v>
       </c>
       <c r="D66" t="n">
-        <v>0.567371</v>
+        <v>0.593075</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.02163</v>
+        <v>1.01727</v>
       </c>
       <c r="C67" t="n">
-        <v>0.681292</v>
+        <v>0.706864</v>
       </c>
       <c r="D67" t="n">
-        <v>0.571256</v>
+        <v>0.595332</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03499</v>
+        <v>1.03385</v>
       </c>
       <c r="C68" t="n">
-        <v>0.613924</v>
+        <v>0.640294</v>
       </c>
       <c r="D68" t="n">
-        <v>0.585678</v>
+        <v>0.61339</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06866</v>
+        <v>1.07282</v>
       </c>
       <c r="C69" t="n">
-        <v>0.635265</v>
+        <v>0.663893</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5953000000000001</v>
+        <v>0.624568</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.00811</v>
+        <v>1.01475</v>
       </c>
       <c r="C70" t="n">
-        <v>0.666449</v>
+        <v>0.6938</v>
       </c>
       <c r="D70" t="n">
-        <v>0.612142</v>
+        <v>0.644956</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03575</v>
+        <v>1.04198</v>
       </c>
       <c r="C71" t="n">
-        <v>0.69594</v>
+        <v>0.7267130000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.625728</v>
+        <v>0.6585569999999999</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0704</v>
+        <v>1.07736</v>
       </c>
       <c r="C72" t="n">
-        <v>0.729044</v>
+        <v>0.763304</v>
       </c>
       <c r="D72" t="n">
-        <v>0.642113</v>
+        <v>0.675484</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10006</v>
+        <v>1.11386</v>
       </c>
       <c r="C73" t="n">
-        <v>0.764615</v>
+        <v>0.802833</v>
       </c>
       <c r="D73" t="n">
-        <v>0.656851</v>
+        <v>0.695912</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.1337</v>
+        <v>1.15034</v>
       </c>
       <c r="C74" t="n">
-        <v>0.798753</v>
+        <v>0.8456669999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.675184</v>
+        <v>0.720444</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1729</v>
+        <v>1.19854</v>
       </c>
       <c r="C75" t="n">
-        <v>0.83907</v>
+        <v>0.896146</v>
       </c>
       <c r="D75" t="n">
-        <v>0.694819</v>
+        <v>0.7470909999999999</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2189</v>
+        <v>1.24693</v>
       </c>
       <c r="C76" t="n">
-        <v>0.881008</v>
+        <v>0.943885</v>
       </c>
       <c r="D76" t="n">
-        <v>0.715792</v>
+        <v>0.775443</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.26811</v>
+        <v>1.29726</v>
       </c>
       <c r="C77" t="n">
-        <v>0.928441</v>
+        <v>0.995046</v>
       </c>
       <c r="D77" t="n">
-        <v>0.747431</v>
+        <v>0.802776</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.33242</v>
+        <v>1.36671</v>
       </c>
       <c r="C78" t="n">
-        <v>0.977299</v>
+        <v>1.04911</v>
       </c>
       <c r="D78" t="n">
-        <v>0.781605</v>
+        <v>0.845109</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39591</v>
+        <v>1.4328</v>
       </c>
       <c r="C79" t="n">
-        <v>1.03216</v>
+        <v>1.0987</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8182739999999999</v>
+        <v>0.881642</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.4767</v>
+        <v>1.51315</v>
       </c>
       <c r="C80" t="n">
-        <v>1.09116</v>
+        <v>1.15855</v>
       </c>
       <c r="D80" t="n">
-        <v>0.863398</v>
+        <v>0.927415</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.56159</v>
+        <v>1.60831</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15617</v>
+        <v>1.2288</v>
       </c>
       <c r="D81" t="n">
-        <v>0.902313</v>
+        <v>0.981759</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.64805</v>
+        <v>1.70371</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21718</v>
+        <v>1.29434</v>
       </c>
       <c r="D82" t="n">
-        <v>0.949577</v>
+        <v>1.03548</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.75076</v>
+        <v>1.81443</v>
       </c>
       <c r="C83" t="n">
-        <v>1.19823</v>
+        <v>1.29228</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06226</v>
+        <v>1.1832</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.85413</v>
+        <v>1.94195</v>
       </c>
       <c r="C84" t="n">
-        <v>1.2598</v>
+        <v>1.36321</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12628</v>
+        <v>1.25473</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.89247</v>
+        <v>1.99507</v>
       </c>
       <c r="C85" t="n">
-        <v>1.31872</v>
+        <v>1.42063</v>
       </c>
       <c r="D85" t="n">
-        <v>1.1834</v>
+        <v>1.32191</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.00018</v>
+        <v>2.10722</v>
       </c>
       <c r="C86" t="n">
-        <v>1.39039</v>
+        <v>1.50385</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24499</v>
+        <v>1.39665</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.1201</v>
+        <v>2.23264</v>
       </c>
       <c r="C87" t="n">
-        <v>1.45339</v>
+        <v>1.58295</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30155</v>
+        <v>1.47543</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.22074</v>
+        <v>2.37358</v>
       </c>
       <c r="C88" t="n">
-        <v>1.53482</v>
+        <v>1.67073</v>
       </c>
       <c r="D88" t="n">
-        <v>1.36235</v>
+        <v>1.54792</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.34061</v>
+        <v>2.4991</v>
       </c>
       <c r="C89" t="n">
-        <v>1.61435</v>
+        <v>1.75322</v>
       </c>
       <c r="D89" t="n">
-        <v>1.42018</v>
+        <v>1.62348</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.46835</v>
+        <v>2.52683</v>
       </c>
       <c r="C90" t="n">
-        <v>1.68703</v>
+        <v>1.84023</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47823</v>
+        <v>1.69415</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59743</v>
+        <v>2.78929</v>
       </c>
       <c r="C91" t="n">
-        <v>1.78033</v>
+        <v>1.94046</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5485</v>
+        <v>1.74663</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.71913</v>
+        <v>2.91716</v>
       </c>
       <c r="C92" t="n">
-        <v>1.86457</v>
+        <v>2.03305</v>
       </c>
       <c r="D92" t="n">
-        <v>1.59285</v>
+        <v>1.83721</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.87096</v>
+        <v>3.06298</v>
       </c>
       <c r="C93" t="n">
-        <v>1.95165</v>
+        <v>2.13273</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64836</v>
+        <v>1.90257</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.00745</v>
+        <v>3.2451</v>
       </c>
       <c r="C94" t="n">
-        <v>2.04183</v>
+        <v>2.2327</v>
       </c>
       <c r="D94" t="n">
-        <v>1.7022</v>
+        <v>1.95808</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.14864</v>
+        <v>3.39022</v>
       </c>
       <c r="C95" t="n">
-        <v>2.13127</v>
+        <v>2.33428</v>
       </c>
       <c r="D95" t="n">
-        <v>1.75012</v>
+        <v>2.02538</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.29403</v>
+        <v>3.50048</v>
       </c>
       <c r="C96" t="n">
-        <v>2.24537</v>
+        <v>2.45588</v>
       </c>
       <c r="D96" t="n">
-        <v>1.80706</v>
+        <v>2.0833</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42456</v>
+        <v>3.70006</v>
       </c>
       <c r="C97" t="n">
-        <v>1.9988</v>
+        <v>2.19398</v>
       </c>
       <c r="D97" t="n">
-        <v>1.94073</v>
+        <v>2.26048</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.54718</v>
+        <v>3.82579</v>
       </c>
       <c r="C98" t="n">
-        <v>2.06652</v>
+        <v>2.2569</v>
       </c>
       <c r="D98" t="n">
-        <v>1.98308</v>
+        <v>2.31253</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.4322</v>
+        <v>3.72629</v>
       </c>
       <c r="C99" t="n">
-        <v>2.12438</v>
+        <v>2.35572</v>
       </c>
       <c r="D99" t="n">
-        <v>2.03982</v>
+        <v>2.33798</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.56557</v>
+        <v>3.83578</v>
       </c>
       <c r="C100" t="n">
-        <v>2.1992</v>
+        <v>2.40411</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07029</v>
+        <v>2.40357</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.64816</v>
+        <v>3.91518</v>
       </c>
       <c r="C101" t="n">
-        <v>2.24975</v>
+        <v>2.48848</v>
       </c>
       <c r="D101" t="n">
-        <v>2.12606</v>
+        <v>2.43332</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.76164</v>
+        <v>4.03196</v>
       </c>
       <c r="C102" t="n">
-        <v>2.32866</v>
+        <v>2.56027</v>
       </c>
       <c r="D102" t="n">
-        <v>2.15102</v>
+        <v>2.51085</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.84154</v>
+        <v>4.16772</v>
       </c>
       <c r="C103" t="n">
-        <v>2.41338</v>
+        <v>2.65158</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18729</v>
+        <v>2.5456</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.95317</v>
+        <v>4.22996</v>
       </c>
       <c r="C104" t="n">
-        <v>2.4915</v>
+        <v>2.73179</v>
       </c>
       <c r="D104" t="n">
-        <v>2.21801</v>
+        <v>2.59241</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.05513</v>
+        <v>4.3439</v>
       </c>
       <c r="C105" t="n">
-        <v>2.57542</v>
+        <v>2.80759</v>
       </c>
       <c r="D105" t="n">
-        <v>2.2493</v>
+        <v>2.62978</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.16309</v>
+        <v>4.45416</v>
       </c>
       <c r="C106" t="n">
-        <v>2.65616</v>
+        <v>2.88482</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2847</v>
+        <v>2.67774</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.25562</v>
+        <v>4.55531</v>
       </c>
       <c r="C107" t="n">
-        <v>2.72209</v>
+        <v>2.96835</v>
       </c>
       <c r="D107" t="n">
-        <v>2.3162</v>
+        <v>2.71272</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.37727</v>
+        <v>4.67642</v>
       </c>
       <c r="C108" t="n">
-        <v>2.81909</v>
+        <v>3.0649</v>
       </c>
       <c r="D108" t="n">
-        <v>2.34938</v>
+        <v>2.74153</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.48668</v>
+        <v>4.79139</v>
       </c>
       <c r="C109" t="n">
-        <v>2.91297</v>
+        <v>3.16848</v>
       </c>
       <c r="D109" t="n">
-        <v>2.38281</v>
+        <v>2.77818</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.58297</v>
+        <v>4.97359</v>
       </c>
       <c r="C110" t="n">
-        <v>2.99685</v>
+        <v>3.23695</v>
       </c>
       <c r="D110" t="n">
-        <v>2.40489</v>
+        <v>2.81302</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.62798</v>
+        <v>5.04567</v>
       </c>
       <c r="C111" t="n">
-        <v>2.60845</v>
+        <v>2.8517</v>
       </c>
       <c r="D111" t="n">
-        <v>2.5168</v>
+        <v>2.94932</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.80574</v>
+        <v>5.20919</v>
       </c>
       <c r="C112" t="n">
-        <v>2.65802</v>
+        <v>2.92268</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55215</v>
+        <v>2.98362</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.92309</v>
+        <v>5.30708</v>
       </c>
       <c r="C113" t="n">
-        <v>2.7291</v>
+        <v>2.96644</v>
       </c>
       <c r="D113" t="n">
-        <v>2.5705</v>
+        <v>3.01205</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.53579</v>
+        <v>4.96258</v>
       </c>
       <c r="C114" t="n">
-        <v>2.78191</v>
+        <v>3.04376</v>
       </c>
       <c r="D114" t="n">
-        <v>2.59563</v>
+        <v>3.04542</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.6094</v>
+        <v>5.04593</v>
       </c>
       <c r="C115" t="n">
-        <v>2.83511</v>
+        <v>3.11242</v>
       </c>
       <c r="D115" t="n">
-        <v>2.61457</v>
+        <v>3.04524</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.72626</v>
+        <v>5.11065</v>
       </c>
       <c r="C116" t="n">
-        <v>2.91381</v>
+        <v>3.18122</v>
       </c>
       <c r="D116" t="n">
-        <v>2.65536</v>
+        <v>3.09633</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.77805</v>
+        <v>5.23181</v>
       </c>
       <c r="C117" t="n">
-        <v>2.96455</v>
+        <v>3.24878</v>
       </c>
       <c r="D117" t="n">
-        <v>2.66535</v>
+        <v>3.10495</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.84651</v>
+        <v>5.27175</v>
       </c>
       <c r="C118" t="n">
-        <v>3.04794</v>
+        <v>3.34043</v>
       </c>
       <c r="D118" t="n">
-        <v>2.67726</v>
+        <v>3.14613</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.96418</v>
+        <v>5.39781</v>
       </c>
       <c r="C119" t="n">
-        <v>3.10927</v>
+        <v>3.4314</v>
       </c>
       <c r="D119" t="n">
-        <v>2.70845</v>
+        <v>3.16224</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.330333</v>
+        <v>0.328872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194395</v>
+        <v>0.193553</v>
       </c>
       <c r="D2" t="n">
-        <v>0.256653</v>
+        <v>0.248584</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.311417</v>
+        <v>0.304583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197342</v>
+        <v>0.196656</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2658</v>
+        <v>0.255254</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.316847</v>
+        <v>0.31085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201061</v>
+        <v>0.19995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.268986</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.321222</v>
+        <v>0.314941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203061</v>
+        <v>0.202521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27087</v>
+        <v>0.262956</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.324525</v>
+        <v>0.320594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205832</v>
+        <v>0.205563</v>
       </c>
       <c r="D6" t="n">
-        <v>0.283162</v>
+        <v>0.267052</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332187</v>
+        <v>0.326554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.189888</v>
+        <v>0.190101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.286257</v>
+        <v>0.276777</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.336563</v>
+        <v>0.333743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192206</v>
+        <v>0.19266</v>
       </c>
       <c r="D8" t="n">
-        <v>0.291697</v>
+        <v>0.281697</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.341504</v>
+        <v>0.33885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.193231</v>
+        <v>0.195075</v>
       </c>
       <c r="D9" t="n">
-        <v>0.299608</v>
+        <v>0.291605</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.348719</v>
+        <v>0.349951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.194879</v>
+        <v>0.196395</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305009</v>
+        <v>0.29609</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.356191</v>
+        <v>0.353159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.197122</v>
+        <v>0.198317</v>
       </c>
       <c r="D11" t="n">
-        <v>0.309507</v>
+        <v>0.303781</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.361978</v>
+        <v>0.359876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.198417</v>
+        <v>0.199501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.313529</v>
+        <v>0.310891</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.364469</v>
+        <v>0.365776</v>
       </c>
       <c r="C13" t="n">
-        <v>0.20215</v>
+        <v>0.20316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.326275</v>
+        <v>0.315287</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.377936</v>
+        <v>0.371815</v>
       </c>
       <c r="C14" t="n">
-        <v>0.203725</v>
+        <v>0.205389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.325191</v>
+        <v>0.317799</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.382367</v>
+        <v>0.378965</v>
       </c>
       <c r="C15" t="n">
-        <v>0.207197</v>
+        <v>0.20899</v>
       </c>
       <c r="D15" t="n">
-        <v>0.333749</v>
+        <v>0.325457</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.38812</v>
+        <v>0.385015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20935</v>
+        <v>0.210006</v>
       </c>
       <c r="D16" t="n">
-        <v>0.338506</v>
+        <v>0.331982</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.395456</v>
+        <v>0.391623</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212011</v>
+        <v>0.213162</v>
       </c>
       <c r="D17" t="n">
-        <v>0.346179</v>
+        <v>0.338538</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.379788</v>
+        <v>0.378062</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21464</v>
+        <v>0.215326</v>
       </c>
       <c r="D18" t="n">
-        <v>0.349049</v>
+        <v>0.344984</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.384648</v>
+        <v>0.38429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.218283</v>
+        <v>0.219119</v>
       </c>
       <c r="D19" t="n">
-        <v>0.355928</v>
+        <v>0.351037</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.390789</v>
+        <v>0.388978</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220534</v>
+        <v>0.221167</v>
       </c>
       <c r="D20" t="n">
-        <v>0.361127</v>
+        <v>0.355629</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.397291</v>
+        <v>0.393642</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199834</v>
+        <v>0.20168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.368191</v>
+        <v>0.360013</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.400452</v>
+        <v>0.398795</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202085</v>
+        <v>0.20329</v>
       </c>
       <c r="D22" t="n">
-        <v>0.373138</v>
+        <v>0.365781</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406246</v>
+        <v>0.403914</v>
       </c>
       <c r="C23" t="n">
-        <v>0.204061</v>
+        <v>0.205391</v>
       </c>
       <c r="D23" t="n">
-        <v>0.376653</v>
+        <v>0.369912</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.411698</v>
+        <v>0.41057</v>
       </c>
       <c r="C24" t="n">
-        <v>0.206747</v>
+        <v>0.208114</v>
       </c>
       <c r="D24" t="n">
-        <v>0.380774</v>
+        <v>0.373841</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.416557</v>
+        <v>0.414827</v>
       </c>
       <c r="C25" t="n">
-        <v>0.207998</v>
+        <v>0.209094</v>
       </c>
       <c r="D25" t="n">
-        <v>0.385094</v>
+        <v>0.378383</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.422888</v>
+        <v>0.420412</v>
       </c>
       <c r="C26" t="n">
-        <v>0.210579</v>
+        <v>0.2117</v>
       </c>
       <c r="D26" t="n">
-        <v>0.388902</v>
+        <v>0.381849</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.428763</v>
+        <v>0.425734</v>
       </c>
       <c r="C27" t="n">
-        <v>0.213139</v>
+        <v>0.214552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.393159</v>
+        <v>0.386607</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.434511</v>
+        <v>0.431166</v>
       </c>
       <c r="C28" t="n">
-        <v>0.215322</v>
+        <v>0.216455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.397424</v>
+        <v>0.390571</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.439829</v>
+        <v>0.436066</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218123</v>
+        <v>0.219255</v>
       </c>
       <c r="D29" t="n">
-        <v>0.400844</v>
+        <v>0.395174</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.445641</v>
+        <v>0.444039</v>
       </c>
       <c r="C30" t="n">
-        <v>0.219867</v>
+        <v>0.22116</v>
       </c>
       <c r="D30" t="n">
-        <v>0.403502</v>
+        <v>0.397033</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.451302</v>
+        <v>0.447796</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222605</v>
+        <v>0.223812</v>
       </c>
       <c r="D31" t="n">
-        <v>0.407875</v>
+        <v>0.40239</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.424498</v>
+        <v>0.423642</v>
       </c>
       <c r="C32" t="n">
-        <v>0.225345</v>
+        <v>0.226617</v>
       </c>
       <c r="D32" t="n">
-        <v>0.410672</v>
+        <v>0.405792</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.427507</v>
+        <v>0.426641</v>
       </c>
       <c r="C33" t="n">
-        <v>0.227519</v>
+        <v>0.228637</v>
       </c>
       <c r="D33" t="n">
-        <v>0.414375</v>
+        <v>0.409043</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434039</v>
+        <v>0.432666</v>
       </c>
       <c r="C34" t="n">
-        <v>0.230297</v>
+        <v>0.23164</v>
       </c>
       <c r="D34" t="n">
-        <v>0.416805</v>
+        <v>0.412261</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.437459</v>
+        <v>0.433554</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206434</v>
+        <v>0.207948</v>
       </c>
       <c r="D35" t="n">
-        <v>0.418094</v>
+        <v>0.411961</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441268</v>
+        <v>0.441732</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207722</v>
+        <v>0.209339</v>
       </c>
       <c r="D36" t="n">
-        <v>0.419349</v>
+        <v>0.414716</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.444543</v>
+        <v>0.443772</v>
       </c>
       <c r="C37" t="n">
-        <v>0.20949</v>
+        <v>0.211118</v>
       </c>
       <c r="D37" t="n">
-        <v>0.421657</v>
+        <v>0.415974</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.448943</v>
+        <v>0.446556</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211404</v>
+        <v>0.212985</v>
       </c>
       <c r="D38" t="n">
-        <v>0.425821</v>
+        <v>0.418882</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.452849</v>
+        <v>0.449239</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213414</v>
+        <v>0.215172</v>
       </c>
       <c r="D39" t="n">
-        <v>0.426688</v>
+        <v>0.42149</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.45794</v>
+        <v>0.454615</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215537</v>
+        <v>0.216938</v>
       </c>
       <c r="D40" t="n">
-        <v>0.429299</v>
+        <v>0.423559</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.461711</v>
+        <v>0.457402</v>
       </c>
       <c r="C41" t="n">
-        <v>0.217671</v>
+        <v>0.219457</v>
       </c>
       <c r="D41" t="n">
-        <v>0.431657</v>
+        <v>0.425833</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.466631</v>
+        <v>0.462823</v>
       </c>
       <c r="C42" t="n">
-        <v>0.21955</v>
+        <v>0.221065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.433669</v>
+        <v>0.428164</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.47109</v>
+        <v>0.467386</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221433</v>
+        <v>0.222945</v>
       </c>
       <c r="D43" t="n">
-        <v>0.436298</v>
+        <v>0.430574</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.47559</v>
+        <v>0.474632</v>
       </c>
       <c r="C44" t="n">
-        <v>0.224212</v>
+        <v>0.225594</v>
       </c>
       <c r="D44" t="n">
-        <v>0.435424</v>
+        <v>0.435028</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.474577</v>
+        <v>0.48152</v>
       </c>
       <c r="C45" t="n">
-        <v>0.226441</v>
+        <v>0.228532</v>
       </c>
       <c r="D45" t="n">
-        <v>0.43755</v>
+        <v>0.435636</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.479755</v>
+        <v>0.485584</v>
       </c>
       <c r="C46" t="n">
-        <v>0.229127</v>
+        <v>0.231402</v>
       </c>
       <c r="D46" t="n">
-        <v>0.439629</v>
+        <v>0.440756</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.446706</v>
+        <v>0.448971</v>
       </c>
       <c r="C47" t="n">
-        <v>0.231668</v>
+        <v>0.233952</v>
       </c>
       <c r="D47" t="n">
-        <v>0.441766</v>
+        <v>0.442024</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.450016</v>
+        <v>0.451183</v>
       </c>
       <c r="C48" t="n">
-        <v>0.234209</v>
+        <v>0.236156</v>
       </c>
       <c r="D48" t="n">
-        <v>0.443768</v>
+        <v>0.445089</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.452843</v>
+        <v>0.459047</v>
       </c>
       <c r="C49" t="n">
-        <v>0.237774</v>
+        <v>0.23948</v>
       </c>
       <c r="D49" t="n">
-        <v>0.446189</v>
+        <v>0.447437</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.455886</v>
+        <v>0.461176</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211921</v>
+        <v>0.213111</v>
       </c>
       <c r="D50" t="n">
-        <v>0.442911</v>
+        <v>0.442518</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.458528</v>
+        <v>0.460987</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214837</v>
+        <v>0.216508</v>
       </c>
       <c r="D51" t="n">
-        <v>0.443947</v>
+        <v>0.442718</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.462243</v>
+        <v>0.467838</v>
       </c>
       <c r="C52" t="n">
-        <v>0.214577</v>
+        <v>0.21825</v>
       </c>
       <c r="D52" t="n">
-        <v>0.444646</v>
+        <v>0.445412</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.465902</v>
+        <v>0.469279</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218488</v>
+        <v>0.220953</v>
       </c>
       <c r="D53" t="n">
-        <v>0.445861</v>
+        <v>0.444396</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.469577</v>
+        <v>0.47497</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218936</v>
+        <v>0.224596</v>
       </c>
       <c r="D54" t="n">
-        <v>0.447557</v>
+        <v>0.446997</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.473222</v>
+        <v>0.479694</v>
       </c>
       <c r="C55" t="n">
-        <v>0.222635</v>
+        <v>0.22284</v>
       </c>
       <c r="D55" t="n">
-        <v>0.448598</v>
+        <v>0.449917</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.476928</v>
+        <v>0.482931</v>
       </c>
       <c r="C56" t="n">
-        <v>0.231453</v>
+        <v>0.228808</v>
       </c>
       <c r="D56" t="n">
-        <v>0.450569</v>
+        <v>0.450687</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.480647</v>
+        <v>0.486157</v>
       </c>
       <c r="C57" t="n">
-        <v>0.232622</v>
+        <v>0.231454</v>
       </c>
       <c r="D57" t="n">
-        <v>0.451817</v>
+        <v>0.450614</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.485003</v>
+        <v>0.491676</v>
       </c>
       <c r="C58" t="n">
-        <v>0.237868</v>
+        <v>0.235095</v>
       </c>
       <c r="D58" t="n">
-        <v>0.454521</v>
+        <v>0.452568</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.49016</v>
+        <v>0.491968</v>
       </c>
       <c r="C59" t="n">
-        <v>0.241955</v>
+        <v>0.243638</v>
       </c>
       <c r="D59" t="n">
-        <v>0.457153</v>
+        <v>0.456841</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.496571</v>
+        <v>0.50121</v>
       </c>
       <c r="C60" t="n">
-        <v>0.248959</v>
+        <v>0.248272</v>
       </c>
       <c r="D60" t="n">
-        <v>0.456834</v>
+        <v>0.458339</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.483878</v>
+        <v>0.479574</v>
       </c>
       <c r="C61" t="n">
-        <v>0.256089</v>
+        <v>0.253317</v>
       </c>
       <c r="D61" t="n">
-        <v>0.459425</v>
+        <v>0.460886</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4951</v>
+        <v>0.488866</v>
       </c>
       <c r="C62" t="n">
-        <v>0.263961</v>
+        <v>0.259712</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4612</v>
+        <v>0.462832</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.502312</v>
+        <v>0.49954</v>
       </c>
       <c r="C63" t="n">
-        <v>0.272476</v>
+        <v>0.272873</v>
       </c>
       <c r="D63" t="n">
-        <v>0.46496</v>
+        <v>0.46891</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.51255</v>
+        <v>0.510773</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316409</v>
+        <v>0.327877</v>
       </c>
       <c r="D64" t="n">
-        <v>0.508585</v>
+        <v>0.51162</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.532133</v>
+        <v>0.533091</v>
       </c>
       <c r="C65" t="n">
-        <v>0.336167</v>
+        <v>0.34353</v>
       </c>
       <c r="D65" t="n">
-        <v>0.520088</v>
+        <v>0.520752</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.545133</v>
+        <v>0.551753</v>
       </c>
       <c r="C66" t="n">
-        <v>0.361366</v>
+        <v>0.386162</v>
       </c>
       <c r="D66" t="n">
-        <v>0.526444</v>
+        <v>0.5250050000000001</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.563937</v>
+        <v>0.558249</v>
       </c>
       <c r="C67" t="n">
-        <v>0.38154</v>
+        <v>0.389261</v>
       </c>
       <c r="D67" t="n">
-        <v>0.55469</v>
+        <v>0.547289</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.585421</v>
+        <v>0.581413</v>
       </c>
       <c r="C68" t="n">
-        <v>0.406099</v>
+        <v>0.408268</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5643629999999999</v>
+        <v>0.5657219999999999</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.59888</v>
+        <v>0.604831</v>
       </c>
       <c r="C69" t="n">
-        <v>0.41555</v>
+        <v>0.434834</v>
       </c>
       <c r="D69" t="n">
-        <v>0.587781</v>
+        <v>0.58014</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.62813</v>
+        <v>0.619798</v>
       </c>
       <c r="C70" t="n">
-        <v>0.437179</v>
+        <v>0.451794</v>
       </c>
       <c r="D70" t="n">
-        <v>0.58626</v>
+        <v>0.59416</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.657565</v>
+        <v>0.647849</v>
       </c>
       <c r="C71" t="n">
-        <v>0.462335</v>
+        <v>0.472095</v>
       </c>
       <c r="D71" t="n">
-        <v>0.639753</v>
+        <v>0.615295</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.688982</v>
+        <v>0.656143</v>
       </c>
       <c r="C72" t="n">
-        <v>0.485058</v>
+        <v>0.492737</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6371790000000001</v>
+        <v>0.64747</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6899420000000001</v>
+        <v>0.704603</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5033</v>
+        <v>0.517145</v>
       </c>
       <c r="D73" t="n">
-        <v>0.695858</v>
+        <v>0.679326</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.74918</v>
+        <v>0.730851</v>
       </c>
       <c r="C74" t="n">
-        <v>0.529905</v>
+        <v>0.546322</v>
       </c>
       <c r="D74" t="n">
-        <v>0.723318</v>
+        <v>0.721646</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.784934</v>
+        <v>0.783989</v>
       </c>
       <c r="C75" t="n">
-        <v>0.548506</v>
+        <v>0.569302</v>
       </c>
       <c r="D75" t="n">
-        <v>0.747926</v>
+        <v>0.7460560000000001</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>1.03845</v>
+        <v>1.03858</v>
       </c>
       <c r="C76" t="n">
-        <v>0.571226</v>
+        <v>0.591607</v>
       </c>
       <c r="D76" t="n">
-        <v>0.788776</v>
+        <v>0.788748</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.08084</v>
+        <v>1.08906</v>
       </c>
       <c r="C77" t="n">
-        <v>0.596175</v>
+        <v>0.612462</v>
       </c>
       <c r="D77" t="n">
-        <v>0.831671</v>
+        <v>0.837103</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.13733</v>
+        <v>1.14006</v>
       </c>
       <c r="C78" t="n">
-        <v>0.702702</v>
+        <v>0.722064</v>
       </c>
       <c r="D78" t="n">
-        <v>1.14943</v>
+        <v>1.16018</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.20389</v>
+        <v>1.19799</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7195240000000001</v>
+        <v>0.736608</v>
       </c>
       <c r="D79" t="n">
-        <v>1.21718</v>
+        <v>1.21288</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.2465</v>
+        <v>1.26105</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7333</v>
+        <v>0.749891</v>
       </c>
       <c r="D80" t="n">
-        <v>1.25561</v>
+        <v>1.28459</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.30208</v>
+        <v>1.32512</v>
       </c>
       <c r="C81" t="n">
-        <v>0.747774</v>
+        <v>0.764645</v>
       </c>
       <c r="D81" t="n">
-        <v>1.32085</v>
+        <v>1.33624</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.37005</v>
+        <v>1.38074</v>
       </c>
       <c r="C82" t="n">
-        <v>0.761621</v>
+        <v>0.775949</v>
       </c>
       <c r="D82" t="n">
-        <v>1.37376</v>
+        <v>1.39389</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.4288</v>
+        <v>1.44821</v>
       </c>
       <c r="C83" t="n">
-        <v>0.774451</v>
+        <v>0.791339</v>
       </c>
       <c r="D83" t="n">
-        <v>1.43274</v>
+        <v>1.45414</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.48716</v>
+        <v>1.52863</v>
       </c>
       <c r="C84" t="n">
-        <v>0.787292</v>
+        <v>0.812994</v>
       </c>
       <c r="D84" t="n">
-        <v>1.48761</v>
+        <v>1.52118</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.54608</v>
+        <v>1.56942</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8006</v>
+        <v>0.823993</v>
       </c>
       <c r="D85" t="n">
-        <v>1.53577</v>
+        <v>1.57475</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.60251</v>
+        <v>1.6294</v>
       </c>
       <c r="C86" t="n">
-        <v>0.814854</v>
+        <v>0.837851</v>
       </c>
       <c r="D86" t="n">
-        <v>1.59911</v>
+        <v>1.63201</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.65907</v>
+        <v>1.68283</v>
       </c>
       <c r="C87" t="n">
-        <v>0.828001</v>
+        <v>0.8497440000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.64982</v>
+        <v>1.68653</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.71233</v>
+        <v>1.73524</v>
       </c>
       <c r="C88" t="n">
-        <v>0.841298</v>
+        <v>0.8657319999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1.70573</v>
+        <v>1.74103</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.76989</v>
+        <v>1.79456</v>
       </c>
       <c r="C89" t="n">
-        <v>0.854556</v>
+        <v>0.878501</v>
       </c>
       <c r="D89" t="n">
-        <v>1.75874</v>
+        <v>1.79164</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.02882</v>
+        <v>2.07744</v>
       </c>
       <c r="C90" t="n">
-        <v>0.870961</v>
+        <v>0.891323</v>
       </c>
       <c r="D90" t="n">
-        <v>1.80469</v>
+        <v>1.84205</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.07239</v>
+        <v>2.11776</v>
       </c>
       <c r="C91" t="n">
-        <v>0.885204</v>
+        <v>0.905786</v>
       </c>
       <c r="D91" t="n">
-        <v>1.85929</v>
+        <v>1.89622</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.10958</v>
+        <v>2.16252</v>
       </c>
       <c r="C92" t="n">
-        <v>0.893597</v>
+        <v>0.914879</v>
       </c>
       <c r="D92" t="n">
-        <v>2.10285</v>
+        <v>2.16753</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.14209</v>
+        <v>2.19494</v>
       </c>
       <c r="C93" t="n">
-        <v>0.901004</v>
+        <v>0.925583</v>
       </c>
       <c r="D93" t="n">
-        <v>2.14159</v>
+        <v>2.20079</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.18303</v>
+        <v>2.23351</v>
       </c>
       <c r="C94" t="n">
-        <v>0.912432</v>
+        <v>0.93228</v>
       </c>
       <c r="D94" t="n">
-        <v>2.18217</v>
+        <v>2.23884</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.21349</v>
+        <v>2.26783</v>
       </c>
       <c r="C95" t="n">
-        <v>0.920825</v>
+        <v>0.938711</v>
       </c>
       <c r="D95" t="n">
-        <v>2.20554</v>
+        <v>2.25865</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.25495</v>
+        <v>2.30567</v>
       </c>
       <c r="C96" t="n">
-        <v>0.928037</v>
+        <v>0.950176</v>
       </c>
       <c r="D96" t="n">
-        <v>2.24571</v>
+        <v>2.3016</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.29139</v>
+        <v>2.33987</v>
       </c>
       <c r="C97" t="n">
-        <v>0.936663</v>
+        <v>0.958967</v>
       </c>
       <c r="D97" t="n">
-        <v>2.2815</v>
+        <v>2.3174</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.32669</v>
+        <v>2.3812</v>
       </c>
       <c r="C98" t="n">
-        <v>0.944138</v>
+        <v>0.965054</v>
       </c>
       <c r="D98" t="n">
-        <v>2.31263</v>
+        <v>2.37184</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.36588</v>
+        <v>2.41747</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9563120000000001</v>
+        <v>0.976759</v>
       </c>
       <c r="D99" t="n">
-        <v>2.34692</v>
+        <v>2.39716</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.40011</v>
+        <v>2.45001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.966452</v>
+        <v>0.987773</v>
       </c>
       <c r="D100" t="n">
-        <v>2.37229</v>
+        <v>2.41309</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.43076</v>
+        <v>2.48124</v>
       </c>
       <c r="C101" t="n">
-        <v>0.977312</v>
+        <v>0.999322</v>
       </c>
       <c r="D101" t="n">
-        <v>2.40122</v>
+        <v>2.44983</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.45958</v>
+        <v>2.51678</v>
       </c>
       <c r="C102" t="n">
-        <v>0.986605</v>
+        <v>1.0086</v>
       </c>
       <c r="D102" t="n">
-        <v>2.43297</v>
+        <v>2.48256</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.49907</v>
+        <v>2.54845</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00244</v>
+        <v>1.02397</v>
       </c>
       <c r="D103" t="n">
-        <v>2.46155</v>
+        <v>2.50443</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.5334</v>
+        <v>2.57557</v>
       </c>
       <c r="C104" t="n">
-        <v>1.01251</v>
+        <v>1.03459</v>
       </c>
       <c r="D104" t="n">
-        <v>2.47692</v>
+        <v>2.52337</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.6222</v>
+        <v>2.68506</v>
       </c>
       <c r="C105" t="n">
-        <v>1.02644</v>
+        <v>1.04424</v>
       </c>
       <c r="D105" t="n">
-        <v>2.50939</v>
+        <v>2.56136</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.64681</v>
+        <v>2.70479</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03664</v>
+        <v>1.05335</v>
       </c>
       <c r="D106" t="n">
-        <v>2.53548</v>
+        <v>2.58322</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.67245</v>
+        <v>2.72899</v>
       </c>
       <c r="C107" t="n">
-        <v>0.983912</v>
+        <v>1.00642</v>
       </c>
       <c r="D107" t="n">
-        <v>2.6753</v>
+        <v>2.71602</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.69587</v>
+        <v>2.75052</v>
       </c>
       <c r="C108" t="n">
-        <v>0.990964</v>
+        <v>1.01598</v>
       </c>
       <c r="D108" t="n">
-        <v>2.6788</v>
+        <v>2.72976</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.71402</v>
+        <v>2.76842</v>
       </c>
       <c r="C109" t="n">
-        <v>0.998615</v>
+        <v>1.02095</v>
       </c>
       <c r="D109" t="n">
-        <v>2.69779</v>
+        <v>2.75876</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.73552</v>
+        <v>2.79322</v>
       </c>
       <c r="C110" t="n">
-        <v>1.00947</v>
+        <v>1.0271</v>
       </c>
       <c r="D110" t="n">
-        <v>2.69419</v>
+        <v>2.77727</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.75591</v>
+        <v>2.81377</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01972</v>
+        <v>1.04243</v>
       </c>
       <c r="D111" t="n">
-        <v>2.73589</v>
+        <v>2.78823</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.78355</v>
+        <v>2.83738</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02859</v>
+        <v>1.05256</v>
       </c>
       <c r="D112" t="n">
-        <v>2.74736</v>
+        <v>2.80785</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.79708</v>
+        <v>2.86088</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03339</v>
+        <v>1.04869</v>
       </c>
       <c r="D113" t="n">
-        <v>2.75922</v>
+        <v>2.8192</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.82875</v>
+        <v>2.8785</v>
       </c>
       <c r="C114" t="n">
-        <v>1.04943</v>
+        <v>1.06079</v>
       </c>
       <c r="D114" t="n">
-        <v>2.77682</v>
+        <v>2.82368</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.84402</v>
+        <v>2.90259</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05934</v>
+        <v>1.07904</v>
       </c>
       <c r="D115" t="n">
-        <v>2.78324</v>
+        <v>2.83514</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.86087</v>
+        <v>2.9199</v>
       </c>
       <c r="C116" t="n">
-        <v>1.06478</v>
+        <v>1.08513</v>
       </c>
       <c r="D116" t="n">
-        <v>2.80238</v>
+        <v>2.86037</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.88646</v>
+        <v>2.93786</v>
       </c>
       <c r="C117" t="n">
-        <v>1.07745</v>
+        <v>1.09159</v>
       </c>
       <c r="D117" t="n">
-        <v>2.81336</v>
+        <v>2.86908</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.90932</v>
+        <v>2.96134</v>
       </c>
       <c r="C118" t="n">
-        <v>1.08968</v>
+        <v>1.10035</v>
       </c>
       <c r="D118" t="n">
-        <v>2.82898</v>
+        <v>2.88288</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.93145</v>
+        <v>2.96444</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10151</v>
+        <v>1.11642</v>
       </c>
       <c r="D119" t="n">
-        <v>2.83734</v>
+        <v>2.89241</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.511121</v>
+        <v>0.508345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.329139</v>
+        <v>0.328306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.354268</v>
+        <v>0.356732</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.51323</v>
+        <v>0.525467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.332857</v>
+        <v>0.334224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35884</v>
+        <v>0.3608</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.519781</v>
+        <v>0.523189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.341271</v>
+        <v>0.342924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36404</v>
+        <v>0.365045</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.534373</v>
+        <v>0.541907</v>
       </c>
       <c r="C5" t="n">
-        <v>0.346521</v>
+        <v>0.347753</v>
       </c>
       <c r="D5" t="n">
-        <v>0.374622</v>
+        <v>0.373717</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5398500000000001</v>
+        <v>0.546497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.351847</v>
+        <v>0.351561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.380771</v>
+        <v>0.378132</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.547377</v>
+        <v>0.553669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.357438</v>
+        <v>0.359894</v>
       </c>
       <c r="D7" t="n">
-        <v>0.383353</v>
+        <v>0.386174</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.551808</v>
+        <v>0.554063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362703</v>
+        <v>0.365322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.388499</v>
+        <v>0.3899</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.554098</v>
+        <v>0.557456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.371195</v>
+        <v>0.372483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.398548</v>
+        <v>0.396026</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.57213</v>
+        <v>0.57565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.375006</v>
+        <v>0.375422</v>
       </c>
       <c r="D10" t="n">
-        <v>0.404892</v>
+        <v>0.403456</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.578999</v>
+        <v>0.58218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.371676</v>
+        <v>0.373747</v>
       </c>
       <c r="D11" t="n">
-        <v>0.407499</v>
+        <v>0.408111</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.584378</v>
+        <v>0.590603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.379503</v>
+        <v>0.380942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.418866</v>
+        <v>0.413816</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.599658</v>
+        <v>0.59944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.383439</v>
+        <v>0.385576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.415494</v>
+        <v>0.417174</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599034</v>
+        <v>0.602612</v>
       </c>
       <c r="C14" t="n">
-        <v>0.383889</v>
+        <v>0.386146</v>
       </c>
       <c r="D14" t="n">
-        <v>0.425083</v>
+        <v>0.421035</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.604977</v>
+        <v>0.606998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.387579</v>
+        <v>0.390061</v>
       </c>
       <c r="D15" t="n">
-        <v>0.431786</v>
+        <v>0.427645</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.61467</v>
+        <v>0.618466</v>
       </c>
       <c r="C16" t="n">
-        <v>0.395298</v>
+        <v>0.395471</v>
       </c>
       <c r="D16" t="n">
-        <v>0.433954</v>
+        <v>0.428027</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.624739</v>
+        <v>0.626408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3982</v>
+        <v>0.399648</v>
       </c>
       <c r="D17" t="n">
-        <v>0.441001</v>
+        <v>0.434234</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.622261</v>
+        <v>0.62085</v>
       </c>
       <c r="C18" t="n">
-        <v>0.40004</v>
+        <v>0.400371</v>
       </c>
       <c r="D18" t="n">
-        <v>0.445613</v>
+        <v>0.439389</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.650137</v>
+        <v>0.64863</v>
       </c>
       <c r="C19" t="n">
-        <v>0.40406</v>
+        <v>0.404614</v>
       </c>
       <c r="D19" t="n">
-        <v>0.451243</v>
+        <v>0.442978</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.66231</v>
+        <v>0.659029</v>
       </c>
       <c r="C20" t="n">
-        <v>0.414711</v>
+        <v>0.415896</v>
       </c>
       <c r="D20" t="n">
-        <v>0.459855</v>
+        <v>0.450665</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.672466</v>
+        <v>0.666553</v>
       </c>
       <c r="C21" t="n">
-        <v>0.414147</v>
+        <v>0.413501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.462025</v>
+        <v>0.456777</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.679154</v>
+        <v>0.6715989999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.419165</v>
+        <v>0.419478</v>
       </c>
       <c r="D22" t="n">
-        <v>0.468766</v>
+        <v>0.462933</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.685495</v>
+        <v>0.684847</v>
       </c>
       <c r="C23" t="n">
-        <v>0.421466</v>
+        <v>0.42496</v>
       </c>
       <c r="D23" t="n">
-        <v>0.47319</v>
+        <v>0.466289</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.69332</v>
+        <v>0.686047</v>
       </c>
       <c r="C24" t="n">
-        <v>0.42565</v>
+        <v>0.425686</v>
       </c>
       <c r="D24" t="n">
-        <v>0.477559</v>
+        <v>0.471236</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.701017</v>
+        <v>0.694072</v>
       </c>
       <c r="C25" t="n">
-        <v>0.435264</v>
+        <v>0.433977</v>
       </c>
       <c r="D25" t="n">
-        <v>0.486859</v>
+        <v>0.474329</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.703701</v>
+        <v>0.699943</v>
       </c>
       <c r="C26" t="n">
-        <v>0.431457</v>
+        <v>0.430439</v>
       </c>
       <c r="D26" t="n">
-        <v>0.490683</v>
+        <v>0.479112</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7191109999999999</v>
+        <v>0.710413</v>
       </c>
       <c r="C27" t="n">
-        <v>0.440312</v>
+        <v>0.438279</v>
       </c>
       <c r="D27" t="n">
-        <v>0.495219</v>
+        <v>0.482085</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.720726</v>
+        <v>0.718596</v>
       </c>
       <c r="C28" t="n">
-        <v>0.446901</v>
+        <v>0.445196</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5006620000000001</v>
+        <v>0.48819</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.732954</v>
+        <v>0.725909</v>
       </c>
       <c r="C29" t="n">
-        <v>0.450141</v>
+        <v>0.448813</v>
       </c>
       <c r="D29" t="n">
-        <v>0.504772</v>
+        <v>0.493039</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7349059999999999</v>
+        <v>0.728537</v>
       </c>
       <c r="C30" t="n">
-        <v>0.454578</v>
+        <v>0.451601</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5081830000000001</v>
+        <v>0.49674</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.743083</v>
+        <v>0.738812</v>
       </c>
       <c r="C31" t="n">
-        <v>0.454938</v>
+        <v>0.454722</v>
       </c>
       <c r="D31" t="n">
-        <v>0.513176</v>
+        <v>0.502252</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.732578</v>
+        <v>0.729814</v>
       </c>
       <c r="C32" t="n">
-        <v>0.45815</v>
+        <v>0.45982</v>
       </c>
       <c r="D32" t="n">
-        <v>0.515413</v>
+        <v>0.503401</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.746452</v>
+        <v>0.735783</v>
       </c>
       <c r="C33" t="n">
-        <v>0.463546</v>
+        <v>0.463004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.520337</v>
+        <v>0.510244</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.750874</v>
+        <v>0.746264</v>
       </c>
       <c r="C34" t="n">
-        <v>0.472052</v>
+        <v>0.470985</v>
       </c>
       <c r="D34" t="n">
-        <v>0.523386</v>
+        <v>0.5142060000000001</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.755812</v>
+        <v>0.747978</v>
       </c>
       <c r="C35" t="n">
-        <v>0.445856</v>
+        <v>0.444614</v>
       </c>
       <c r="D35" t="n">
-        <v>0.521194</v>
+        <v>0.51346</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7633450000000001</v>
+        <v>0.755026</v>
       </c>
       <c r="C36" t="n">
-        <v>0.451227</v>
+        <v>0.451274</v>
       </c>
       <c r="D36" t="n">
-        <v>0.527566</v>
+        <v>0.518997</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7716730000000001</v>
+        <v>0.762458</v>
       </c>
       <c r="C37" t="n">
-        <v>0.454264</v>
+        <v>0.453635</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5311129999999999</v>
+        <v>0.520115</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7738</v>
+        <v>0.76855</v>
       </c>
       <c r="C38" t="n">
-        <v>0.453234</v>
+        <v>0.455912</v>
       </c>
       <c r="D38" t="n">
-        <v>0.53604</v>
+        <v>0.523894</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.76284</v>
+        <v>0.740709</v>
       </c>
       <c r="C39" t="n">
-        <v>0.457997</v>
+        <v>0.458141</v>
       </c>
       <c r="D39" t="n">
-        <v>0.539281</v>
+        <v>0.529732</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7844410000000001</v>
+        <v>0.780376</v>
       </c>
       <c r="C40" t="n">
-        <v>0.461765</v>
+        <v>0.460546</v>
       </c>
       <c r="D40" t="n">
-        <v>0.540392</v>
+        <v>0.529535</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.794308</v>
+        <v>0.788436</v>
       </c>
       <c r="C41" t="n">
-        <v>0.465502</v>
+        <v>0.465111</v>
       </c>
       <c r="D41" t="n">
-        <v>0.543493</v>
+        <v>0.5311129999999999</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.80035</v>
+        <v>0.7924600000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.465586</v>
+        <v>0.465244</v>
       </c>
       <c r="D42" t="n">
-        <v>0.546587</v>
+        <v>0.5349159999999999</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.793984</v>
+        <v>0.795051</v>
       </c>
       <c r="C43" t="n">
-        <v>0.466196</v>
+        <v>0.467191</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5449349999999999</v>
+        <v>0.542458</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.794662</v>
+        <v>0.800449</v>
       </c>
       <c r="C44" t="n">
-        <v>0.469543</v>
+        <v>0.47061</v>
       </c>
       <c r="D44" t="n">
-        <v>0.546019</v>
+        <v>0.5405450000000001</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.802777</v>
+        <v>0.810095</v>
       </c>
       <c r="C45" t="n">
-        <v>0.472037</v>
+        <v>0.473984</v>
       </c>
       <c r="D45" t="n">
-        <v>0.547892</v>
+        <v>0.542309</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.803902</v>
+        <v>0.81303</v>
       </c>
       <c r="C46" t="n">
-        <v>0.472017</v>
+        <v>0.474835</v>
       </c>
       <c r="D46" t="n">
-        <v>0.556167</v>
+        <v>0.5495409999999999</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.783977</v>
+        <v>0.784498</v>
       </c>
       <c r="C47" t="n">
-        <v>0.474582</v>
+        <v>0.475789</v>
       </c>
       <c r="D47" t="n">
-        <v>0.553508</v>
+        <v>0.549698</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.792273</v>
+        <v>0.794149</v>
       </c>
       <c r="C48" t="n">
-        <v>0.480364</v>
+        <v>0.483123</v>
       </c>
       <c r="D48" t="n">
-        <v>0.554978</v>
+        <v>0.552372</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7925410000000001</v>
+        <v>0.79328</v>
       </c>
       <c r="C49" t="n">
-        <v>0.483501</v>
+        <v>0.485833</v>
       </c>
       <c r="D49" t="n">
-        <v>0.559562</v>
+        <v>0.554397</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.797454</v>
+        <v>0.797482</v>
       </c>
       <c r="C50" t="n">
-        <v>0.474252</v>
+        <v>0.474901</v>
       </c>
       <c r="D50" t="n">
-        <v>0.557969</v>
+        <v>0.550619</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.800264</v>
+        <v>0.802443</v>
       </c>
       <c r="C51" t="n">
-        <v>0.474401</v>
+        <v>0.47508</v>
       </c>
       <c r="D51" t="n">
-        <v>0.561038</v>
+        <v>0.5538650000000001</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8031509999999999</v>
+        <v>0.805851</v>
       </c>
       <c r="C52" t="n">
-        <v>0.481326</v>
+        <v>0.48082</v>
       </c>
       <c r="D52" t="n">
-        <v>0.562187</v>
+        <v>0.555115</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.808152</v>
+        <v>0.810341</v>
       </c>
       <c r="C53" t="n">
-        <v>0.481373</v>
+        <v>0.482401</v>
       </c>
       <c r="D53" t="n">
-        <v>0.564693</v>
+        <v>0.557325</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.81137</v>
+        <v>0.81333</v>
       </c>
       <c r="C54" t="n">
-        <v>0.485056</v>
+        <v>0.485318</v>
       </c>
       <c r="D54" t="n">
-        <v>0.567229</v>
+        <v>0.559026</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.816433</v>
+        <v>0.823007</v>
       </c>
       <c r="C55" t="n">
-        <v>0.489788</v>
+        <v>0.489977</v>
       </c>
       <c r="D55" t="n">
-        <v>0.567937</v>
+        <v>0.561459</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.820476</v>
+        <v>0.825092</v>
       </c>
       <c r="C56" t="n">
-        <v>0.48792</v>
+        <v>0.488539</v>
       </c>
       <c r="D56" t="n">
-        <v>0.56917</v>
+        <v>0.56367</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.826285</v>
+        <v>0.831412</v>
       </c>
       <c r="C57" t="n">
-        <v>0.501186</v>
+        <v>0.494876</v>
       </c>
       <c r="D57" t="n">
-        <v>0.569771</v>
+        <v>0.565663</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.791465</v>
+        <v>0.826912</v>
       </c>
       <c r="C58" t="n">
-        <v>0.506096</v>
+        <v>0.505009</v>
       </c>
       <c r="D58" t="n">
-        <v>0.576628</v>
+        <v>0.566048</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.831521</v>
+        <v>0.834032</v>
       </c>
       <c r="C59" t="n">
-        <v>0.511379</v>
+        <v>0.513172</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5760150000000001</v>
+        <v>0.570343</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.838593</v>
+        <v>0.839482</v>
       </c>
       <c r="C60" t="n">
-        <v>0.516132</v>
+        <v>0.5174339999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.575126</v>
+        <v>0.569288</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.835153</v>
+        <v>0.839595</v>
       </c>
       <c r="C61" t="n">
-        <v>0.521676</v>
+        <v>0.525308</v>
       </c>
       <c r="D61" t="n">
-        <v>0.582964</v>
+        <v>0.57199</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8494699999999999</v>
+        <v>0.8494390000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.530841</v>
+        <v>0.535104</v>
       </c>
       <c r="D62" t="n">
-        <v>0.578718</v>
+        <v>0.57628</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.857363</v>
+        <v>0.840436</v>
       </c>
       <c r="C63" t="n">
-        <v>0.540007</v>
+        <v>0.542833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.581547</v>
+        <v>0.5764280000000001</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.870752</v>
+        <v>0.872073</v>
       </c>
       <c r="C64" t="n">
-        <v>0.591704</v>
+        <v>0.590521</v>
       </c>
       <c r="D64" t="n">
-        <v>0.625535</v>
+        <v>0.620651</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.889422</v>
+        <v>0.891641</v>
       </c>
       <c r="C65" t="n">
-        <v>0.612893</v>
+        <v>0.6061299999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.631677</v>
+        <v>0.634319</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.909089</v>
+        <v>0.924995</v>
       </c>
       <c r="C66" t="n">
-        <v>0.63692</v>
+        <v>0.62843</v>
       </c>
       <c r="D66" t="n">
-        <v>0.643021</v>
+        <v>0.647751</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.930546</v>
+        <v>0.949052</v>
       </c>
       <c r="C67" t="n">
-        <v>0.665133</v>
+        <v>0.656518</v>
       </c>
       <c r="D67" t="n">
-        <v>0.654753</v>
+        <v>0.652981</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.955443</v>
+        <v>0.959438</v>
       </c>
       <c r="C68" t="n">
-        <v>0.686198</v>
+        <v>0.6815</v>
       </c>
       <c r="D68" t="n">
-        <v>0.671365</v>
+        <v>0.6720699999999999</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.980047</v>
+        <v>0.992525</v>
       </c>
       <c r="C69" t="n">
-        <v>0.714232</v>
+        <v>0.719214</v>
       </c>
       <c r="D69" t="n">
-        <v>0.693787</v>
+        <v>0.691325</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01677</v>
+        <v>1.01176</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7429480000000001</v>
+        <v>0.749376</v>
       </c>
       <c r="D70" t="n">
-        <v>0.720862</v>
+        <v>0.7199680000000001</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.05518</v>
+        <v>1.05606</v>
       </c>
       <c r="C71" t="n">
-        <v>0.788764</v>
+        <v>0.779382</v>
       </c>
       <c r="D71" t="n">
-        <v>0.741735</v>
+        <v>0.740159</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08042</v>
+        <v>1.08763</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8168609999999999</v>
+        <v>0.82531</v>
       </c>
       <c r="D72" t="n">
-        <v>0.764045</v>
+        <v>0.758217</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12041</v>
+        <v>1.11848</v>
       </c>
       <c r="C73" t="n">
-        <v>0.853633</v>
+        <v>0.856387</v>
       </c>
       <c r="D73" t="n">
-        <v>0.789122</v>
+        <v>0.788287</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.15659</v>
+        <v>1.15908</v>
       </c>
       <c r="C74" t="n">
-        <v>0.898826</v>
+        <v>0.901207</v>
       </c>
       <c r="D74" t="n">
-        <v>0.829685</v>
+        <v>0.82418</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21915</v>
+        <v>1.21298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9381119999999999</v>
+        <v>0.94172</v>
       </c>
       <c r="D75" t="n">
-        <v>0.840205</v>
+        <v>0.866801</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.39598</v>
+        <v>1.44076</v>
       </c>
       <c r="C76" t="n">
-        <v>0.976977</v>
+        <v>0.9932879999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.894617</v>
+        <v>0.927331</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.48933</v>
+        <v>1.50999</v>
       </c>
       <c r="C77" t="n">
-        <v>1.01898</v>
+        <v>1.03406</v>
       </c>
       <c r="D77" t="n">
-        <v>0.940319</v>
+        <v>0.939801</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.56925</v>
+        <v>1.59132</v>
       </c>
       <c r="C78" t="n">
-        <v>1.20118</v>
+        <v>1.22306</v>
       </c>
       <c r="D78" t="n">
-        <v>1.10499</v>
+        <v>1.13407</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.64892</v>
+        <v>1.68447</v>
       </c>
       <c r="C79" t="n">
-        <v>1.25062</v>
+        <v>1.27491</v>
       </c>
       <c r="D79" t="n">
-        <v>1.17484</v>
+        <v>1.19635</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.7452</v>
+        <v>1.7892</v>
       </c>
       <c r="C80" t="n">
-        <v>1.2954</v>
+        <v>1.32198</v>
       </c>
       <c r="D80" t="n">
-        <v>1.23768</v>
+        <v>1.25333</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.84462</v>
+        <v>1.85558</v>
       </c>
       <c r="C81" t="n">
-        <v>1.33919</v>
+        <v>1.36285</v>
       </c>
       <c r="D81" t="n">
-        <v>1.29681</v>
+        <v>1.32398</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.93975</v>
+        <v>1.97947</v>
       </c>
       <c r="C82" t="n">
-        <v>1.39073</v>
+        <v>1.41133</v>
       </c>
       <c r="D82" t="n">
-        <v>1.37263</v>
+        <v>1.37841</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.04888</v>
+        <v>2.07408</v>
       </c>
       <c r="C83" t="n">
-        <v>1.42964</v>
+        <v>1.46453</v>
       </c>
       <c r="D83" t="n">
-        <v>1.43962</v>
+        <v>1.46076</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.15875</v>
+        <v>2.20999</v>
       </c>
       <c r="C84" t="n">
-        <v>1.48346</v>
+        <v>1.49924</v>
       </c>
       <c r="D84" t="n">
-        <v>1.51315</v>
+        <v>1.52088</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.26716</v>
+        <v>2.28685</v>
       </c>
       <c r="C85" t="n">
-        <v>1.52952</v>
+        <v>1.55557</v>
       </c>
       <c r="D85" t="n">
-        <v>1.58673</v>
+        <v>1.60472</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.37351</v>
+        <v>2.42131</v>
       </c>
       <c r="C86" t="n">
-        <v>1.57552</v>
+        <v>1.59924</v>
       </c>
       <c r="D86" t="n">
-        <v>1.65098</v>
+        <v>1.66169</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.46745</v>
+        <v>2.51812</v>
       </c>
       <c r="C87" t="n">
-        <v>1.62076</v>
+        <v>1.64918</v>
       </c>
       <c r="D87" t="n">
-        <v>1.72358</v>
+        <v>1.73529</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.57782</v>
+        <v>2.6283</v>
       </c>
       <c r="C88" t="n">
-        <v>1.66367</v>
+        <v>1.69486</v>
       </c>
       <c r="D88" t="n">
-        <v>1.79681</v>
+        <v>1.80843</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.69385</v>
+        <v>2.75226</v>
       </c>
       <c r="C89" t="n">
-        <v>1.71477</v>
+        <v>1.75106</v>
       </c>
       <c r="D89" t="n">
-        <v>1.86575</v>
+        <v>1.87469</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.92262</v>
+        <v>2.98813</v>
       </c>
       <c r="C90" t="n">
-        <v>1.76606</v>
+        <v>1.79771</v>
       </c>
       <c r="D90" t="n">
-        <v>1.93573</v>
+        <v>1.94372</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.0179</v>
+        <v>3.08025</v>
       </c>
       <c r="C91" t="n">
-        <v>1.81562</v>
+        <v>1.85123</v>
       </c>
       <c r="D91" t="n">
-        <v>2.00089</v>
+        <v>2.01745</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.10783</v>
+        <v>3.17284</v>
       </c>
       <c r="C92" t="n">
-        <v>1.91594</v>
+        <v>1.95684</v>
       </c>
       <c r="D92" t="n">
-        <v>2.14667</v>
+        <v>2.16582</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.20067</v>
+        <v>3.27644</v>
       </c>
       <c r="C93" t="n">
-        <v>1.96326</v>
+        <v>2.00342</v>
       </c>
       <c r="D93" t="n">
-        <v>2.19988</v>
+        <v>2.22089</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.28153</v>
+        <v>3.36363</v>
       </c>
       <c r="C94" t="n">
-        <v>1.99706</v>
+        <v>2.03953</v>
       </c>
       <c r="D94" t="n">
-        <v>2.2669</v>
+        <v>2.2839</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.37492</v>
+        <v>3.35223</v>
       </c>
       <c r="C95" t="n">
-        <v>2.03157</v>
+        <v>2.07567</v>
       </c>
       <c r="D95" t="n">
-        <v>2.31888</v>
+        <v>2.35831</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.45939</v>
+        <v>3.34638</v>
       </c>
       <c r="C96" t="n">
-        <v>2.07091</v>
+        <v>2.11998</v>
       </c>
       <c r="D96" t="n">
-        <v>2.38443</v>
+        <v>2.40236</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.54931</v>
+        <v>3.63447</v>
       </c>
       <c r="C97" t="n">
-        <v>2.11143</v>
+        <v>2.1407</v>
       </c>
       <c r="D97" t="n">
-        <v>2.43422</v>
+        <v>2.47859</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.54841</v>
+        <v>3.71076</v>
       </c>
       <c r="C98" t="n">
-        <v>2.13281</v>
+        <v>2.18054</v>
       </c>
       <c r="D98" t="n">
-        <v>2.49048</v>
+        <v>2.50877</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.70792</v>
+        <v>3.79195</v>
       </c>
       <c r="C99" t="n">
-        <v>2.15488</v>
+        <v>2.21797</v>
       </c>
       <c r="D99" t="n">
-        <v>2.51573</v>
+        <v>2.56551</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.76505</v>
+        <v>3.85937</v>
       </c>
       <c r="C100" t="n">
-        <v>2.19675</v>
+        <v>2.26089</v>
       </c>
       <c r="D100" t="n">
-        <v>2.58646</v>
+        <v>2.59652</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.83467</v>
+        <v>3.92204</v>
       </c>
       <c r="C101" t="n">
-        <v>2.24063</v>
+        <v>2.29487</v>
       </c>
       <c r="D101" t="n">
-        <v>2.63196</v>
+        <v>2.64411</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.90246</v>
+        <v>3.99006</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29345</v>
+        <v>2.32483</v>
       </c>
       <c r="D102" t="n">
-        <v>2.66177</v>
+        <v>2.72567</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.98888</v>
+        <v>4.06682</v>
       </c>
       <c r="C103" t="n">
-        <v>2.31332</v>
+        <v>2.36898</v>
       </c>
       <c r="D103" t="n">
-        <v>2.70129</v>
+        <v>2.74784</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.04541</v>
+        <v>4.16397</v>
       </c>
       <c r="C104" t="n">
-        <v>2.35537</v>
+        <v>2.3996</v>
       </c>
       <c r="D104" t="n">
-        <v>2.74222</v>
+        <v>2.79276</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.08492</v>
+        <v>4.1948</v>
       </c>
       <c r="C105" t="n">
-        <v>2.39028</v>
+        <v>2.43953</v>
       </c>
       <c r="D105" t="n">
-        <v>2.78693</v>
+        <v>2.83261</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.15535</v>
+        <v>4.26595</v>
       </c>
       <c r="C106" t="n">
-        <v>2.42964</v>
+        <v>2.48818</v>
       </c>
       <c r="D106" t="n">
-        <v>2.8388</v>
+        <v>2.85686</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21871</v>
+        <v>4.27954</v>
       </c>
       <c r="C107" t="n">
-        <v>2.41814</v>
+        <v>2.46595</v>
       </c>
       <c r="D107" t="n">
-        <v>2.91713</v>
+        <v>2.95049</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.27209</v>
+        <v>4.38583</v>
       </c>
       <c r="C108" t="n">
-        <v>2.43002</v>
+        <v>2.50181</v>
       </c>
       <c r="D108" t="n">
-        <v>2.95904</v>
+        <v>2.9872</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.31937</v>
+        <v>4.43932</v>
       </c>
       <c r="C109" t="n">
-        <v>2.4649</v>
+        <v>2.53425</v>
       </c>
       <c r="D109" t="n">
-        <v>2.97621</v>
+        <v>3.02031</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.39412</v>
+        <v>4.50715</v>
       </c>
       <c r="C110" t="n">
-        <v>2.4879</v>
+        <v>2.55506</v>
       </c>
       <c r="D110" t="n">
-        <v>3.02735</v>
+        <v>3.06406</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.40086</v>
+        <v>4.51946</v>
       </c>
       <c r="C111" t="n">
-        <v>2.51562</v>
+        <v>2.57589</v>
       </c>
       <c r="D111" t="n">
-        <v>3.05733</v>
+        <v>3.07569</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.2173</v>
+        <v>4.32519</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55507</v>
+        <v>2.6149</v>
       </c>
       <c r="D112" t="n">
-        <v>3.08707</v>
+        <v>3.1285</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.51278</v>
+        <v>4.66716</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57764</v>
+        <v>2.64549</v>
       </c>
       <c r="D113" t="n">
-        <v>3.1042</v>
+        <v>3.16896</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.61066</v>
+        <v>4.74026</v>
       </c>
       <c r="C114" t="n">
-        <v>2.60653</v>
+        <v>2.66537</v>
       </c>
       <c r="D114" t="n">
-        <v>3.14406</v>
+        <v>3.18352</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.66629</v>
+        <v>4.79934</v>
       </c>
       <c r="C115" t="n">
-        <v>2.64137</v>
+        <v>2.70598</v>
       </c>
       <c r="D115" t="n">
-        <v>3.16978</v>
+        <v>3.21167</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.70065</v>
+        <v>4.83689</v>
       </c>
       <c r="C116" t="n">
-        <v>2.66459</v>
+        <v>2.73401</v>
       </c>
       <c r="D116" t="n">
-        <v>3.18842</v>
+        <v>3.22216</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.77588</v>
+        <v>4.90588</v>
       </c>
       <c r="C117" t="n">
-        <v>2.69925</v>
+        <v>2.75604</v>
       </c>
       <c r="D117" t="n">
-        <v>3.22079</v>
+        <v>3.26255</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.81017</v>
+        <v>4.96654</v>
       </c>
       <c r="C118" t="n">
-        <v>2.73246</v>
+        <v>2.79046</v>
       </c>
       <c r="D118" t="n">
-        <v>3.23498</v>
+        <v>3.29466</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.74669</v>
+        <v>4.85716</v>
       </c>
       <c r="C119" t="n">
-        <v>2.75981</v>
+        <v>2.82125</v>
       </c>
       <c r="D119" t="n">
-        <v>3.23735</v>
+        <v>3.30572</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.527981</v>
+        <v>0.532933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.343648</v>
+        <v>0.342308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.347849</v>
+        <v>0.349816</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.536653</v>
+        <v>0.541532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.349811</v>
+        <v>0.347859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.354302</v>
+        <v>0.354026</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.543818</v>
+        <v>0.5483980000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3559</v>
+        <v>0.354972</v>
       </c>
       <c r="D4" t="n">
-        <v>0.357338</v>
+        <v>0.358694</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.554018</v>
+        <v>0.557731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.361761</v>
+        <v>0.360838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.363053</v>
+        <v>0.364633</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.562454</v>
+        <v>0.566342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.369061</v>
+        <v>0.367483</v>
       </c>
       <c r="D6" t="n">
-        <v>0.365521</v>
+        <v>0.366071</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.575701</v>
+        <v>0.577516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.377653</v>
+        <v>0.373634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.373195</v>
+        <v>0.371801</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5869490000000001</v>
+        <v>0.585288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.384147</v>
+        <v>0.380688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.379566</v>
+        <v>0.375031</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.601316</v>
+        <v>0.597449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.392693</v>
+        <v>0.389663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.387069</v>
+        <v>0.382663</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6158670000000001</v>
+        <v>0.6124579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.404402</v>
+        <v>0.402455</v>
       </c>
       <c r="D10" t="n">
-        <v>0.392029</v>
+        <v>0.387157</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.625989</v>
+        <v>0.622856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.394508</v>
+        <v>0.389802</v>
       </c>
       <c r="D11" t="n">
-        <v>0.403414</v>
+        <v>0.395048</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.617085</v>
+        <v>0.611077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.398116</v>
+        <v>0.393824</v>
       </c>
       <c r="D12" t="n">
-        <v>0.411631</v>
+        <v>0.402256</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.629209</v>
+        <v>0.618011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.404053</v>
+        <v>0.399041</v>
       </c>
       <c r="D13" t="n">
-        <v>0.414037</v>
+        <v>0.40422</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.642745</v>
+        <v>0.628868</v>
       </c>
       <c r="C14" t="n">
-        <v>0.413608</v>
+        <v>0.408002</v>
       </c>
       <c r="D14" t="n">
-        <v>0.421531</v>
+        <v>0.408436</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.658137</v>
+        <v>0.641614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.422547</v>
+        <v>0.416533</v>
       </c>
       <c r="D15" t="n">
-        <v>0.427615</v>
+        <v>0.414428</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.667838</v>
+        <v>0.653432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.432608</v>
+        <v>0.425565</v>
       </c>
       <c r="D16" t="n">
-        <v>0.432588</v>
+        <v>0.419471</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.677824</v>
+        <v>0.660837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.441616</v>
+        <v>0.434101</v>
       </c>
       <c r="D17" t="n">
-        <v>0.439234</v>
+        <v>0.426864</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.682878</v>
+        <v>0.666686</v>
       </c>
       <c r="C18" t="n">
-        <v>0.442976</v>
+        <v>0.437321</v>
       </c>
       <c r="D18" t="n">
-        <v>0.447964</v>
+        <v>0.436828</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.709072</v>
+        <v>0.692155</v>
       </c>
       <c r="C19" t="n">
-        <v>0.460757</v>
+        <v>0.453638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.451181</v>
+        <v>0.437814</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.724003</v>
+        <v>0.705665</v>
       </c>
       <c r="C20" t="n">
-        <v>0.465688</v>
+        <v>0.458428</v>
       </c>
       <c r="D20" t="n">
-        <v>0.455532</v>
+        <v>0.444688</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.731748</v>
+        <v>0.712844</v>
       </c>
       <c r="C21" t="n">
-        <v>0.478496</v>
+        <v>0.46989</v>
       </c>
       <c r="D21" t="n">
-        <v>0.462879</v>
+        <v>0.451389</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.737905</v>
+        <v>0.724811</v>
       </c>
       <c r="C22" t="n">
-        <v>0.480507</v>
+        <v>0.476015</v>
       </c>
       <c r="D22" t="n">
-        <v>0.463342</v>
+        <v>0.456903</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.755502</v>
+        <v>0.741014</v>
       </c>
       <c r="C23" t="n">
-        <v>0.496554</v>
+        <v>0.490097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.466717</v>
+        <v>0.458201</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.767962</v>
+        <v>0.757467</v>
       </c>
       <c r="C24" t="n">
-        <v>0.499229</v>
+        <v>0.495422</v>
       </c>
       <c r="D24" t="n">
-        <v>0.47391</v>
+        <v>0.467981</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.786636</v>
+        <v>0.776084</v>
       </c>
       <c r="C25" t="n">
-        <v>0.516831</v>
+        <v>0.5122679999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.479305</v>
+        <v>0.470521</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.800606</v>
+        <v>0.793066</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4599</v>
+        <v>0.460919</v>
       </c>
       <c r="D26" t="n">
-        <v>0.477788</v>
+        <v>0.477738</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.745772</v>
+        <v>0.744667</v>
       </c>
       <c r="C27" t="n">
-        <v>0.463337</v>
+        <v>0.464245</v>
       </c>
       <c r="D27" t="n">
-        <v>0.484278</v>
+        <v>0.483091</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.751482</v>
+        <v>0.758584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.468996</v>
+        <v>0.471979</v>
       </c>
       <c r="D28" t="n">
-        <v>0.491439</v>
+        <v>0.487352</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.769214</v>
+        <v>0.764548</v>
       </c>
       <c r="C29" t="n">
-        <v>0.473273</v>
+        <v>0.475594</v>
       </c>
       <c r="D29" t="n">
-        <v>0.493159</v>
+        <v>0.491187</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.779386</v>
+        <v>0.775931</v>
       </c>
       <c r="C30" t="n">
-        <v>0.482865</v>
+        <v>0.484318</v>
       </c>
       <c r="D30" t="n">
-        <v>0.496577</v>
+        <v>0.497144</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.791531</v>
+        <v>0.789002</v>
       </c>
       <c r="C31" t="n">
-        <v>0.490302</v>
+        <v>0.491873</v>
       </c>
       <c r="D31" t="n">
-        <v>0.498895</v>
+        <v>0.500939</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.805879</v>
+        <v>0.7995409999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.497934</v>
+        <v>0.500094</v>
       </c>
       <c r="D32" t="n">
-        <v>0.509974</v>
+        <v>0.499921</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.815119</v>
+        <v>0.817435</v>
       </c>
       <c r="C33" t="n">
-        <v>0.507256</v>
+        <v>0.507436</v>
       </c>
       <c r="D33" t="n">
-        <v>0.509556</v>
+        <v>0.507371</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8281809999999999</v>
+        <v>0.825578</v>
       </c>
       <c r="C34" t="n">
-        <v>0.515492</v>
+        <v>0.522034</v>
       </c>
       <c r="D34" t="n">
-        <v>0.513918</v>
+        <v>0.5129050000000001</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8407210000000001</v>
+        <v>0.8429219999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.524182</v>
+        <v>0.528216</v>
       </c>
       <c r="D35" t="n">
-        <v>0.52086</v>
+        <v>0.518079</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.854452</v>
+        <v>0.852895</v>
       </c>
       <c r="C36" t="n">
-        <v>0.535067</v>
+        <v>0.5371050000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5216730000000001</v>
+        <v>0.521503</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8601490000000001</v>
+        <v>0.865005</v>
       </c>
       <c r="C37" t="n">
-        <v>0.548516</v>
+        <v>0.547745</v>
       </c>
       <c r="D37" t="n">
-        <v>0.525607</v>
+        <v>0.523806</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.874738</v>
+        <v>0.872602</v>
       </c>
       <c r="C38" t="n">
-        <v>0.55989</v>
+        <v>0.560222</v>
       </c>
       <c r="D38" t="n">
-        <v>0.52929</v>
+        <v>0.5260590000000001</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.894992</v>
+        <v>0.898725</v>
       </c>
       <c r="C39" t="n">
-        <v>0.565629</v>
+        <v>0.570014</v>
       </c>
       <c r="D39" t="n">
-        <v>0.530552</v>
+        <v>0.52907</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.899537</v>
+        <v>0.901948</v>
       </c>
       <c r="C40" t="n">
-        <v>0.517661</v>
+        <v>0.522465</v>
       </c>
       <c r="D40" t="n">
-        <v>0.536953</v>
+        <v>0.535154</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.85395</v>
+        <v>0.855945</v>
       </c>
       <c r="C41" t="n">
-        <v>0.524433</v>
+        <v>0.527307</v>
       </c>
       <c r="D41" t="n">
-        <v>0.540979</v>
+        <v>0.53655</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.860747</v>
+        <v>0.857699</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5312750000000001</v>
+        <v>0.534935</v>
       </c>
       <c r="D42" t="n">
-        <v>0.544485</v>
+        <v>0.54267</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.867191</v>
+        <v>0.872364</v>
       </c>
       <c r="C43" t="n">
-        <v>0.536066</v>
+        <v>0.540317</v>
       </c>
       <c r="D43" t="n">
-        <v>0.548086</v>
+        <v>0.546185</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.875315</v>
+        <v>0.880057</v>
       </c>
       <c r="C44" t="n">
-        <v>0.549065</v>
+        <v>0.552929</v>
       </c>
       <c r="D44" t="n">
-        <v>0.550861</v>
+        <v>0.547886</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.887871</v>
+        <v>0.89396</v>
       </c>
       <c r="C45" t="n">
-        <v>0.551135</v>
+        <v>0.556505</v>
       </c>
       <c r="D45" t="n">
-        <v>0.55096</v>
+        <v>0.548883</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8964490000000001</v>
+        <v>0.901219</v>
       </c>
       <c r="C46" t="n">
-        <v>0.56329</v>
+        <v>0.568223</v>
       </c>
       <c r="D46" t="n">
-        <v>0.557486</v>
+        <v>0.552188</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.907905</v>
+        <v>0.911835</v>
       </c>
       <c r="C47" t="n">
-        <v>0.571582</v>
+        <v>0.575695</v>
       </c>
       <c r="D47" t="n">
-        <v>0.553534</v>
+        <v>0.55521</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.918035</v>
+        <v>0.922311</v>
       </c>
       <c r="C48" t="n">
-        <v>0.576933</v>
+        <v>0.581288</v>
       </c>
       <c r="D48" t="n">
-        <v>0.558638</v>
+        <v>0.556037</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.925508</v>
+        <v>0.930016</v>
       </c>
       <c r="C49" t="n">
-        <v>0.587266</v>
+        <v>0.592078</v>
       </c>
       <c r="D49" t="n">
-        <v>0.561144</v>
+        <v>0.560933</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.939461</v>
+        <v>0.939547</v>
       </c>
       <c r="C50" t="n">
-        <v>0.593202</v>
+        <v>0.598253</v>
       </c>
       <c r="D50" t="n">
-        <v>0.561493</v>
+        <v>0.562647</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.949616</v>
+        <v>0.954089</v>
       </c>
       <c r="C51" t="n">
-        <v>0.603451</v>
+        <v>0.609425</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5665480000000001</v>
+        <v>0.5649</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9627599999999999</v>
+        <v>0.966898</v>
       </c>
       <c r="C52" t="n">
-        <v>0.617582</v>
+        <v>0.621556</v>
       </c>
       <c r="D52" t="n">
-        <v>0.570553</v>
+        <v>0.564715</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.971512</v>
+        <v>0.97372</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6261060000000001</v>
+        <v>0.630398</v>
       </c>
       <c r="D53" t="n">
-        <v>0.571729</v>
+        <v>0.568682</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.98445</v>
+        <v>0.988399</v>
       </c>
       <c r="C54" t="n">
-        <v>0.559449</v>
+        <v>0.564155</v>
       </c>
       <c r="D54" t="n">
-        <v>0.572771</v>
+        <v>0.57026</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.996991</v>
+        <v>1.00146</v>
       </c>
       <c r="C55" t="n">
-        <v>0.565436</v>
+        <v>0.568781</v>
       </c>
       <c r="D55" t="n">
-        <v>0.573313</v>
+        <v>0.569975</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.91621</v>
+        <v>0.919077</v>
       </c>
       <c r="C56" t="n">
-        <v>0.574781</v>
+        <v>0.577047</v>
       </c>
       <c r="D56" t="n">
-        <v>0.573621</v>
+        <v>0.572049</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.921701</v>
+        <v>0.925581</v>
       </c>
       <c r="C57" t="n">
-        <v>0.580659</v>
+        <v>0.583676</v>
       </c>
       <c r="D57" t="n">
-        <v>0.572429</v>
+        <v>0.574121</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.931542</v>
+        <v>0.934881</v>
       </c>
       <c r="C58" t="n">
-        <v>0.589214</v>
+        <v>0.591244</v>
       </c>
       <c r="D58" t="n">
-        <v>0.576178</v>
+        <v>0.575194</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.938665</v>
+        <v>0.942658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.598299</v>
+        <v>0.59687</v>
       </c>
       <c r="D59" t="n">
-        <v>0.578352</v>
+        <v>0.576461</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.94241</v>
+        <v>0.949292</v>
       </c>
       <c r="C60" t="n">
-        <v>0.607013</v>
+        <v>0.607818</v>
       </c>
       <c r="D60" t="n">
-        <v>0.577978</v>
+        <v>0.579403</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.954141</v>
+        <v>0.956683</v>
       </c>
       <c r="C61" t="n">
-        <v>0.615351</v>
+        <v>0.617403</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5802929999999999</v>
+        <v>0.582443</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.958122</v>
+        <v>0.965986</v>
       </c>
       <c r="C62" t="n">
-        <v>0.629155</v>
+        <v>0.627316</v>
       </c>
       <c r="D62" t="n">
-        <v>0.584392</v>
+        <v>0.580691</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.972804</v>
+        <v>0.977308</v>
       </c>
       <c r="C63" t="n">
-        <v>0.642968</v>
+        <v>0.642958</v>
       </c>
       <c r="D63" t="n">
-        <v>0.583757</v>
+        <v>0.5848</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.976502</v>
+        <v>0.985878</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6563099999999999</v>
+        <v>0.6573600000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.585128</v>
+        <v>0.582898</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.990888</v>
+        <v>0.999792</v>
       </c>
       <c r="C65" t="n">
-        <v>0.673197</v>
+        <v>0.673224</v>
       </c>
       <c r="D65" t="n">
-        <v>0.587405</v>
+        <v>0.586355</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.00484</v>
+        <v>1.00458</v>
       </c>
       <c r="C66" t="n">
-        <v>0.684681</v>
+        <v>0.686554</v>
       </c>
       <c r="D66" t="n">
-        <v>0.593075</v>
+        <v>0.583651</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01727</v>
+        <v>1.01745</v>
       </c>
       <c r="C67" t="n">
-        <v>0.706864</v>
+        <v>0.706132</v>
       </c>
       <c r="D67" t="n">
-        <v>0.595332</v>
+        <v>0.589103</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03385</v>
+        <v>1.02939</v>
       </c>
       <c r="C68" t="n">
-        <v>0.640294</v>
+        <v>0.642776</v>
       </c>
       <c r="D68" t="n">
-        <v>0.61339</v>
+        <v>0.6105120000000001</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.07282</v>
+        <v>1.07143</v>
       </c>
       <c r="C69" t="n">
-        <v>0.663893</v>
+        <v>0.668103</v>
       </c>
       <c r="D69" t="n">
-        <v>0.624568</v>
+        <v>0.621462</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01475</v>
+        <v>1.01814</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6938</v>
+        <v>0.70121</v>
       </c>
       <c r="D70" t="n">
-        <v>0.644956</v>
+        <v>0.636838</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04198</v>
+        <v>1.04615</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7267130000000001</v>
+        <v>0.731963</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6585569999999999</v>
+        <v>0.656002</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07736</v>
+        <v>1.08127</v>
       </c>
       <c r="C72" t="n">
-        <v>0.763304</v>
+        <v>0.770373</v>
       </c>
       <c r="D72" t="n">
-        <v>0.675484</v>
+        <v>0.672035</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11386</v>
+        <v>1.11392</v>
       </c>
       <c r="C73" t="n">
-        <v>0.802833</v>
+        <v>0.805569</v>
       </c>
       <c r="D73" t="n">
-        <v>0.695912</v>
+        <v>0.6897529999999999</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.15034</v>
+        <v>1.15475</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8456669999999999</v>
+        <v>0.850245</v>
       </c>
       <c r="D74" t="n">
-        <v>0.720444</v>
+        <v>0.714245</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19854</v>
+        <v>1.20492</v>
       </c>
       <c r="C75" t="n">
-        <v>0.896146</v>
+        <v>0.903806</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7470909999999999</v>
+        <v>0.745386</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.24693</v>
+        <v>1.25859</v>
       </c>
       <c r="C76" t="n">
-        <v>0.943885</v>
+        <v>0.951118</v>
       </c>
       <c r="D76" t="n">
-        <v>0.775443</v>
+        <v>0.77436</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.29726</v>
+        <v>1.31121</v>
       </c>
       <c r="C77" t="n">
-        <v>0.995046</v>
+        <v>1.00169</v>
       </c>
       <c r="D77" t="n">
-        <v>0.802776</v>
+        <v>0.806081</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.36671</v>
+        <v>1.37286</v>
       </c>
       <c r="C78" t="n">
-        <v>1.04911</v>
+        <v>1.05061</v>
       </c>
       <c r="D78" t="n">
-        <v>0.845109</v>
+        <v>0.836911</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.4328</v>
+        <v>1.44721</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0987</v>
+        <v>1.1093</v>
       </c>
       <c r="D79" t="n">
-        <v>0.881642</v>
+        <v>0.883625</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51315</v>
+        <v>1.53175</v>
       </c>
       <c r="C80" t="n">
-        <v>1.15855</v>
+        <v>1.17869</v>
       </c>
       <c r="D80" t="n">
-        <v>0.927415</v>
+        <v>0.930608</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.60831</v>
+        <v>1.62969</v>
       </c>
       <c r="C81" t="n">
-        <v>1.2288</v>
+        <v>1.25168</v>
       </c>
       <c r="D81" t="n">
-        <v>0.981759</v>
+        <v>0.982978</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.70371</v>
+        <v>1.73351</v>
       </c>
       <c r="C82" t="n">
-        <v>1.29434</v>
+        <v>1.31778</v>
       </c>
       <c r="D82" t="n">
-        <v>1.03548</v>
+        <v>1.04126</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.81443</v>
+        <v>1.85026</v>
       </c>
       <c r="C83" t="n">
-        <v>1.29228</v>
+        <v>1.31834</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1832</v>
+        <v>1.19483</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.94195</v>
+        <v>1.98798</v>
       </c>
       <c r="C84" t="n">
-        <v>1.36321</v>
+        <v>1.39182</v>
       </c>
       <c r="D84" t="n">
-        <v>1.25473</v>
+        <v>1.26311</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.99507</v>
+        <v>2.03979</v>
       </c>
       <c r="C85" t="n">
-        <v>1.42063</v>
+        <v>1.44827</v>
       </c>
       <c r="D85" t="n">
-        <v>1.32191</v>
+        <v>1.33104</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.10722</v>
+        <v>2.09894</v>
       </c>
       <c r="C86" t="n">
-        <v>1.50385</v>
+        <v>1.53685</v>
       </c>
       <c r="D86" t="n">
-        <v>1.39665</v>
+        <v>1.40549</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.23264</v>
+        <v>2.29318</v>
       </c>
       <c r="C87" t="n">
-        <v>1.58295</v>
+        <v>1.61242</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47543</v>
+        <v>1.47549</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.37358</v>
+        <v>2.4273</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67073</v>
+        <v>1.70244</v>
       </c>
       <c r="D88" t="n">
-        <v>1.54792</v>
+        <v>1.54795</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.4991</v>
+        <v>2.56419</v>
       </c>
       <c r="C89" t="n">
-        <v>1.75322</v>
+        <v>1.78704</v>
       </c>
       <c r="D89" t="n">
-        <v>1.62348</v>
+        <v>1.61661</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.52683</v>
+        <v>2.71218</v>
       </c>
       <c r="C90" t="n">
-        <v>1.84023</v>
+        <v>1.87546</v>
       </c>
       <c r="D90" t="n">
-        <v>1.69415</v>
+        <v>1.69004</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.78929</v>
+        <v>2.85605</v>
       </c>
       <c r="C91" t="n">
-        <v>1.94046</v>
+        <v>1.97422</v>
       </c>
       <c r="D91" t="n">
-        <v>1.74663</v>
+        <v>1.76586</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.91716</v>
+        <v>3.00193</v>
       </c>
       <c r="C92" t="n">
-        <v>2.03305</v>
+        <v>2.06828</v>
       </c>
       <c r="D92" t="n">
-        <v>1.83721</v>
+        <v>1.82941</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.06298</v>
+        <v>3.15696</v>
       </c>
       <c r="C93" t="n">
-        <v>2.13273</v>
+        <v>2.16915</v>
       </c>
       <c r="D93" t="n">
-        <v>1.90257</v>
+        <v>1.89665</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.2451</v>
+        <v>3.29919</v>
       </c>
       <c r="C94" t="n">
-        <v>2.2327</v>
+        <v>2.26771</v>
       </c>
       <c r="D94" t="n">
-        <v>1.95808</v>
+        <v>1.95978</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.39022</v>
+        <v>3.4342</v>
       </c>
       <c r="C95" t="n">
-        <v>2.33428</v>
+        <v>2.38327</v>
       </c>
       <c r="D95" t="n">
-        <v>2.02538</v>
+        <v>2.01058</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.50048</v>
+        <v>3.63146</v>
       </c>
       <c r="C96" t="n">
-        <v>2.45588</v>
+        <v>2.49909</v>
       </c>
       <c r="D96" t="n">
-        <v>2.0833</v>
+        <v>2.06917</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.70006</v>
+        <v>3.77264</v>
       </c>
       <c r="C97" t="n">
-        <v>2.19398</v>
+        <v>2.22676</v>
       </c>
       <c r="D97" t="n">
-        <v>2.26048</v>
+        <v>2.26124</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.82579</v>
+        <v>3.79357</v>
       </c>
       <c r="C98" t="n">
-        <v>2.2569</v>
+        <v>2.30721</v>
       </c>
       <c r="D98" t="n">
-        <v>2.31253</v>
+        <v>2.30978</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.72629</v>
+        <v>3.79606</v>
       </c>
       <c r="C99" t="n">
-        <v>2.35572</v>
+        <v>2.39143</v>
       </c>
       <c r="D99" t="n">
-        <v>2.33798</v>
+        <v>2.35739</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.83578</v>
+        <v>3.93645</v>
       </c>
       <c r="C100" t="n">
-        <v>2.40411</v>
+        <v>2.4554</v>
       </c>
       <c r="D100" t="n">
-        <v>2.40357</v>
+        <v>2.43197</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.91518</v>
+        <v>4.05884</v>
       </c>
       <c r="C101" t="n">
-        <v>2.48848</v>
+        <v>2.54074</v>
       </c>
       <c r="D101" t="n">
-        <v>2.43332</v>
+        <v>2.47837</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.03196</v>
+        <v>4.17282</v>
       </c>
       <c r="C102" t="n">
-        <v>2.56027</v>
+        <v>2.60844</v>
       </c>
       <c r="D102" t="n">
-        <v>2.51085</v>
+        <v>2.53094</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.16772</v>
+        <v>4.2929</v>
       </c>
       <c r="C103" t="n">
-        <v>2.65158</v>
+        <v>2.69754</v>
       </c>
       <c r="D103" t="n">
-        <v>2.5456</v>
+        <v>2.55476</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.22996</v>
+        <v>4.40718</v>
       </c>
       <c r="C104" t="n">
-        <v>2.73179</v>
+        <v>2.79063</v>
       </c>
       <c r="D104" t="n">
-        <v>2.59241</v>
+        <v>2.60495</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.3439</v>
+        <v>4.47803</v>
       </c>
       <c r="C105" t="n">
-        <v>2.80759</v>
+        <v>2.85242</v>
       </c>
       <c r="D105" t="n">
-        <v>2.62978</v>
+        <v>2.63054</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.45416</v>
+        <v>4.63631</v>
       </c>
       <c r="C106" t="n">
-        <v>2.88482</v>
+        <v>2.94609</v>
       </c>
       <c r="D106" t="n">
-        <v>2.67774</v>
+        <v>2.68796</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.55531</v>
+        <v>4.73108</v>
       </c>
       <c r="C107" t="n">
-        <v>2.96835</v>
+        <v>3.02627</v>
       </c>
       <c r="D107" t="n">
-        <v>2.71272</v>
+        <v>2.71894</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.67642</v>
+        <v>4.8796</v>
       </c>
       <c r="C108" t="n">
-        <v>3.0649</v>
+        <v>3.13488</v>
       </c>
       <c r="D108" t="n">
-        <v>2.74153</v>
+        <v>2.77192</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.79139</v>
+        <v>4.99893</v>
       </c>
       <c r="C109" t="n">
-        <v>3.16848</v>
+        <v>3.2321</v>
       </c>
       <c r="D109" t="n">
-        <v>2.77818</v>
+        <v>2.7909</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.97359</v>
+        <v>5.12461</v>
       </c>
       <c r="C110" t="n">
-        <v>3.23695</v>
+        <v>3.32672</v>
       </c>
       <c r="D110" t="n">
-        <v>2.81302</v>
+        <v>2.81539</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>5.04567</v>
+        <v>5.27191</v>
       </c>
       <c r="C111" t="n">
-        <v>2.8517</v>
+        <v>2.90943</v>
       </c>
       <c r="D111" t="n">
-        <v>2.94932</v>
+        <v>2.96203</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>5.20919</v>
+        <v>5.4086</v>
       </c>
       <c r="C112" t="n">
-        <v>2.92268</v>
+        <v>2.98324</v>
       </c>
       <c r="D112" t="n">
-        <v>2.98362</v>
+        <v>3.00406</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>5.30708</v>
+        <v>5.55855</v>
       </c>
       <c r="C113" t="n">
-        <v>2.96644</v>
+        <v>3.0649</v>
       </c>
       <c r="D113" t="n">
-        <v>3.01205</v>
+        <v>3.04757</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.96258</v>
+        <v>5.14458</v>
       </c>
       <c r="C114" t="n">
-        <v>3.04376</v>
+        <v>3.12461</v>
       </c>
       <c r="D114" t="n">
-        <v>3.04542</v>
+        <v>3.05678</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.04593</v>
+        <v>5.22139</v>
       </c>
       <c r="C115" t="n">
-        <v>3.11242</v>
+        <v>3.1837</v>
       </c>
       <c r="D115" t="n">
-        <v>3.04524</v>
+        <v>3.07685</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.11065</v>
+        <v>5.33496</v>
       </c>
       <c r="C116" t="n">
-        <v>3.18122</v>
+        <v>3.26643</v>
       </c>
       <c r="D116" t="n">
-        <v>3.09633</v>
+        <v>3.11638</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.23181</v>
+        <v>5.42289</v>
       </c>
       <c r="C117" t="n">
-        <v>3.24878</v>
+        <v>3.34167</v>
       </c>
       <c r="D117" t="n">
-        <v>3.10495</v>
+        <v>3.15281</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.27175</v>
+        <v>5.50168</v>
       </c>
       <c r="C118" t="n">
-        <v>3.34043</v>
+        <v>3.41767</v>
       </c>
       <c r="D118" t="n">
-        <v>3.14613</v>
+        <v>3.18578</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.39781</v>
+        <v>5.63215</v>
       </c>
       <c r="C119" t="n">
-        <v>3.4314</v>
+        <v>3.511</v>
       </c>
       <c r="D119" t="n">
-        <v>3.16224</v>
+        <v>3.17706</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>32.9413</v>
+        <v>32.7251</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4547</v>
+        <v>19.1637</v>
       </c>
       <c r="D2" t="n">
-        <v>25.3458</v>
+        <v>25.4196</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>30.6935</v>
+        <v>30.7485</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6227</v>
+        <v>19.498</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8453</v>
+        <v>25.0565</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>31.0113</v>
+        <v>30.7237</v>
       </c>
       <c r="C4" t="n">
-        <v>19.9488</v>
+        <v>19.862</v>
       </c>
       <c r="D4" t="n">
-        <v>26.5263</v>
+        <v>26.3087</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>32.0407</v>
+        <v>31.5436</v>
       </c>
       <c r="C5" t="n">
-        <v>20.3021</v>
+        <v>20.1877</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1048</v>
+        <v>27.3665</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>32.1158</v>
+        <v>32.3914</v>
       </c>
       <c r="C6" t="n">
-        <v>20.6089</v>
+        <v>20.5692</v>
       </c>
       <c r="D6" t="n">
-        <v>27.5199</v>
+        <v>27.7628</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>32.8394</v>
+        <v>32.6604</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9376</v>
+        <v>18.8451</v>
       </c>
       <c r="D7" t="n">
-        <v>28.4241</v>
+        <v>28.4548</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>33.3353</v>
+        <v>33.1084</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2242</v>
+        <v>18.9557</v>
       </c>
       <c r="D8" t="n">
-        <v>29.341</v>
+        <v>28.8305</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>34.4789</v>
+        <v>33.9142</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3906</v>
+        <v>19.206</v>
       </c>
       <c r="D9" t="n">
-        <v>29.8263</v>
+        <v>29.7328</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>35.0493</v>
+        <v>34.5392</v>
       </c>
       <c r="C10" t="n">
-        <v>19.637</v>
+        <v>19.3237</v>
       </c>
       <c r="D10" t="n">
-        <v>30.2768</v>
+        <v>30.1497</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>35.8273</v>
+        <v>35.1573</v>
       </c>
       <c r="C11" t="n">
-        <v>19.8595</v>
+        <v>19.5244</v>
       </c>
       <c r="D11" t="n">
-        <v>31.234</v>
+        <v>30.6879</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>36.275</v>
+        <v>35.757</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8811</v>
+        <v>19.7066</v>
       </c>
       <c r="D12" t="n">
-        <v>31.8745</v>
+        <v>31.1959</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>36.9057</v>
+        <v>36.3557</v>
       </c>
       <c r="C13" t="n">
-        <v>20.1556</v>
+        <v>20.0306</v>
       </c>
       <c r="D13" t="n">
-        <v>32.2503</v>
+        <v>31.7509</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>37.478</v>
+        <v>36.9888</v>
       </c>
       <c r="C14" t="n">
-        <v>20.4229</v>
+        <v>20.2258</v>
       </c>
       <c r="D14" t="n">
-        <v>32.3985</v>
+        <v>32.1052</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>37.8377</v>
+        <v>37.7146</v>
       </c>
       <c r="C15" t="n">
-        <v>20.7534</v>
+        <v>20.6208</v>
       </c>
       <c r="D15" t="n">
-        <v>33.372</v>
+        <v>33.1141</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>38.8305</v>
+        <v>38.4367</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9958</v>
+        <v>20.7949</v>
       </c>
       <c r="D16" t="n">
-        <v>33.8478</v>
+        <v>33.5734</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>39.6164</v>
+        <v>39.2631</v>
       </c>
       <c r="C17" t="n">
-        <v>21.2897</v>
+        <v>21.0994</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5049</v>
+        <v>34.2271</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>37.9905</v>
+        <v>37.8912</v>
       </c>
       <c r="C18" t="n">
-        <v>21.5034</v>
+        <v>21.3633</v>
       </c>
       <c r="D18" t="n">
-        <v>34.8407</v>
+        <v>34.7468</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>38.5217</v>
+        <v>38.405</v>
       </c>
       <c r="C19" t="n">
-        <v>21.9068</v>
+        <v>21.7508</v>
       </c>
       <c r="D19" t="n">
-        <v>35.5557</v>
+        <v>35.4455</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>39.039</v>
+        <v>38.899</v>
       </c>
       <c r="C20" t="n">
-        <v>22.1174</v>
+        <v>21.905</v>
       </c>
       <c r="D20" t="n">
-        <v>36.0536</v>
+        <v>36.0402</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>39.5919</v>
+        <v>39.5105</v>
       </c>
       <c r="C21" t="n">
-        <v>19.991</v>
+        <v>19.9797</v>
       </c>
       <c r="D21" t="n">
-        <v>36.8852</v>
+        <v>36.7056</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>40.191</v>
+        <v>39.9485</v>
       </c>
       <c r="C22" t="n">
-        <v>20.2448</v>
+        <v>20.1785</v>
       </c>
       <c r="D22" t="n">
-        <v>37.3394</v>
+        <v>37.2149</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>40.6354</v>
+        <v>40.4175</v>
       </c>
       <c r="C23" t="n">
-        <v>20.4173</v>
+        <v>20.3361</v>
       </c>
       <c r="D23" t="n">
-        <v>37.7907</v>
+        <v>37.5788</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>41.3305</v>
+        <v>40.9985</v>
       </c>
       <c r="C24" t="n">
-        <v>20.695</v>
+        <v>20.4848</v>
       </c>
       <c r="D24" t="n">
-        <v>38.2273</v>
+        <v>37.9314</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>41.6182</v>
+        <v>41.5144</v>
       </c>
       <c r="C25" t="n">
-        <v>20.8446</v>
+        <v>20.7055</v>
       </c>
       <c r="D25" t="n">
-        <v>38.4728</v>
+        <v>38.407</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>42.2201</v>
+        <v>42.041</v>
       </c>
       <c r="C26" t="n">
-        <v>21.0727</v>
+        <v>20.9538</v>
       </c>
       <c r="D26" t="n">
-        <v>38.8409</v>
+        <v>38.7759</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>42.9048</v>
+        <v>42.6973</v>
       </c>
       <c r="C27" t="n">
-        <v>21.2901</v>
+        <v>21.1722</v>
       </c>
       <c r="D27" t="n">
-        <v>39.2295</v>
+        <v>39.1442</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>43.3768</v>
+        <v>43.1272</v>
       </c>
       <c r="C28" t="n">
-        <v>21.5708</v>
+        <v>21.3931</v>
       </c>
       <c r="D28" t="n">
-        <v>39.7256</v>
+        <v>39.569</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>44.0243</v>
+        <v>43.7952</v>
       </c>
       <c r="C29" t="n">
-        <v>21.8485</v>
+        <v>21.6683</v>
       </c>
       <c r="D29" t="n">
-        <v>40.1304</v>
+        <v>39.9471</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>44.5963</v>
+        <v>44.2496</v>
       </c>
       <c r="C30" t="n">
-        <v>22.1196</v>
+        <v>21.8151</v>
       </c>
       <c r="D30" t="n">
-        <v>40.442</v>
+        <v>40.1299</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>45.134</v>
+        <v>44.9007</v>
       </c>
       <c r="C31" t="n">
-        <v>22.3543</v>
+        <v>22.1231</v>
       </c>
       <c r="D31" t="n">
-        <v>40.8057</v>
+        <v>40.59</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>42.4744</v>
+        <v>42.4015</v>
       </c>
       <c r="C32" t="n">
-        <v>22.6043</v>
+        <v>22.3734</v>
       </c>
       <c r="D32" t="n">
-        <v>41.0605</v>
+        <v>40.9175</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>42.7083</v>
+        <v>42.698</v>
       </c>
       <c r="C33" t="n">
-        <v>22.8072</v>
+        <v>22.6937</v>
       </c>
       <c r="D33" t="n">
-        <v>41.4312</v>
+        <v>41.3715</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>43.2519</v>
+        <v>43.1855</v>
       </c>
       <c r="C34" t="n">
-        <v>23.1626</v>
+        <v>22.9458</v>
       </c>
       <c r="D34" t="n">
-        <v>41.6804</v>
+        <v>41.5453</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>43.7815</v>
+        <v>43.4353</v>
       </c>
       <c r="C35" t="n">
-        <v>20.6275</v>
+        <v>20.5104</v>
       </c>
       <c r="D35" t="n">
-        <v>41.7862</v>
+        <v>41.6014</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>44.1598</v>
+        <v>44.0158</v>
       </c>
       <c r="C36" t="n">
-        <v>20.7892</v>
+        <v>20.7316</v>
       </c>
       <c r="D36" t="n">
-        <v>41.9247</v>
+        <v>41.91</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>44.4671</v>
+        <v>44.292</v>
       </c>
       <c r="C37" t="n">
-        <v>20.9841</v>
+        <v>20.9076</v>
       </c>
       <c r="D37" t="n">
-        <v>42.2623</v>
+        <v>42.1142</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>44.9259</v>
+        <v>44.6101</v>
       </c>
       <c r="C38" t="n">
-        <v>21.1432</v>
+        <v>21.0216</v>
       </c>
       <c r="D38" t="n">
-        <v>42.5459</v>
+        <v>42.2883</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>45.1258</v>
+        <v>45.1574</v>
       </c>
       <c r="C39" t="n">
-        <v>21.3533</v>
+        <v>21.2592</v>
       </c>
       <c r="D39" t="n">
-        <v>42.7766</v>
+        <v>42.6657</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>45.6962</v>
+        <v>45.4309</v>
       </c>
       <c r="C40" t="n">
-        <v>21.5667</v>
+        <v>21.4377</v>
       </c>
       <c r="D40" t="n">
-        <v>42.9537</v>
+        <v>42.7495</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>46.1357</v>
+        <v>46.0526</v>
       </c>
       <c r="C41" t="n">
-        <v>21.799</v>
+        <v>21.6526</v>
       </c>
       <c r="D41" t="n">
-        <v>43.1799</v>
+        <v>43.1073</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>46.5325</v>
+        <v>46.4553</v>
       </c>
       <c r="C42" t="n">
-        <v>21.9893</v>
+        <v>21.835</v>
       </c>
       <c r="D42" t="n">
-        <v>43.3073</v>
+        <v>43.2535</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>47.1287</v>
+        <v>46.7785</v>
       </c>
       <c r="C43" t="n">
-        <v>22.2144</v>
+        <v>22.0483</v>
       </c>
       <c r="D43" t="n">
-        <v>43.5874</v>
+        <v>43.604</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>47.5089</v>
+        <v>47.5913</v>
       </c>
       <c r="C44" t="n">
-        <v>22.4934</v>
+        <v>22.3335</v>
       </c>
       <c r="D44" t="n">
-        <v>43.8933</v>
+        <v>43.8455</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>48.039</v>
+        <v>47.745</v>
       </c>
       <c r="C45" t="n">
-        <v>22.8081</v>
+        <v>22.6517</v>
       </c>
       <c r="D45" t="n">
-        <v>44.0526</v>
+        <v>43.9439</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>48.5252</v>
+        <v>48.3654</v>
       </c>
       <c r="C46" t="n">
-        <v>23.1107</v>
+        <v>22.9021</v>
       </c>
       <c r="D46" t="n">
-        <v>44.3289</v>
+        <v>44.1778</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>44.8402</v>
+        <v>44.9269</v>
       </c>
       <c r="C47" t="n">
-        <v>23.3531</v>
+        <v>23.1398</v>
       </c>
       <c r="D47" t="n">
-        <v>44.5207</v>
+        <v>44.4756</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>45.2062</v>
+        <v>45.1712</v>
       </c>
       <c r="C48" t="n">
-        <v>23.5802</v>
+        <v>23.3998</v>
       </c>
       <c r="D48" t="n">
-        <v>44.735</v>
+        <v>44.7054</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>45.7083</v>
+        <v>45.6395</v>
       </c>
       <c r="C49" t="n">
-        <v>23.8903</v>
+        <v>23.7193</v>
       </c>
       <c r="D49" t="n">
-        <v>44.9992</v>
+        <v>44.981</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>46.0676</v>
+        <v>45.9637</v>
       </c>
       <c r="C50" t="n">
-        <v>21.3164</v>
+        <v>21.1071</v>
       </c>
       <c r="D50" t="n">
-        <v>44.6869</v>
+        <v>44.3237</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>46.3335</v>
+        <v>46.2539</v>
       </c>
       <c r="C51" t="n">
-        <v>21.4979</v>
+        <v>21.308</v>
       </c>
       <c r="D51" t="n">
-        <v>44.8095</v>
+        <v>44.5627</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>46.7539</v>
+        <v>46.5862</v>
       </c>
       <c r="C52" t="n">
-        <v>21.6282</v>
+        <v>21.5154</v>
       </c>
       <c r="D52" t="n">
-        <v>44.8873</v>
+        <v>44.7271</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>47.1382</v>
+        <v>47.0526</v>
       </c>
       <c r="C53" t="n">
-        <v>21.9481</v>
+        <v>21.9622</v>
       </c>
       <c r="D53" t="n">
-        <v>45.0346</v>
+        <v>44.9061</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>47.4354</v>
+        <v>47.5075</v>
       </c>
       <c r="C54" t="n">
-        <v>22.1691</v>
+        <v>22.099</v>
       </c>
       <c r="D54" t="n">
-        <v>45.0673</v>
+        <v>45.1252</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>47.8843</v>
+        <v>47.695</v>
       </c>
       <c r="C55" t="n">
-        <v>22.5154</v>
+        <v>22.2016</v>
       </c>
       <c r="D55" t="n">
-        <v>45.1747</v>
+        <v>44.9154</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>48.2588</v>
+        <v>47.883</v>
       </c>
       <c r="C56" t="n">
-        <v>22.7062</v>
+        <v>22.5853</v>
       </c>
       <c r="D56" t="n">
-        <v>45.3825</v>
+        <v>45.1033</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>48.6755</v>
+        <v>48.2408</v>
       </c>
       <c r="C57" t="n">
-        <v>23.1715</v>
+        <v>23.0367</v>
       </c>
       <c r="D57" t="n">
-        <v>45.5789</v>
+        <v>45.2436</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>48.859</v>
+        <v>48.6694</v>
       </c>
       <c r="C58" t="n">
-        <v>23.7252</v>
+        <v>23.6237</v>
       </c>
       <c r="D58" t="n">
-        <v>45.4073</v>
+        <v>45.3964</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>49.0098</v>
+        <v>49.0445</v>
       </c>
       <c r="C59" t="n">
-        <v>24.3469</v>
+        <v>24.3075</v>
       </c>
       <c r="D59" t="n">
-        <v>45.6443</v>
+        <v>45.6579</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>49.5477</v>
+        <v>49.6605</v>
       </c>
       <c r="C60" t="n">
-        <v>24.7613</v>
+        <v>25.0079</v>
       </c>
       <c r="D60" t="n">
-        <v>45.8309</v>
+        <v>45.7412</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>47.6645</v>
+        <v>48.6245</v>
       </c>
       <c r="C61" t="n">
-        <v>25.035</v>
+        <v>25.6031</v>
       </c>
       <c r="D61" t="n">
-        <v>46.1377</v>
+        <v>46.0249</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>48.7149</v>
+        <v>49.775</v>
       </c>
       <c r="C62" t="n">
-        <v>25.712</v>
+        <v>26.2166</v>
       </c>
       <c r="D62" t="n">
-        <v>46.4527</v>
+        <v>46.2754</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>49.3372</v>
+        <v>50.5642</v>
       </c>
       <c r="C63" t="n">
-        <v>26.8751</v>
+        <v>27.4225</v>
       </c>
       <c r="D63" t="n">
-        <v>46.4739</v>
+        <v>46.8338</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>50.2326</v>
+        <v>51.462</v>
       </c>
       <c r="C64" t="n">
-        <v>31.7888</v>
+        <v>33.2888</v>
       </c>
       <c r="D64" t="n">
-        <v>51.3518</v>
+        <v>51.1296</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>53.0579</v>
+        <v>53.4594</v>
       </c>
       <c r="C65" t="n">
-        <v>33.9648</v>
+        <v>33.8379</v>
       </c>
       <c r="D65" t="n">
-        <v>52.9541</v>
+        <v>52.1474</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>54.7384</v>
+        <v>53.75</v>
       </c>
       <c r="C66" t="n">
-        <v>35.4083</v>
+        <v>36.584</v>
       </c>
       <c r="D66" t="n">
-        <v>53.3676</v>
+        <v>55.2131</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>55.8646</v>
+        <v>56.415</v>
       </c>
       <c r="C67" t="n">
-        <v>37.9235</v>
+        <v>38.6332</v>
       </c>
       <c r="D67" t="n">
-        <v>55.5595</v>
+        <v>56.0446</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>58.7251</v>
+        <v>59.5229</v>
       </c>
       <c r="C68" t="n">
-        <v>39.3717</v>
+        <v>40.0377</v>
       </c>
       <c r="D68" t="n">
-        <v>56.3931</v>
+        <v>55.7134</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>59.94</v>
+        <v>59.3684</v>
       </c>
       <c r="C69" t="n">
-        <v>45.273</v>
+        <v>41.6558</v>
       </c>
       <c r="D69" t="n">
-        <v>58.0589</v>
+        <v>58.6415</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>61.8559</v>
+        <v>62.6931</v>
       </c>
       <c r="C70" t="n">
-        <v>44.6124</v>
+        <v>44.4007</v>
       </c>
       <c r="D70" t="n">
-        <v>59.8812</v>
+        <v>60.2906</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>64.8135</v>
+        <v>63.5888</v>
       </c>
       <c r="C71" t="n">
-        <v>46.4234</v>
+        <v>45.632</v>
       </c>
       <c r="D71" t="n">
-        <v>62.9752</v>
+        <v>61.8158</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>66.43040000000001</v>
+        <v>67.7127</v>
       </c>
       <c r="C72" t="n">
-        <v>48.7473</v>
+        <v>48.9978</v>
       </c>
       <c r="D72" t="n">
-        <v>65.6858</v>
+        <v>65.1647</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>71.1063</v>
+        <v>70.4639</v>
       </c>
       <c r="C73" t="n">
-        <v>50.996</v>
+        <v>51.2035</v>
       </c>
       <c r="D73" t="n">
-        <v>68.5291</v>
+        <v>69.0509</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>73.7286</v>
+        <v>74.4772</v>
       </c>
       <c r="C74" t="n">
-        <v>53.3346</v>
+        <v>53.3447</v>
       </c>
       <c r="D74" t="n">
-        <v>71.5291</v>
+        <v>72.4093</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>76.80889999999999</v>
+        <v>79.0924</v>
       </c>
       <c r="C75" t="n">
-        <v>55.5477</v>
+        <v>55.7516</v>
       </c>
       <c r="D75" t="n">
-        <v>75.8545</v>
+        <v>75.24639999999999</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>102.863</v>
+        <v>104.304</v>
       </c>
       <c r="C76" t="n">
-        <v>57.7484</v>
+        <v>57.5721</v>
       </c>
       <c r="D76" t="n">
-        <v>79.8036</v>
+        <v>79.3202</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>107.892</v>
+        <v>109.48</v>
       </c>
       <c r="C77" t="n">
-        <v>60.193</v>
+        <v>59.9652</v>
       </c>
       <c r="D77" t="n">
-        <v>84.4803</v>
+        <v>84.51220000000001</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>113.495</v>
+        <v>114.802</v>
       </c>
       <c r="C78" t="n">
-        <v>70.30549999999999</v>
+        <v>70.51439999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>114.213</v>
+        <v>116.48</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>120.389</v>
+        <v>121.749</v>
       </c>
       <c r="C79" t="n">
-        <v>71.64619999999999</v>
+        <v>71.87569999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>118.652</v>
+        <v>121.992</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>124.011</v>
+        <v>126.803</v>
       </c>
       <c r="C80" t="n">
-        <v>73.09220000000001</v>
+        <v>73.27290000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>125.253</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>130.136</v>
+        <v>131.705</v>
       </c>
       <c r="C81" t="n">
-        <v>74.47539999999999</v>
+        <v>74.61709999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>131.37</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>136.128</v>
+        <v>136.021</v>
       </c>
       <c r="C82" t="n">
-        <v>75.9693</v>
+        <v>76.0534</v>
       </c>
       <c r="D82" t="n">
-        <v>136.261</v>
+        <v>138.185</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>141.742</v>
+        <v>143.537</v>
       </c>
       <c r="C83" t="n">
-        <v>77.09869999999999</v>
+        <v>77.1542</v>
       </c>
       <c r="D83" t="n">
-        <v>142.051</v>
+        <v>144.122</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>148.278</v>
+        <v>149.335</v>
       </c>
       <c r="C84" t="n">
-        <v>78.4646</v>
+        <v>78.6382</v>
       </c>
       <c r="D84" t="n">
-        <v>148.38</v>
+        <v>149.046</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>153.851</v>
+        <v>155.147</v>
       </c>
       <c r="C85" t="n">
-        <v>79.7092</v>
+        <v>80.04640000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>153.42</v>
+        <v>154.921</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>159.262</v>
+        <v>161.012</v>
       </c>
       <c r="C86" t="n">
-        <v>81.07299999999999</v>
+        <v>81.4448</v>
       </c>
       <c r="D86" t="n">
-        <v>159.37</v>
+        <v>160.611</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>165.425</v>
+        <v>166.706</v>
       </c>
       <c r="C87" t="n">
-        <v>82.43559999999999</v>
+        <v>82.6405</v>
       </c>
       <c r="D87" t="n">
-        <v>164.823</v>
+        <v>165.812</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>171.314</v>
+        <v>172.108</v>
       </c>
       <c r="C88" t="n">
-        <v>83.87050000000001</v>
+        <v>84.16379999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>170.098</v>
+        <v>171.224</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>177.017</v>
+        <v>178.199</v>
       </c>
       <c r="C89" t="n">
-        <v>85.37649999999999</v>
+        <v>85.4542</v>
       </c>
       <c r="D89" t="n">
-        <v>175.461</v>
+        <v>176.328</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>202.458</v>
+        <v>203.219</v>
       </c>
       <c r="C90" t="n">
-        <v>86.6598</v>
+        <v>86.77930000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>179.998</v>
+        <v>180.711</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>206.693</v>
+        <v>207.907</v>
       </c>
       <c r="C91" t="n">
-        <v>88.1711</v>
+        <v>88.4118</v>
       </c>
       <c r="D91" t="n">
-        <v>183.928</v>
+        <v>186.01</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>210.861</v>
+        <v>211.725</v>
       </c>
       <c r="C92" t="n">
-        <v>88.4709</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>210.192</v>
+        <v>211.374</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>214.632</v>
+        <v>215.337</v>
       </c>
       <c r="C93" t="n">
-        <v>89.367</v>
+        <v>89.66240000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>214.383</v>
+        <v>215.423</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>218.484</v>
+        <v>218.912</v>
       </c>
       <c r="C94" t="n">
-        <v>90.3789</v>
+        <v>90.6508</v>
       </c>
       <c r="D94" t="n">
-        <v>217.976</v>
+        <v>216.893</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>221.967</v>
+        <v>222.714</v>
       </c>
       <c r="C95" t="n">
-        <v>91.1118</v>
+        <v>91.4936</v>
       </c>
       <c r="D95" t="n">
-        <v>219.759</v>
+        <v>221.367</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>225.396</v>
+        <v>226.909</v>
       </c>
       <c r="C96" t="n">
-        <v>92.1101</v>
+        <v>92.4858</v>
       </c>
       <c r="D96" t="n">
-        <v>224.588</v>
+        <v>225.83</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>228.612</v>
+        <v>230.723</v>
       </c>
       <c r="C97" t="n">
-        <v>92.77209999999999</v>
+        <v>93.2865</v>
       </c>
       <c r="D97" t="n">
-        <v>227.597</v>
+        <v>228.961</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>232.658</v>
+        <v>233.333</v>
       </c>
       <c r="C98" t="n">
-        <v>93.56829999999999</v>
+        <v>94.6613</v>
       </c>
       <c r="D98" t="n">
-        <v>230.548</v>
+        <v>231.326</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>236.103</v>
+        <v>236.998</v>
       </c>
       <c r="C99" t="n">
-        <v>94.9198</v>
+        <v>95.06489999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>233.055</v>
+        <v>235.257</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>239.255</v>
+        <v>240.573</v>
       </c>
       <c r="C100" t="n">
-        <v>95.7989</v>
+        <v>95.90560000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>236.541</v>
+        <v>235.811</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>242.771</v>
+        <v>243.735</v>
       </c>
       <c r="C101" t="n">
-        <v>97.1904</v>
+        <v>97.3353</v>
       </c>
       <c r="D101" t="n">
-        <v>238.686</v>
+        <v>240.411</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>246.432</v>
+        <v>247.133</v>
       </c>
       <c r="C102" t="n">
-        <v>97.97499999999999</v>
+        <v>98.63549999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>240.472</v>
+        <v>241.76</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>248.947</v>
+        <v>250.238</v>
       </c>
       <c r="C103" t="n">
-        <v>99.6294</v>
+        <v>99.6469</v>
       </c>
       <c r="D103" t="n">
-        <v>244.644</v>
+        <v>246.301</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>252.434</v>
+        <v>254.054</v>
       </c>
       <c r="C104" t="n">
-        <v>100.62</v>
+        <v>100.75</v>
       </c>
       <c r="D104" t="n">
-        <v>247.323</v>
+        <v>248.625</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>262.207</v>
+        <v>263.039</v>
       </c>
       <c r="C105" t="n">
-        <v>101.737</v>
+        <v>101.843</v>
       </c>
       <c r="D105" t="n">
-        <v>249.883</v>
+        <v>250.246</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>264.5</v>
+        <v>265.669</v>
       </c>
       <c r="C106" t="n">
-        <v>103.247</v>
+        <v>103.077</v>
       </c>
       <c r="D106" t="n">
-        <v>252.379</v>
+        <v>253.553</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>266.74</v>
+        <v>267.991</v>
       </c>
       <c r="C107" t="n">
-        <v>97.3229</v>
+        <v>97.77500000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>265.831</v>
+        <v>267.263</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>268.506</v>
+        <v>270.154</v>
       </c>
       <c r="C108" t="n">
-        <v>98.1841</v>
+        <v>98.6053</v>
       </c>
       <c r="D108" t="n">
-        <v>266.365</v>
+        <v>266.946</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>270.65</v>
+        <v>272.644</v>
       </c>
       <c r="C109" t="n">
-        <v>99.01090000000001</v>
+        <v>99.4127</v>
       </c>
       <c r="D109" t="n">
-        <v>268.508</v>
+        <v>269.97</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>272.626</v>
+        <v>274.216</v>
       </c>
       <c r="C110" t="n">
-        <v>99.93980000000001</v>
+        <v>100.04</v>
       </c>
       <c r="D110" t="n">
-        <v>268.3</v>
+        <v>272.042</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>274.716</v>
+        <v>276.292</v>
       </c>
       <c r="C111" t="n">
-        <v>101.07</v>
+        <v>101.551</v>
       </c>
       <c r="D111" t="n">
-        <v>272.049</v>
+        <v>273.465</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>277.086</v>
+        <v>278.523</v>
       </c>
       <c r="C112" t="n">
-        <v>101.957</v>
+        <v>101.984</v>
       </c>
       <c r="D112" t="n">
-        <v>273.322</v>
+        <v>274.6</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>279.077</v>
+        <v>280.23</v>
       </c>
       <c r="C113" t="n">
-        <v>102.71</v>
+        <v>102.323</v>
       </c>
       <c r="D113" t="n">
-        <v>274.099</v>
+        <v>275.517</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>281.001</v>
+        <v>283.066</v>
       </c>
       <c r="C114" t="n">
-        <v>103.631</v>
+        <v>103.968</v>
       </c>
       <c r="D114" t="n">
-        <v>275.871</v>
+        <v>276.725</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>282.24</v>
+        <v>284.444</v>
       </c>
       <c r="C115" t="n">
-        <v>103.827</v>
+        <v>104.806</v>
       </c>
       <c r="D115" t="n">
-        <v>277.428</v>
+        <v>278.604</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>285.028</v>
+        <v>287.503</v>
       </c>
       <c r="C116" t="n">
-        <v>105.361</v>
+        <v>105.935</v>
       </c>
       <c r="D116" t="n">
-        <v>278.68</v>
+        <v>280.429</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>287.963</v>
+        <v>289.777</v>
       </c>
       <c r="C117" t="n">
-        <v>106.75</v>
+        <v>107.402</v>
       </c>
       <c r="D117" t="n">
-        <v>280.234</v>
+        <v>281.74</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>289.25</v>
+        <v>291.369</v>
       </c>
       <c r="C118" t="n">
-        <v>108.252</v>
+        <v>108.665</v>
       </c>
       <c r="D118" t="n">
-        <v>281.091</v>
+        <v>282.714</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>291.91</v>
+        <v>293.395</v>
       </c>
       <c r="C119" t="n">
-        <v>109.938</v>
+        <v>109.597</v>
       </c>
       <c r="D119" t="n">
-        <v>282.501</v>
+        <v>283.766</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>50.6795</v>
+        <v>51.1257</v>
       </c>
       <c r="C2" t="n">
-        <v>32.3913</v>
+        <v>32.1506</v>
       </c>
       <c r="D2" t="n">
-        <v>35.1288</v>
+        <v>35.3416</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>51.0362</v>
+        <v>51.6085</v>
       </c>
       <c r="C3" t="n">
-        <v>32.5085</v>
+        <v>32.8431</v>
       </c>
       <c r="D3" t="n">
-        <v>35.744</v>
+        <v>36.1237</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>52.2062</v>
+        <v>52.2071</v>
       </c>
       <c r="C4" t="n">
-        <v>32.9771</v>
+        <v>33.711</v>
       </c>
       <c r="D4" t="n">
-        <v>36.0896</v>
+        <v>36.5019</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>52.2622</v>
+        <v>52.9625</v>
       </c>
       <c r="C5" t="n">
-        <v>33.5773</v>
+        <v>34.1794</v>
       </c>
       <c r="D5" t="n">
-        <v>36.6008</v>
+        <v>36.7431</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>53.5726</v>
+        <v>53.4412</v>
       </c>
       <c r="C6" t="n">
-        <v>34.2051</v>
+        <v>34.7758</v>
       </c>
       <c r="D6" t="n">
-        <v>37.3079</v>
+        <v>37.4545</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>54.7993</v>
+        <v>54.2663</v>
       </c>
       <c r="C7" t="n">
-        <v>34.9034</v>
+        <v>35.1797</v>
       </c>
       <c r="D7" t="n">
-        <v>38.2542</v>
+        <v>38.4308</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>54.9773</v>
+        <v>55.0817</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0334</v>
+        <v>35.8631</v>
       </c>
       <c r="D8" t="n">
-        <v>38.5868</v>
+        <v>38.7019</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>55.6811</v>
+        <v>55.9353</v>
       </c>
       <c r="C9" t="n">
-        <v>35.812</v>
+        <v>36.2416</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4241</v>
+        <v>39.1324</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>56.8956</v>
+        <v>56.6178</v>
       </c>
       <c r="C10" t="n">
-        <v>36.2527</v>
+        <v>36.4395</v>
       </c>
       <c r="D10" t="n">
-        <v>39.679</v>
+        <v>39.3667</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>56.7482</v>
+        <v>56.6757</v>
       </c>
       <c r="C11" t="n">
-        <v>35.6572</v>
+        <v>36.1152</v>
       </c>
       <c r="D11" t="n">
-        <v>39.6486</v>
+        <v>40.1057</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>57.5571</v>
+        <v>57.7816</v>
       </c>
       <c r="C12" t="n">
-        <v>36.5874</v>
+        <v>37.1852</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3853</v>
+        <v>40.6415</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>58.4742</v>
+        <v>58.5142</v>
       </c>
       <c r="C13" t="n">
-        <v>37.1114</v>
+        <v>37.424</v>
       </c>
       <c r="D13" t="n">
-        <v>41.148</v>
+        <v>41.4593</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>59.4898</v>
+        <v>59.8067</v>
       </c>
       <c r="C14" t="n">
-        <v>37.3185</v>
+        <v>37.5537</v>
       </c>
       <c r="D14" t="n">
-        <v>41.4196</v>
+        <v>42.0333</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>60.0713</v>
+        <v>60.4447</v>
       </c>
       <c r="C15" t="n">
-        <v>37.6041</v>
+        <v>37.9345</v>
       </c>
       <c r="D15" t="n">
-        <v>42.0933</v>
+        <v>42.5456</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>61.0841</v>
+        <v>61.0091</v>
       </c>
       <c r="C16" t="n">
-        <v>38.218</v>
+        <v>38.5357</v>
       </c>
       <c r="D16" t="n">
-        <v>42.7442</v>
+        <v>43.17</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>62.4525</v>
+        <v>62.3422</v>
       </c>
       <c r="C17" t="n">
-        <v>38.7761</v>
+        <v>38.9942</v>
       </c>
       <c r="D17" t="n">
-        <v>43.0372</v>
+        <v>43.591</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>61.588</v>
+        <v>61.6984</v>
       </c>
       <c r="C18" t="n">
-        <v>38.7944</v>
+        <v>39.2037</v>
       </c>
       <c r="D18" t="n">
-        <v>43.7146</v>
+        <v>43.9991</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>64.923</v>
+        <v>64.455</v>
       </c>
       <c r="C19" t="n">
-        <v>39.3178</v>
+        <v>39.5346</v>
       </c>
       <c r="D19" t="n">
-        <v>44.2701</v>
+        <v>44.4921</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>65.7544</v>
+        <v>65.6173</v>
       </c>
       <c r="C20" t="n">
-        <v>40.1994</v>
+        <v>40.655</v>
       </c>
       <c r="D20" t="n">
-        <v>44.6386</v>
+        <v>45.1545</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>66.4628</v>
+        <v>66.4122</v>
       </c>
       <c r="C21" t="n">
-        <v>40.1464</v>
+        <v>40.4783</v>
       </c>
       <c r="D21" t="n">
-        <v>45.5608</v>
+        <v>46.0983</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>67.26300000000001</v>
+        <v>67.1108</v>
       </c>
       <c r="C22" t="n">
-        <v>40.7056</v>
+        <v>40.8422</v>
       </c>
       <c r="D22" t="n">
-        <v>46.1684</v>
+        <v>46.4095</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>67.771</v>
+        <v>67.86150000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>40.8559</v>
+        <v>41.1047</v>
       </c>
       <c r="D23" t="n">
-        <v>46.4525</v>
+        <v>47.0044</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>68.5322</v>
+        <v>68.2783</v>
       </c>
       <c r="C24" t="n">
-        <v>41.3148</v>
+        <v>41.5686</v>
       </c>
       <c r="D24" t="n">
-        <v>47.0061</v>
+        <v>47.6736</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>69.28489999999999</v>
+        <v>69.13030000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>42.1538</v>
+        <v>42.4565</v>
       </c>
       <c r="D25" t="n">
-        <v>47.5541</v>
+        <v>47.9705</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>70.11150000000001</v>
+        <v>69.8571</v>
       </c>
       <c r="C26" t="n">
-        <v>41.9118</v>
+        <v>42.1574</v>
       </c>
       <c r="D26" t="n">
-        <v>47.6766</v>
+        <v>48.4413</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>70.96339999999999</v>
+        <v>70.9242</v>
       </c>
       <c r="C27" t="n">
-        <v>42.5908</v>
+        <v>42.8027</v>
       </c>
       <c r="D27" t="n">
-        <v>48.0866</v>
+        <v>48.8019</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>71.2466</v>
+        <v>71.0819</v>
       </c>
       <c r="C28" t="n">
-        <v>43.29</v>
+        <v>43.4988</v>
       </c>
       <c r="D28" t="n">
-        <v>48.5311</v>
+        <v>49.3366</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>72.5604</v>
+        <v>72.4858</v>
       </c>
       <c r="C29" t="n">
-        <v>43.7221</v>
+        <v>43.8506</v>
       </c>
       <c r="D29" t="n">
-        <v>49.0963</v>
+        <v>49.8201</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>72.57640000000001</v>
+        <v>72.605</v>
       </c>
       <c r="C30" t="n">
-        <v>44.0012</v>
+        <v>44.0867</v>
       </c>
       <c r="D30" t="n">
-        <v>49.949</v>
+        <v>50.1066</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>73.84439999999999</v>
+        <v>73.3725</v>
       </c>
       <c r="C31" t="n">
-        <v>44.1528</v>
+        <v>44.2405</v>
       </c>
       <c r="D31" t="n">
-        <v>50.01</v>
+        <v>50.6633</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>70.1656</v>
+        <v>70.0864</v>
       </c>
       <c r="C32" t="n">
-        <v>44.6401</v>
+        <v>44.8038</v>
       </c>
       <c r="D32" t="n">
-        <v>50.3003</v>
+        <v>50.8879</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>73.5463</v>
+        <v>73.50920000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>45.1633</v>
+        <v>45.193</v>
       </c>
       <c r="D33" t="n">
-        <v>50.617</v>
+        <v>51.3231</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>74.88460000000001</v>
+        <v>74.5556</v>
       </c>
       <c r="C34" t="n">
-        <v>45.8521</v>
+        <v>45.8758</v>
       </c>
       <c r="D34" t="n">
-        <v>50.8837</v>
+        <v>51.5662</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>74.7052</v>
+        <v>74.8438</v>
       </c>
       <c r="C35" t="n">
-        <v>43.3233</v>
+        <v>43.688</v>
       </c>
       <c r="D35" t="n">
-        <v>51.2832</v>
+        <v>52.1027</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>75.459</v>
+        <v>76.2876</v>
       </c>
       <c r="C36" t="n">
-        <v>43.9462</v>
+        <v>44.1595</v>
       </c>
       <c r="D36" t="n">
-        <v>51.6717</v>
+        <v>52.4874</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>76.0742</v>
+        <v>76.13639999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>44.1132</v>
+        <v>44.3198</v>
       </c>
       <c r="D37" t="n">
-        <v>51.8561</v>
+        <v>52.6714</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>76.48520000000001</v>
+        <v>76.42100000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>44.2379</v>
+        <v>44.3511</v>
       </c>
       <c r="D38" t="n">
-        <v>52.2628</v>
+        <v>52.9978</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>73.9823</v>
+        <v>77.5382</v>
       </c>
       <c r="C39" t="n">
-        <v>44.6282</v>
+        <v>44.9326</v>
       </c>
       <c r="D39" t="n">
-        <v>53.1444</v>
+        <v>53.2948</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>78.14579999999999</v>
+        <v>78.1495</v>
       </c>
       <c r="C40" t="n">
-        <v>44.9994</v>
+        <v>45.152</v>
       </c>
       <c r="D40" t="n">
-        <v>53.4874</v>
+        <v>53.7747</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>79.50320000000001</v>
+        <v>78.6981</v>
       </c>
       <c r="C41" t="n">
-        <v>45.3589</v>
+        <v>45.5665</v>
       </c>
       <c r="D41" t="n">
-        <v>53.6812</v>
+        <v>54.128</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>80.1549</v>
+        <v>79.8421</v>
       </c>
       <c r="C42" t="n">
-        <v>45.4255</v>
+        <v>45.5945</v>
       </c>
       <c r="D42" t="n">
-        <v>54.137</v>
+        <v>54.3564</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>80.5729</v>
+        <v>80.4529</v>
       </c>
       <c r="C43" t="n">
-        <v>45.6274</v>
+        <v>45.7118</v>
       </c>
       <c r="D43" t="n">
-        <v>54.3643</v>
+        <v>54.4415</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>80.6507</v>
+        <v>80.7206</v>
       </c>
       <c r="C44" t="n">
-        <v>45.9346</v>
+        <v>46.1035</v>
       </c>
       <c r="D44" t="n">
-        <v>54.5208</v>
+        <v>54.8423</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>81.4242</v>
+        <v>81.4337</v>
       </c>
       <c r="C45" t="n">
-        <v>46.2909</v>
+        <v>46.5383</v>
       </c>
       <c r="D45" t="n">
-        <v>54.7054</v>
+        <v>55.0463</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>81.48390000000001</v>
+        <v>81.22369999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>46.4124</v>
+        <v>46.5293</v>
       </c>
       <c r="D46" t="n">
-        <v>55.0094</v>
+        <v>55.3511</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>79.4068</v>
+        <v>78.4057</v>
       </c>
       <c r="C47" t="n">
-        <v>46.6078</v>
+        <v>46.5696</v>
       </c>
       <c r="D47" t="n">
-        <v>55.2518</v>
+        <v>55.6102</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>80.15309999999999</v>
+        <v>79.4051</v>
       </c>
       <c r="C48" t="n">
-        <v>47.2321</v>
+        <v>47.3676</v>
       </c>
       <c r="D48" t="n">
-        <v>55.3192</v>
+        <v>55.876</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>80.0275</v>
+        <v>80.0052</v>
       </c>
       <c r="C49" t="n">
-        <v>47.4072</v>
+        <v>47.6298</v>
       </c>
       <c r="D49" t="n">
-        <v>55.514</v>
+        <v>55.9953</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>80.3977</v>
+        <v>80.4242</v>
       </c>
       <c r="C50" t="n">
-        <v>46.2918</v>
+        <v>46.4838</v>
       </c>
       <c r="D50" t="n">
-        <v>55.6201</v>
+        <v>55.8828</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>80.7726</v>
+        <v>80.46120000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>46.3252</v>
+        <v>46.5574</v>
       </c>
       <c r="D51" t="n">
-        <v>55.4265</v>
+        <v>56.1042</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>81.30329999999999</v>
+        <v>80.81100000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>46.9192</v>
+        <v>46.9534</v>
       </c>
       <c r="D52" t="n">
-        <v>56.0304</v>
+        <v>56.3186</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>81.6951</v>
+        <v>81.7028</v>
       </c>
       <c r="C53" t="n">
-        <v>46.99</v>
+        <v>46.989</v>
       </c>
       <c r="D53" t="n">
-        <v>56.2238</v>
+        <v>56.5193</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>82.0578</v>
+        <v>81.82210000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>47.3232</v>
+        <v>47.5833</v>
       </c>
       <c r="D54" t="n">
-        <v>56.2734</v>
+        <v>56.698</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>82.453</v>
+        <v>82.2401</v>
       </c>
       <c r="C55" t="n">
-        <v>47.8893</v>
+        <v>48.0308</v>
       </c>
       <c r="D55" t="n">
-        <v>56.6072</v>
+        <v>57.0226</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>82.9064</v>
+        <v>82.92189999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>48.3569</v>
+        <v>48.3983</v>
       </c>
       <c r="D56" t="n">
-        <v>56.6581</v>
+        <v>56.9525</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>83.48690000000001</v>
+        <v>83.50060000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>49.3684</v>
+        <v>48.7606</v>
       </c>
       <c r="D57" t="n">
-        <v>57.0737</v>
+        <v>57.1939</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>81.3985</v>
+        <v>82.1048</v>
       </c>
       <c r="C58" t="n">
-        <v>50.2119</v>
+        <v>49.24</v>
       </c>
       <c r="D58" t="n">
-        <v>57.5174</v>
+        <v>57.4443</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>84.6404</v>
+        <v>83.8111</v>
       </c>
       <c r="C59" t="n">
-        <v>51.0552</v>
+        <v>50.0298</v>
       </c>
       <c r="D59" t="n">
-        <v>57.2705</v>
+        <v>57.7199</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>84.5682</v>
+        <v>84.4888</v>
       </c>
       <c r="C60" t="n">
-        <v>50.8602</v>
+        <v>50.6861</v>
       </c>
       <c r="D60" t="n">
-        <v>57.3226</v>
+        <v>57.8262</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>83.85429999999999</v>
+        <v>83.9076</v>
       </c>
       <c r="C61" t="n">
-        <v>52.1104</v>
+        <v>51.3924</v>
       </c>
       <c r="D61" t="n">
-        <v>57.8016</v>
+        <v>58.0227</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>85.14409999999999</v>
+        <v>85.2086</v>
       </c>
       <c r="C62" t="n">
-        <v>53.4439</v>
+        <v>52.0451</v>
       </c>
       <c r="D62" t="n">
-        <v>58.4303</v>
+        <v>58.0631</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>84.02249999999999</v>
+        <v>82.7187</v>
       </c>
       <c r="C63" t="n">
-        <v>54.8482</v>
+        <v>53.0136</v>
       </c>
       <c r="D63" t="n">
-        <v>59.2776</v>
+        <v>58.3873</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>89.2736</v>
+        <v>87.2149</v>
       </c>
       <c r="C64" t="n">
-        <v>59.224</v>
+        <v>58.9419</v>
       </c>
       <c r="D64" t="n">
-        <v>63.4859</v>
+        <v>62.24</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>91.1084</v>
+        <v>89.381</v>
       </c>
       <c r="C65" t="n">
-        <v>60.9917</v>
+        <v>60.0227</v>
       </c>
       <c r="D65" t="n">
-        <v>63.2154</v>
+        <v>63.0326</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>91.61960000000001</v>
+        <v>91.0752</v>
       </c>
       <c r="C66" t="n">
-        <v>63.2143</v>
+        <v>62.798</v>
       </c>
       <c r="D66" t="n">
-        <v>64.8753</v>
+        <v>64.7072</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>91.6733</v>
+        <v>91.455</v>
       </c>
       <c r="C67" t="n">
-        <v>65.00360000000001</v>
+        <v>65.1267</v>
       </c>
       <c r="D67" t="n">
-        <v>65.9585</v>
+        <v>66.8796</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>93.7921</v>
+        <v>95.35720000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>68.3527</v>
+        <v>68.087</v>
       </c>
       <c r="D68" t="n">
-        <v>68.4345</v>
+        <v>67.8595</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>100.378</v>
+        <v>99.1561</v>
       </c>
       <c r="C69" t="n">
-        <v>70.4971</v>
+        <v>71.3353</v>
       </c>
       <c r="D69" t="n">
-        <v>69.408</v>
+        <v>71.67270000000001</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>101.422</v>
+        <v>103.945</v>
       </c>
       <c r="C70" t="n">
-        <v>74.0527</v>
+        <v>75.03189999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>72.7307</v>
+        <v>73.4247</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>102.301</v>
+        <v>105.977</v>
       </c>
       <c r="C71" t="n">
-        <v>77.83069999999999</v>
+        <v>78.0175</v>
       </c>
       <c r="D71" t="n">
-        <v>73.96510000000001</v>
+        <v>74.2754</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>108.114</v>
+        <v>108.858</v>
       </c>
       <c r="C72" t="n">
-        <v>80.4136</v>
+        <v>81.6819</v>
       </c>
       <c r="D72" t="n">
-        <v>76.3129</v>
+        <v>77.25539999999999</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>110.766</v>
+        <v>113.441</v>
       </c>
       <c r="C73" t="n">
-        <v>83.9391</v>
+        <v>85.11320000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>79.37179999999999</v>
+        <v>81.042</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>115.655</v>
+        <v>119.189</v>
       </c>
       <c r="C74" t="n">
-        <v>88.181</v>
+        <v>89.3325</v>
       </c>
       <c r="D74" t="n">
-        <v>80.75620000000001</v>
+        <v>82.33159999999999</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>119.335</v>
+        <v>121.765</v>
       </c>
       <c r="C75" t="n">
-        <v>91.6437</v>
+        <v>92.6904</v>
       </c>
       <c r="D75" t="n">
-        <v>84.6052</v>
+        <v>85.7067</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>139.411</v>
+        <v>142.36</v>
       </c>
       <c r="C76" t="n">
-        <v>96.20659999999999</v>
+        <v>98.0812</v>
       </c>
       <c r="D76" t="n">
-        <v>87.2992</v>
+        <v>89.68899999999999</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>145.325</v>
+        <v>150</v>
       </c>
       <c r="C77" t="n">
-        <v>99.6979</v>
+        <v>101.946</v>
       </c>
       <c r="D77" t="n">
-        <v>91.7088</v>
+        <v>94.2795</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>151.719</v>
+        <v>156.977</v>
       </c>
       <c r="C78" t="n">
-        <v>119.062</v>
+        <v>120.252</v>
       </c>
       <c r="D78" t="n">
-        <v>108.092</v>
+        <v>111.564</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>161.739</v>
+        <v>164.341</v>
       </c>
       <c r="C79" t="n">
-        <v>123.191</v>
+        <v>124.69</v>
       </c>
       <c r="D79" t="n">
-        <v>113.85</v>
+        <v>117.477</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>168.493</v>
+        <v>174.566</v>
       </c>
       <c r="C80" t="n">
-        <v>127.697</v>
+        <v>129.187</v>
       </c>
       <c r="D80" t="n">
-        <v>121.999</v>
+        <v>123.363</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>181.234</v>
+        <v>184.895</v>
       </c>
       <c r="C81" t="n">
-        <v>133.024</v>
+        <v>133.53</v>
       </c>
       <c r="D81" t="n">
-        <v>128.431</v>
+        <v>128.958</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>188.103</v>
+        <v>193.862</v>
       </c>
       <c r="C82" t="n">
-        <v>138.079</v>
+        <v>138.694</v>
       </c>
       <c r="D82" t="n">
-        <v>135.92</v>
+        <v>137.327</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>200.941</v>
+        <v>201.997</v>
       </c>
       <c r="C83" t="n">
-        <v>142.191</v>
+        <v>143.621</v>
       </c>
       <c r="D83" t="n">
-        <v>143.83</v>
+        <v>143.077</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>212.395</v>
+        <v>215.629</v>
       </c>
       <c r="C84" t="n">
-        <v>146.985</v>
+        <v>147.772</v>
       </c>
       <c r="D84" t="n">
-        <v>149.803</v>
+        <v>150.216</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>218.676</v>
+        <v>224.348</v>
       </c>
       <c r="C85" t="n">
-        <v>152.232</v>
+        <v>152.724</v>
       </c>
       <c r="D85" t="n">
-        <v>157.173</v>
+        <v>158.085</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>225.637</v>
+        <v>225.064</v>
       </c>
       <c r="C86" t="n">
-        <v>156.881</v>
+        <v>157.055</v>
       </c>
       <c r="D86" t="n">
-        <v>163.872</v>
+        <v>165.222</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>242.013</v>
+        <v>247.127</v>
       </c>
       <c r="C87" t="n">
-        <v>161.932</v>
+        <v>162.585</v>
       </c>
       <c r="D87" t="n">
-        <v>170.41</v>
+        <v>172.327</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>254.181</v>
+        <v>257.676</v>
       </c>
       <c r="C88" t="n">
-        <v>165.183</v>
+        <v>166.415</v>
       </c>
       <c r="D88" t="n">
-        <v>178.163</v>
+        <v>179.951</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>265.218</v>
+        <v>268.801</v>
       </c>
       <c r="C89" t="n">
-        <v>171.476</v>
+        <v>171.817</v>
       </c>
       <c r="D89" t="n">
-        <v>184.387</v>
+        <v>186.897</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>276.997</v>
+        <v>278.384</v>
       </c>
       <c r="C90" t="n">
-        <v>176.315</v>
+        <v>176.232</v>
       </c>
       <c r="D90" t="n">
-        <v>191.578</v>
+        <v>194.177</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>300.858</v>
+        <v>301.68</v>
       </c>
       <c r="C91" t="n">
-        <v>182.209</v>
+        <v>181.802</v>
       </c>
       <c r="D91" t="n">
-        <v>197.958</v>
+        <v>200.584</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>293.888</v>
+        <v>294.731</v>
       </c>
       <c r="C92" t="n">
-        <v>191.829</v>
+        <v>192.265</v>
       </c>
       <c r="D92" t="n">
-        <v>212.305</v>
+        <v>215.262</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>314.516</v>
+        <v>321.178</v>
       </c>
       <c r="C93" t="n">
-        <v>194.381</v>
+        <v>196.33</v>
       </c>
       <c r="D93" t="n">
-        <v>219.284</v>
+        <v>221.115</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>311.479</v>
+        <v>321.637</v>
       </c>
       <c r="C94" t="n">
-        <v>198.836</v>
+        <v>199.389</v>
       </c>
       <c r="D94" t="n">
-        <v>224.337</v>
+        <v>227.542</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>319.358</v>
+        <v>330.747</v>
       </c>
       <c r="C95" t="n">
-        <v>203.235</v>
+        <v>202.314</v>
       </c>
       <c r="D95" t="n">
-        <v>231.345</v>
+        <v>233.4</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>326.384</v>
+        <v>326.122</v>
       </c>
       <c r="C96" t="n">
-        <v>207.139</v>
+        <v>206.157</v>
       </c>
       <c r="D96" t="n">
-        <v>234.785</v>
+        <v>239.604</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>335.651</v>
+        <v>354.65</v>
       </c>
       <c r="C97" t="n">
-        <v>211.044</v>
+        <v>210.546</v>
       </c>
       <c r="D97" t="n">
-        <v>239.811</v>
+        <v>244.48</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>342.095</v>
+        <v>341.574</v>
       </c>
       <c r="C98" t="n">
-        <v>214.759</v>
+        <v>213.472</v>
       </c>
       <c r="D98" t="n">
-        <v>246.368</v>
+        <v>249.273</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>349.968</v>
+        <v>359.812</v>
       </c>
       <c r="C99" t="n">
-        <v>217.081</v>
+        <v>216.384</v>
       </c>
       <c r="D99" t="n">
-        <v>249.452</v>
+        <v>254.572</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>357.042</v>
+        <v>367.08</v>
       </c>
       <c r="C100" t="n">
-        <v>221.515</v>
+        <v>220.129</v>
       </c>
       <c r="D100" t="n">
-        <v>255.072</v>
+        <v>259.994</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>367.08</v>
+        <v>378.306</v>
       </c>
       <c r="C101" t="n">
-        <v>223.536</v>
+        <v>224.601</v>
       </c>
       <c r="D101" t="n">
-        <v>259.357</v>
+        <v>263.161</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>385.31</v>
+        <v>390.648</v>
       </c>
       <c r="C102" t="n">
-        <v>228.691</v>
+        <v>227.698</v>
       </c>
       <c r="D102" t="n">
-        <v>263.634</v>
+        <v>266.668</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>389.313</v>
+        <v>395.15</v>
       </c>
       <c r="C103" t="n">
-        <v>232.004</v>
+        <v>231.419</v>
       </c>
       <c r="D103" t="n">
-        <v>267.836</v>
+        <v>271.554</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>400.493</v>
+        <v>400.857</v>
       </c>
       <c r="C104" t="n">
-        <v>235.639</v>
+        <v>235.371</v>
       </c>
       <c r="D104" t="n">
-        <v>272.651</v>
+        <v>274.732</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>396.301</v>
+        <v>392.811</v>
       </c>
       <c r="C105" t="n">
-        <v>238.979</v>
+        <v>239.73</v>
       </c>
       <c r="D105" t="n">
-        <v>276.726</v>
+        <v>276.98</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>391.26</v>
+        <v>405.935</v>
       </c>
       <c r="C106" t="n">
-        <v>243.346</v>
+        <v>243.941</v>
       </c>
       <c r="D106" t="n">
-        <v>280.526</v>
+        <v>283.6</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>397.564</v>
+        <v>398.398</v>
       </c>
       <c r="C107" t="n">
-        <v>239.314</v>
+        <v>242.484</v>
       </c>
       <c r="D107" t="n">
-        <v>287.008</v>
+        <v>291.254</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>410.901</v>
+        <v>420.484</v>
       </c>
       <c r="C108" t="n">
-        <v>241.975</v>
+        <v>244.388</v>
       </c>
       <c r="D108" t="n">
-        <v>292.139</v>
+        <v>295.39</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>407.828</v>
+        <v>417.811</v>
       </c>
       <c r="C109" t="n">
-        <v>245.457</v>
+        <v>246.413</v>
       </c>
       <c r="D109" t="n">
-        <v>293.85</v>
+        <v>299.255</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>431.629</v>
+        <v>434.964</v>
       </c>
       <c r="C110" t="n">
-        <v>248.967</v>
+        <v>248.888</v>
       </c>
       <c r="D110" t="n">
-        <v>297.048</v>
+        <v>302.571</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>424.998</v>
+        <v>424.49</v>
       </c>
       <c r="C111" t="n">
-        <v>250.139</v>
+        <v>252.8</v>
       </c>
       <c r="D111" t="n">
-        <v>300.889</v>
+        <v>305.255</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>420.915</v>
+        <v>422.781</v>
       </c>
       <c r="C112" t="n">
-        <v>253.675</v>
+        <v>255.098</v>
       </c>
       <c r="D112" t="n">
-        <v>305.67</v>
+        <v>308.68</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>426.442</v>
+        <v>427.504</v>
       </c>
       <c r="C113" t="n">
-        <v>256.261</v>
+        <v>259.437</v>
       </c>
       <c r="D113" t="n">
-        <v>309.811</v>
+        <v>310.129</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>438.432</v>
+        <v>450.348</v>
       </c>
       <c r="C114" t="n">
-        <v>259.901</v>
+        <v>260.519</v>
       </c>
       <c r="D114" t="n">
-        <v>311.168</v>
+        <v>314.026</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>463.939</v>
+        <v>465.939</v>
       </c>
       <c r="C115" t="n">
-        <v>262.682</v>
+        <v>263.756</v>
       </c>
       <c r="D115" t="n">
-        <v>313.597</v>
+        <v>316.58</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>449.966</v>
+        <v>453.001</v>
       </c>
       <c r="C116" t="n">
-        <v>265.903</v>
+        <v>267.252</v>
       </c>
       <c r="D116" t="n">
-        <v>316.434</v>
+        <v>318.908</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>466.34</v>
+        <v>469.687</v>
       </c>
       <c r="C117" t="n">
-        <v>268.599</v>
+        <v>270.297</v>
       </c>
       <c r="D117" t="n">
-        <v>319.243</v>
+        <v>320.043</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>449.497</v>
+        <v>474.697</v>
       </c>
       <c r="C118" t="n">
-        <v>272.8</v>
+        <v>274.569</v>
       </c>
       <c r="D118" t="n">
-        <v>323.506</v>
+        <v>323.664</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>445.48</v>
+        <v>449.3</v>
       </c>
       <c r="C119" t="n">
-        <v>275.307</v>
+        <v>277.772</v>
       </c>
       <c r="D119" t="n">
-        <v>323.849</v>
+        <v>326.292</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>52.5337</v>
+        <v>53.153</v>
       </c>
       <c r="C2" t="n">
-        <v>33.2624</v>
+        <v>34.0237</v>
       </c>
       <c r="D2" t="n">
-        <v>34.5914</v>
+        <v>34.6458</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>53.4349</v>
+        <v>54.2996</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0928</v>
+        <v>34.8438</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7961</v>
+        <v>35.0426</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>54.0499</v>
+        <v>54.7939</v>
       </c>
       <c r="C4" t="n">
-        <v>34.4767</v>
+        <v>34.8275</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3921</v>
+        <v>35.5119</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>55.356</v>
+        <v>55.9785</v>
       </c>
       <c r="C5" t="n">
-        <v>35.2314</v>
+        <v>35.8608</v>
       </c>
       <c r="D5" t="n">
-        <v>35.9208</v>
+        <v>36.0692</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>56.6298</v>
+        <v>56.9509</v>
       </c>
       <c r="C6" t="n">
-        <v>36.1717</v>
+        <v>36.5308</v>
       </c>
       <c r="D6" t="n">
-        <v>36.5768</v>
+        <v>36.4328</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>57.805</v>
+        <v>58.2447</v>
       </c>
       <c r="C7" t="n">
-        <v>36.9028</v>
+        <v>37.4645</v>
       </c>
       <c r="D7" t="n">
-        <v>37.3262</v>
+        <v>37.1452</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>58.3199</v>
+        <v>59.144</v>
       </c>
       <c r="C8" t="n">
-        <v>37.2708</v>
+        <v>38.0956</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5544</v>
+        <v>37.5757</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>59.1585</v>
+        <v>60.5133</v>
       </c>
       <c r="C9" t="n">
-        <v>38.0803</v>
+        <v>39.196</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9819</v>
+        <v>38.4083</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>60.2153</v>
+        <v>61.8876</v>
       </c>
       <c r="C10" t="n">
-        <v>39.0474</v>
+        <v>40.3399</v>
       </c>
       <c r="D10" t="n">
-        <v>38.3272</v>
+        <v>38.8282</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>61.0544</v>
+        <v>62.4395</v>
       </c>
       <c r="C11" t="n">
-        <v>36.6991</v>
+        <v>38.6717</v>
       </c>
       <c r="D11" t="n">
-        <v>38.1738</v>
+        <v>39.4948</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>58.5499</v>
+        <v>61.0395</v>
       </c>
       <c r="C12" t="n">
-        <v>37.1408</v>
+        <v>38.9814</v>
       </c>
       <c r="D12" t="n">
-        <v>38.98</v>
+        <v>40.0396</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>59.7082</v>
+        <v>61.9228</v>
       </c>
       <c r="C13" t="n">
-        <v>37.5764</v>
+        <v>39.7757</v>
       </c>
       <c r="D13" t="n">
-        <v>39.3594</v>
+        <v>40.263</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>60.6823</v>
+        <v>63.0116</v>
       </c>
       <c r="C14" t="n">
-        <v>38.58</v>
+        <v>40.576</v>
       </c>
       <c r="D14" t="n">
-        <v>39.9732</v>
+        <v>40.8724</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>62.0603</v>
+        <v>64.3516</v>
       </c>
       <c r="C15" t="n">
-        <v>39.5082</v>
+        <v>41.3885</v>
       </c>
       <c r="D15" t="n">
-        <v>40.5005</v>
+        <v>41.345</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>62.8991</v>
+        <v>65.17019999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>40.0444</v>
+        <v>42.1703</v>
       </c>
       <c r="D16" t="n">
-        <v>40.7613</v>
+        <v>41.7714</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>63.963</v>
+        <v>65.96550000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>41.1866</v>
+        <v>42.7989</v>
       </c>
       <c r="D17" t="n">
-        <v>41.3945</v>
+        <v>42.2412</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>64.0866</v>
+        <v>66.3066</v>
       </c>
       <c r="C18" t="n">
-        <v>40.825</v>
+        <v>42.58</v>
       </c>
       <c r="D18" t="n">
-        <v>42.0557</v>
+        <v>42.9026</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>66.8565</v>
+        <v>68.7968</v>
       </c>
       <c r="C19" t="n">
-        <v>43.0129</v>
+        <v>44.5781</v>
       </c>
       <c r="D19" t="n">
-        <v>42.5342</v>
+        <v>43.4634</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>67.995</v>
+        <v>70.05419999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>43.5926</v>
+        <v>45.105</v>
       </c>
       <c r="D20" t="n">
-        <v>43.1552</v>
+        <v>44.0187</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>69.2959</v>
+        <v>71.7868</v>
       </c>
       <c r="C21" t="n">
-        <v>44.7308</v>
+        <v>46.3569</v>
       </c>
       <c r="D21" t="n">
-        <v>43.9504</v>
+        <v>44.7247</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>69.9486</v>
+        <v>72.7705</v>
       </c>
       <c r="C22" t="n">
-        <v>45.475</v>
+        <v>47.0008</v>
       </c>
       <c r="D22" t="n">
-        <v>44.5833</v>
+        <v>45.1863</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>71.6504</v>
+        <v>74.29730000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>46.3512</v>
+        <v>48.27</v>
       </c>
       <c r="D23" t="n">
-        <v>45.011</v>
+        <v>46.0172</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>73.34520000000001</v>
+        <v>75.5783</v>
       </c>
       <c r="C24" t="n">
-        <v>47.8644</v>
+        <v>48.7171</v>
       </c>
       <c r="D24" t="n">
-        <v>45.5974</v>
+        <v>46.0311</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>75.5585</v>
+        <v>77.4697</v>
       </c>
       <c r="C25" t="n">
-        <v>49.2664</v>
+        <v>50.6798</v>
       </c>
       <c r="D25" t="n">
-        <v>46.304</v>
+        <v>46.7228</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>77.3571</v>
+        <v>79.2762</v>
       </c>
       <c r="C26" t="n">
-        <v>43.5402</v>
+        <v>45.2095</v>
       </c>
       <c r="D26" t="n">
-        <v>46.8304</v>
+        <v>47.467</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>72.7636</v>
+        <v>74.73269999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>43.9837</v>
+        <v>45.5126</v>
       </c>
       <c r="D27" t="n">
-        <v>47.2158</v>
+        <v>48.2369</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>73.7696</v>
+        <v>75.9139</v>
       </c>
       <c r="C28" t="n">
-        <v>44.6555</v>
+        <v>46.2665</v>
       </c>
       <c r="D28" t="n">
-        <v>47.8498</v>
+        <v>48.5675</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>74.6808</v>
+        <v>76.9102</v>
       </c>
       <c r="C29" t="n">
-        <v>45.0477</v>
+        <v>46.7482</v>
       </c>
       <c r="D29" t="n">
-        <v>48.5867</v>
+        <v>48.5864</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>75.9251</v>
+        <v>77.947</v>
       </c>
       <c r="C30" t="n">
-        <v>46.0691</v>
+        <v>47.5274</v>
       </c>
       <c r="D30" t="n">
-        <v>48.7851</v>
+        <v>49.6928</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>77.42959999999999</v>
+        <v>79.133</v>
       </c>
       <c r="C31" t="n">
-        <v>46.9121</v>
+        <v>48.3005</v>
       </c>
       <c r="D31" t="n">
-        <v>49.188</v>
+        <v>50.0253</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>78.6952</v>
+        <v>80.5556</v>
       </c>
       <c r="C32" t="n">
-        <v>47.8128</v>
+        <v>49.2007</v>
       </c>
       <c r="D32" t="n">
-        <v>49.1933</v>
+        <v>50.5884</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>79.6525</v>
+        <v>81.4481</v>
       </c>
       <c r="C33" t="n">
-        <v>48.5412</v>
+        <v>49.7898</v>
       </c>
       <c r="D33" t="n">
-        <v>49.8273</v>
+        <v>50.8656</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>81.2054</v>
+        <v>82.82299999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>49.4091</v>
+        <v>51.2639</v>
       </c>
       <c r="D34" t="n">
-        <v>50.436</v>
+        <v>51.3396</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>82.1777</v>
+        <v>84.35039999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>50.5034</v>
+        <v>52.0746</v>
       </c>
       <c r="D35" t="n">
-        <v>50.9827</v>
+        <v>51.8463</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>83.88249999999999</v>
+        <v>85.468</v>
       </c>
       <c r="C36" t="n">
-        <v>51.5717</v>
+        <v>53.0497</v>
       </c>
       <c r="D36" t="n">
-        <v>51.1951</v>
+        <v>52.2176</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>84.6576</v>
+        <v>86.2901</v>
       </c>
       <c r="C37" t="n">
-        <v>52.6686</v>
+        <v>54.0848</v>
       </c>
       <c r="D37" t="n">
-        <v>51.4442</v>
+        <v>52.3362</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>85.876</v>
+        <v>87.4957</v>
       </c>
       <c r="C38" t="n">
-        <v>53.9136</v>
+        <v>55.287</v>
       </c>
       <c r="D38" t="n">
-        <v>51.752</v>
+        <v>53.1216</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>87.50190000000001</v>
+        <v>89.5652</v>
       </c>
       <c r="C39" t="n">
-        <v>54.8087</v>
+        <v>56.263</v>
       </c>
       <c r="D39" t="n">
-        <v>52.0571</v>
+        <v>53.2125</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>88.5234</v>
+        <v>90.0928</v>
       </c>
       <c r="C40" t="n">
-        <v>50.1733</v>
+        <v>51.3764</v>
       </c>
       <c r="D40" t="n">
-        <v>52.7615</v>
+        <v>53.7453</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>84.02809999999999</v>
+        <v>85.5249</v>
       </c>
       <c r="C41" t="n">
-        <v>50.6032</v>
+        <v>51.8312</v>
       </c>
       <c r="D41" t="n">
-        <v>52.8155</v>
+        <v>54.0893</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>84.9057</v>
+        <v>86.2411</v>
       </c>
       <c r="C42" t="n">
-        <v>51.3634</v>
+        <v>52.5368</v>
       </c>
       <c r="D42" t="n">
-        <v>53.4285</v>
+        <v>54.1244</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>85.46429999999999</v>
+        <v>86.8232</v>
       </c>
       <c r="C43" t="n">
-        <v>51.9269</v>
+        <v>53.0385</v>
       </c>
       <c r="D43" t="n">
-        <v>53.7373</v>
+        <v>54.4351</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>86.2282</v>
+        <v>87.5848</v>
       </c>
       <c r="C44" t="n">
-        <v>53.1161</v>
+        <v>54.3057</v>
       </c>
       <c r="D44" t="n">
-        <v>53.8612</v>
+        <v>54.951</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>87.6353</v>
+        <v>89.12139999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>53.5243</v>
+        <v>54.7271</v>
       </c>
       <c r="D45" t="n">
-        <v>53.9365</v>
+        <v>55.1151</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>88.5463</v>
+        <v>89.7076</v>
       </c>
       <c r="C46" t="n">
-        <v>54.7953</v>
+        <v>55.8073</v>
       </c>
       <c r="D46" t="n">
-        <v>54.3694</v>
+        <v>55.4017</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>89.72580000000001</v>
+        <v>90.94540000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>55.5992</v>
+        <v>56.6812</v>
       </c>
       <c r="D47" t="n">
-        <v>54.6561</v>
+        <v>55.4812</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>90.5548</v>
+        <v>91.813</v>
       </c>
       <c r="C48" t="n">
-        <v>56.1009</v>
+        <v>57.3051</v>
       </c>
       <c r="D48" t="n">
-        <v>54.7423</v>
+        <v>55.8048</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>91.4213</v>
+        <v>92.5783</v>
       </c>
       <c r="C49" t="n">
-        <v>57.262</v>
+        <v>58.3442</v>
       </c>
       <c r="D49" t="n">
-        <v>55.2985</v>
+        <v>55.9105</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>92.83280000000001</v>
+        <v>94.1032</v>
       </c>
       <c r="C50" t="n">
-        <v>57.9458</v>
+        <v>59.085</v>
       </c>
       <c r="D50" t="n">
-        <v>55.5317</v>
+        <v>56.021</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>93.9221</v>
+        <v>95.1039</v>
       </c>
       <c r="C51" t="n">
-        <v>58.867</v>
+        <v>60.0052</v>
       </c>
       <c r="D51" t="n">
-        <v>55.7269</v>
+        <v>56.2841</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>95.0703</v>
+        <v>96.4071</v>
       </c>
       <c r="C52" t="n">
-        <v>60.1863</v>
+        <v>61.287</v>
       </c>
       <c r="D52" t="n">
-        <v>55.6958</v>
+        <v>56.7464</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>96.1666</v>
+        <v>97.33029999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>61.0335</v>
+        <v>62.2216</v>
       </c>
       <c r="D53" t="n">
-        <v>56.2985</v>
+        <v>56.8881</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>97.34650000000001</v>
+        <v>98.5372</v>
       </c>
       <c r="C54" t="n">
-        <v>54.467</v>
+        <v>55.3891</v>
       </c>
       <c r="D54" t="n">
-        <v>56.3461</v>
+        <v>56.9012</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>98.65940000000001</v>
+        <v>99.8954</v>
       </c>
       <c r="C55" t="n">
-        <v>55.0514</v>
+        <v>56.0626</v>
       </c>
       <c r="D55" t="n">
-        <v>56.4875</v>
+        <v>57.2622</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>90.61660000000001</v>
+        <v>91.899</v>
       </c>
       <c r="C56" t="n">
-        <v>55.9176</v>
+        <v>56.8285</v>
       </c>
       <c r="D56" t="n">
-        <v>56.3966</v>
+        <v>57.4249</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>91.392</v>
+        <v>92.4135</v>
       </c>
       <c r="C57" t="n">
-        <v>56.5617</v>
+        <v>57.4886</v>
       </c>
       <c r="D57" t="n">
-        <v>56.8873</v>
+        <v>57.5031</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>92.127</v>
+        <v>93.367</v>
       </c>
       <c r="C58" t="n">
-        <v>57.167</v>
+        <v>58.3246</v>
       </c>
       <c r="D58" t="n">
-        <v>57.0947</v>
+        <v>57.8583</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>93.18170000000001</v>
+        <v>94.18899999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>57.9614</v>
+        <v>59.0805</v>
       </c>
       <c r="D59" t="n">
-        <v>57.0101</v>
+        <v>58.0046</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>93.76990000000001</v>
+        <v>94.7779</v>
       </c>
       <c r="C60" t="n">
-        <v>59.0259</v>
+        <v>59.9897</v>
       </c>
       <c r="D60" t="n">
-        <v>57.2794</v>
+        <v>57.7596</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>94.7114</v>
+        <v>95.5206</v>
       </c>
       <c r="C61" t="n">
-        <v>60.0117</v>
+        <v>60.9303</v>
       </c>
       <c r="D61" t="n">
-        <v>57.7959</v>
+        <v>58.0748</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>95.60509999999999</v>
+        <v>96.4161</v>
       </c>
       <c r="C62" t="n">
-        <v>61.0977</v>
+        <v>62.0196</v>
       </c>
       <c r="D62" t="n">
-        <v>57.5864</v>
+        <v>58.455</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>96.4015</v>
+        <v>97.5047</v>
       </c>
       <c r="C63" t="n">
-        <v>62.4902</v>
+        <v>63.5474</v>
       </c>
       <c r="D63" t="n">
-        <v>57.9267</v>
+        <v>58.3826</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>97.54989999999999</v>
+        <v>98.759</v>
       </c>
       <c r="C64" t="n">
-        <v>63.5189</v>
+        <v>65.20869999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>57.7407</v>
+        <v>58.7991</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>98.8661</v>
+        <v>100.089</v>
       </c>
       <c r="C65" t="n">
-        <v>65.1708</v>
+        <v>67.0804</v>
       </c>
       <c r="D65" t="n">
-        <v>58.0532</v>
+        <v>58.9401</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>100.14</v>
+        <v>101.234</v>
       </c>
       <c r="C66" t="n">
-        <v>66.6399</v>
+        <v>68.3728</v>
       </c>
       <c r="D66" t="n">
-        <v>58.1507</v>
+        <v>59.1927</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>101.09</v>
+        <v>102.409</v>
       </c>
       <c r="C67" t="n">
-        <v>68.8776</v>
+        <v>70.50069999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>58.7507</v>
+        <v>59.5588</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>102.081</v>
+        <v>103.661</v>
       </c>
       <c r="C68" t="n">
-        <v>61.6682</v>
+        <v>63.9601</v>
       </c>
       <c r="D68" t="n">
-        <v>59.4385</v>
+        <v>61.5251</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>104.288</v>
+        <v>107.563</v>
       </c>
       <c r="C69" t="n">
-        <v>63.2145</v>
+        <v>66.57599999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>59.9143</v>
+        <v>62.2642</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>96.00620000000001</v>
+        <v>101.738</v>
       </c>
       <c r="C70" t="n">
-        <v>65.5309</v>
+        <v>69.3523</v>
       </c>
       <c r="D70" t="n">
-        <v>60.3545</v>
+        <v>64.1934</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>96.6087</v>
+        <v>104.295</v>
       </c>
       <c r="C71" t="n">
-        <v>68.6014</v>
+        <v>72.9042</v>
       </c>
       <c r="D71" t="n">
-        <v>61.5411</v>
+        <v>65.6349</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>99.2264</v>
+        <v>108.31</v>
       </c>
       <c r="C72" t="n">
-        <v>71.75709999999999</v>
+        <v>76.398</v>
       </c>
       <c r="D72" t="n">
-        <v>62.5336</v>
+        <v>67.5466</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>103.42</v>
+        <v>111.937</v>
       </c>
       <c r="C73" t="n">
-        <v>75.5624</v>
+        <v>80.45650000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>64.5381</v>
+        <v>69.3746</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>105.261</v>
+        <v>116.767</v>
       </c>
       <c r="C74" t="n">
-        <v>79.17440000000001</v>
+        <v>85.0882</v>
       </c>
       <c r="D74" t="n">
-        <v>66.89579999999999</v>
+        <v>72.554</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>110.098</v>
+        <v>121.913</v>
       </c>
       <c r="C75" t="n">
-        <v>83.2448</v>
+        <v>90.4563</v>
       </c>
       <c r="D75" t="n">
-        <v>68.6514</v>
+        <v>75.8707</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>114.776</v>
+        <v>127.388</v>
       </c>
       <c r="C76" t="n">
-        <v>88.0908</v>
+        <v>95.43470000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>71.21250000000001</v>
+        <v>79.2745</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>121.263</v>
+        <v>132.73</v>
       </c>
       <c r="C77" t="n">
-        <v>93.5658</v>
+        <v>100.842</v>
       </c>
       <c r="D77" t="n">
-        <v>75.0279</v>
+        <v>82.43689999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>127.329</v>
+        <v>139.718</v>
       </c>
       <c r="C78" t="n">
-        <v>99.40779999999999</v>
+        <v>105.925</v>
       </c>
       <c r="D78" t="n">
-        <v>79.4914</v>
+        <v>86.26430000000001</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>135.297</v>
+        <v>146.753</v>
       </c>
       <c r="C79" t="n">
-        <v>104.742</v>
+        <v>111.462</v>
       </c>
       <c r="D79" t="n">
-        <v>83.6643</v>
+        <v>90.6251</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>144.107</v>
+        <v>155.173</v>
       </c>
       <c r="C80" t="n">
-        <v>111.387</v>
+        <v>117.787</v>
       </c>
       <c r="D80" t="n">
-        <v>88.71380000000001</v>
+        <v>94.962</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>153.798</v>
+        <v>163.701</v>
       </c>
       <c r="C81" t="n">
-        <v>118.336</v>
+        <v>124.251</v>
       </c>
       <c r="D81" t="n">
-        <v>93.8425</v>
+        <v>100.109</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>161.754</v>
+        <v>173.629</v>
       </c>
       <c r="C82" t="n">
-        <v>125.772</v>
+        <v>131.263</v>
       </c>
       <c r="D82" t="n">
-        <v>100.367</v>
+        <v>105.718</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>175.101</v>
+        <v>184.827</v>
       </c>
       <c r="C83" t="n">
-        <v>126.442</v>
+        <v>129.889</v>
       </c>
       <c r="D83" t="n">
-        <v>114.733</v>
+        <v>119.672</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>188.871</v>
+        <v>196.755</v>
       </c>
       <c r="C84" t="n">
-        <v>132.957</v>
+        <v>136.74</v>
       </c>
       <c r="D84" t="n">
-        <v>121.608</v>
+        <v>126.401</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>190.135</v>
+        <v>199.497</v>
       </c>
       <c r="C85" t="n">
-        <v>139.83</v>
+        <v>143.449</v>
       </c>
       <c r="D85" t="n">
-        <v>128.278</v>
+        <v>133.739</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>198.949</v>
+        <v>205.985</v>
       </c>
       <c r="C86" t="n">
-        <v>147.628</v>
+        <v>152.081</v>
       </c>
       <c r="D86" t="n">
-        <v>135.246</v>
+        <v>140.742</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>216.11</v>
+        <v>225.66</v>
       </c>
       <c r="C87" t="n">
-        <v>155.885</v>
+        <v>159.512</v>
       </c>
       <c r="D87" t="n">
-        <v>143.209</v>
+        <v>148.887</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>232.565</v>
+        <v>238.323</v>
       </c>
       <c r="C88" t="n">
-        <v>164.037</v>
+        <v>167.569</v>
       </c>
       <c r="D88" t="n">
-        <v>150.44</v>
+        <v>156.119</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>245.94</v>
+        <v>253.033</v>
       </c>
       <c r="C89" t="n">
-        <v>173.35</v>
+        <v>176.772</v>
       </c>
       <c r="D89" t="n">
-        <v>158.427</v>
+        <v>162.646</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>251.507</v>
+        <v>254.855</v>
       </c>
       <c r="C90" t="n">
-        <v>181.588</v>
+        <v>185.003</v>
       </c>
       <c r="D90" t="n">
-        <v>165.054</v>
+        <v>169.704</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>275.989</v>
+        <v>281.625</v>
       </c>
       <c r="C91" t="n">
-        <v>191.892</v>
+        <v>195.319</v>
       </c>
       <c r="D91" t="n">
-        <v>171.434</v>
+        <v>176.987</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>278.422</v>
+        <v>282.898</v>
       </c>
       <c r="C92" t="n">
-        <v>201.31</v>
+        <v>203.822</v>
       </c>
       <c r="D92" t="n">
-        <v>179.688</v>
+        <v>184.625</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>305.3</v>
+        <v>310.543</v>
       </c>
       <c r="C93" t="n">
-        <v>210.711</v>
+        <v>214.601</v>
       </c>
       <c r="D93" t="n">
-        <v>184.863</v>
+        <v>191.406</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>313.497</v>
+        <v>318.346</v>
       </c>
       <c r="C94" t="n">
-        <v>220.389</v>
+        <v>225.057</v>
       </c>
       <c r="D94" t="n">
-        <v>191.402</v>
+        <v>197.191</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>327.578</v>
+        <v>339.109</v>
       </c>
       <c r="C95" t="n">
-        <v>231.966</v>
+        <v>235.508</v>
       </c>
       <c r="D95" t="n">
-        <v>196.672</v>
+        <v>203.303</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>342.271</v>
+        <v>349.916</v>
       </c>
       <c r="C96" t="n">
-        <v>245.035</v>
+        <v>245.682</v>
       </c>
       <c r="D96" t="n">
-        <v>202.826</v>
+        <v>208.733</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>358.851</v>
+        <v>371.764</v>
       </c>
       <c r="C97" t="n">
-        <v>218.295</v>
+        <v>221.992</v>
       </c>
       <c r="D97" t="n">
-        <v>219.997</v>
+        <v>226.461</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>370.783</v>
+        <v>369.31</v>
       </c>
       <c r="C98" t="n">
-        <v>227.629</v>
+        <v>228.37</v>
       </c>
       <c r="D98" t="n">
-        <v>226.521</v>
+        <v>232.422</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>359.267</v>
+        <v>363.202</v>
       </c>
       <c r="C99" t="n">
-        <v>233.811</v>
+        <v>234.037</v>
       </c>
       <c r="D99" t="n">
-        <v>231.915</v>
+        <v>236.897</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>370.148</v>
+        <v>366.815</v>
       </c>
       <c r="C100" t="n">
-        <v>240.967</v>
+        <v>241.091</v>
       </c>
       <c r="D100" t="n">
-        <v>236.107</v>
+        <v>241.827</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>385.132</v>
+        <v>388.913</v>
       </c>
       <c r="C101" t="n">
-        <v>246.695</v>
+        <v>247.705</v>
       </c>
       <c r="D101" t="n">
-        <v>244.365</v>
+        <v>247.54</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>405.872</v>
+        <v>407.419</v>
       </c>
       <c r="C102" t="n">
-        <v>256.588</v>
+        <v>256.857</v>
       </c>
       <c r="D102" t="n">
-        <v>245.221</v>
+        <v>248.324</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>415.595</v>
+        <v>408.806</v>
       </c>
       <c r="C103" t="n">
-        <v>264.072</v>
+        <v>263.508</v>
       </c>
       <c r="D103" t="n">
-        <v>252.479</v>
+        <v>253.912</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>423.56</v>
+        <v>421.437</v>
       </c>
       <c r="C104" t="n">
-        <v>273.548</v>
+        <v>271.393</v>
       </c>
       <c r="D104" t="n">
-        <v>259.756</v>
+        <v>258.705</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>435.323</v>
+        <v>431.282</v>
       </c>
       <c r="C105" t="n">
-        <v>285.53</v>
+        <v>279.593</v>
       </c>
       <c r="D105" t="n">
-        <v>261.68</v>
+        <v>262.241</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>445.364</v>
+        <v>445.475</v>
       </c>
       <c r="C106" t="n">
-        <v>294.112</v>
+        <v>288.372</v>
       </c>
       <c r="D106" t="n">
-        <v>266.261</v>
+        <v>265.875</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>458.059</v>
+        <v>459.724</v>
       </c>
       <c r="C107" t="n">
-        <v>300.924</v>
+        <v>296.763</v>
       </c>
       <c r="D107" t="n">
-        <v>269.197</v>
+        <v>270.79</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>476.431</v>
+        <v>468.464</v>
       </c>
       <c r="C108" t="n">
-        <v>309.207</v>
+        <v>307.485</v>
       </c>
       <c r="D108" t="n">
-        <v>272.811</v>
+        <v>274.715</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>476.285</v>
+        <v>479.693</v>
       </c>
       <c r="C109" t="n">
-        <v>320.806</v>
+        <v>316.04</v>
       </c>
       <c r="D109" t="n">
-        <v>276.939</v>
+        <v>277.728</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>503.244</v>
+        <v>497.067</v>
       </c>
       <c r="C110" t="n">
-        <v>328.844</v>
+        <v>327.089</v>
       </c>
       <c r="D110" t="n">
-        <v>279.781</v>
+        <v>280.483</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>510.429</v>
+        <v>504.284</v>
       </c>
       <c r="C111" t="n">
-        <v>286.625</v>
+        <v>287.313</v>
       </c>
       <c r="D111" t="n">
-        <v>292.692</v>
+        <v>295.464</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>510.757</v>
+        <v>504.917</v>
       </c>
       <c r="C112" t="n">
-        <v>295.108</v>
+        <v>292.542</v>
       </c>
       <c r="D112" t="n">
-        <v>299.633</v>
+        <v>297.643</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>529.537</v>
+        <v>521.224</v>
       </c>
       <c r="C113" t="n">
-        <v>302.607</v>
+        <v>298.636</v>
       </c>
       <c r="D113" t="n">
-        <v>301.109</v>
+        <v>300.477</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>490.586</v>
+        <v>487.308</v>
       </c>
       <c r="C114" t="n">
-        <v>308.798</v>
+        <v>305.087</v>
       </c>
       <c r="D114" t="n">
-        <v>306.564</v>
+        <v>304.413</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>513.3440000000001</v>
+        <v>507.627</v>
       </c>
       <c r="C115" t="n">
-        <v>316.381</v>
+        <v>312.942</v>
       </c>
       <c r="D115" t="n">
-        <v>305.487</v>
+        <v>306.568</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>514.074</v>
+        <v>507.113</v>
       </c>
       <c r="C116" t="n">
-        <v>322.379</v>
+        <v>320.352</v>
       </c>
       <c r="D116" t="n">
-        <v>311.75</v>
+        <v>308.579</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>528.174</v>
+        <v>522.174</v>
       </c>
       <c r="C117" t="n">
-        <v>331.029</v>
+        <v>327.293</v>
       </c>
       <c r="D117" t="n">
-        <v>311.258</v>
+        <v>310.875</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>513.477</v>
+        <v>512.623</v>
       </c>
       <c r="C118" t="n">
-        <v>337.921</v>
+        <v>336.568</v>
       </c>
       <c r="D118" t="n">
-        <v>316.589</v>
+        <v>314.949</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>532.322</v>
+        <v>524.533</v>
       </c>
       <c r="C119" t="n">
-        <v>347.241</v>
+        <v>346.034</v>
       </c>
       <c r="D119" t="n">
-        <v>317.13</v>
+        <v>315.032</v>
       </c>
     </row>
   </sheetData>
